--- a/templates/staff/notif_out.xlsx
+++ b/templates/staff/notif_out.xlsx
@@ -443,9 +443,6 @@
     <t>З</t>
   </si>
   <si>
-    <t>менеджер по персоналу Радько Елена Евгеньевна</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -499,6 +496,9 @@
   </si>
   <si>
     <t>нет</t>
+  </si>
+  <si>
+    <t>Генеральный директор ООО"Авидевелопмент-М" Ширяева Наталья Александровна</t>
   </si>
 </sst>
 </file>
@@ -998,14 +998,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,9 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1067,6 +1067,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1114,8 +1120,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1125,12 +1131,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1480,7 +1480,7 @@
   <sheetData>
     <row r="1" spans="1:256" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="DL1" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:256" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -1500,536 +1500,536 @@
       <c r="CM5" s="10"/>
     </row>
     <row r="6" spans="1:256" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="101"/>
-      <c r="O6" s="101"/>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="101"/>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="101"/>
-      <c r="U6" s="101"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="101"/>
-      <c r="Y6" s="101"/>
-      <c r="Z6" s="101"/>
-      <c r="AA6" s="101"/>
-      <c r="AB6" s="101"/>
-      <c r="AC6" s="101"/>
-      <c r="AD6" s="101"/>
-      <c r="AE6" s="101"/>
-      <c r="AF6" s="101"/>
-      <c r="AG6" s="101"/>
-      <c r="AH6" s="101"/>
-      <c r="AI6" s="101"/>
-      <c r="AJ6" s="101"/>
-      <c r="AK6" s="101"/>
-      <c r="AL6" s="101"/>
-      <c r="AM6" s="101"/>
-      <c r="AN6" s="101"/>
-      <c r="AO6" s="101"/>
-      <c r="AP6" s="101"/>
-      <c r="AQ6" s="101"/>
-      <c r="AR6" s="101"/>
-      <c r="AS6" s="101"/>
-      <c r="AT6" s="101"/>
-      <c r="AU6" s="101"/>
-      <c r="AV6" s="101"/>
-      <c r="AW6" s="101"/>
-      <c r="AX6" s="101"/>
-      <c r="AY6" s="101"/>
-      <c r="AZ6" s="101"/>
-      <c r="BA6" s="101"/>
-      <c r="BB6" s="101"/>
-      <c r="BC6" s="101"/>
-      <c r="BD6" s="101"/>
-      <c r="BE6" s="101"/>
-      <c r="BF6" s="101"/>
-      <c r="BG6" s="101"/>
-      <c r="BH6" s="101"/>
-      <c r="BI6" s="101"/>
-      <c r="BJ6" s="101"/>
-      <c r="BK6" s="101"/>
-      <c r="BL6" s="101"/>
-      <c r="BM6" s="101"/>
-      <c r="BN6" s="101"/>
-      <c r="BO6" s="101"/>
-      <c r="BP6" s="101"/>
-      <c r="BQ6" s="101"/>
-      <c r="BR6" s="101"/>
-      <c r="BS6" s="101"/>
-      <c r="BT6" s="101"/>
-      <c r="BU6" s="101"/>
-      <c r="BV6" s="101"/>
-      <c r="BW6" s="101"/>
-      <c r="BX6" s="101"/>
-      <c r="BY6" s="101"/>
-      <c r="BZ6" s="101"/>
-      <c r="CA6" s="101"/>
-      <c r="CB6" s="101"/>
-      <c r="CC6" s="101"/>
-      <c r="CD6" s="101"/>
-      <c r="CE6" s="101"/>
-      <c r="CF6" s="101"/>
-      <c r="CG6" s="101"/>
-      <c r="CH6" s="101"/>
-      <c r="CI6" s="101"/>
-      <c r="CJ6" s="101"/>
-      <c r="CK6" s="101"/>
-      <c r="CL6" s="101"/>
-      <c r="CM6" s="101"/>
-      <c r="CN6" s="101"/>
-      <c r="CO6" s="101"/>
-      <c r="CP6" s="101"/>
-      <c r="CQ6" s="101"/>
-      <c r="CR6" s="101"/>
-      <c r="CS6" s="101"/>
-      <c r="CT6" s="101"/>
-      <c r="CU6" s="101"/>
-      <c r="CV6" s="101"/>
-      <c r="CW6" s="101"/>
-      <c r="CX6" s="101"/>
-      <c r="CY6" s="101"/>
-      <c r="CZ6" s="101"/>
-      <c r="DA6" s="101"/>
-      <c r="DB6" s="101"/>
-      <c r="DC6" s="101"/>
-      <c r="DD6" s="101"/>
-      <c r="DE6" s="101"/>
-      <c r="DF6" s="101"/>
-      <c r="DG6" s="101"/>
-      <c r="DH6" s="101"/>
-      <c r="DI6" s="101"/>
-      <c r="DJ6" s="101"/>
-      <c r="DK6" s="101"/>
-      <c r="DL6" s="101"/>
-      <c r="DM6" s="101"/>
-      <c r="DN6" s="101"/>
-      <c r="DO6" s="101"/>
-      <c r="DP6" s="101"/>
-      <c r="DQ6" s="101"/>
-      <c r="DR6" s="101"/>
-      <c r="DS6" s="101"/>
-      <c r="DT6" s="101"/>
-      <c r="DU6" s="101"/>
-      <c r="DV6" s="101"/>
-      <c r="DW6" s="101"/>
-      <c r="DX6" s="101"/>
-      <c r="DY6" s="101"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="103"/>
+      <c r="AJ6" s="103"/>
+      <c r="AK6" s="103"/>
+      <c r="AL6" s="103"/>
+      <c r="AM6" s="103"/>
+      <c r="AN6" s="103"/>
+      <c r="AO6" s="103"/>
+      <c r="AP6" s="103"/>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="103"/>
+      <c r="AS6" s="103"/>
+      <c r="AT6" s="103"/>
+      <c r="AU6" s="103"/>
+      <c r="AV6" s="103"/>
+      <c r="AW6" s="103"/>
+      <c r="AX6" s="103"/>
+      <c r="AY6" s="103"/>
+      <c r="AZ6" s="103"/>
+      <c r="BA6" s="103"/>
+      <c r="BB6" s="103"/>
+      <c r="BC6" s="103"/>
+      <c r="BD6" s="103"/>
+      <c r="BE6" s="103"/>
+      <c r="BF6" s="103"/>
+      <c r="BG6" s="103"/>
+      <c r="BH6" s="103"/>
+      <c r="BI6" s="103"/>
+      <c r="BJ6" s="103"/>
+      <c r="BK6" s="103"/>
+      <c r="BL6" s="103"/>
+      <c r="BM6" s="103"/>
+      <c r="BN6" s="103"/>
+      <c r="BO6" s="103"/>
+      <c r="BP6" s="103"/>
+      <c r="BQ6" s="103"/>
+      <c r="BR6" s="103"/>
+      <c r="BS6" s="103"/>
+      <c r="BT6" s="103"/>
+      <c r="BU6" s="103"/>
+      <c r="BV6" s="103"/>
+      <c r="BW6" s="103"/>
+      <c r="BX6" s="103"/>
+      <c r="BY6" s="103"/>
+      <c r="BZ6" s="103"/>
+      <c r="CA6" s="103"/>
+      <c r="CB6" s="103"/>
+      <c r="CC6" s="103"/>
+      <c r="CD6" s="103"/>
+      <c r="CE6" s="103"/>
+      <c r="CF6" s="103"/>
+      <c r="CG6" s="103"/>
+      <c r="CH6" s="103"/>
+      <c r="CI6" s="103"/>
+      <c r="CJ6" s="103"/>
+      <c r="CK6" s="103"/>
+      <c r="CL6" s="103"/>
+      <c r="CM6" s="103"/>
+      <c r="CN6" s="103"/>
+      <c r="CO6" s="103"/>
+      <c r="CP6" s="103"/>
+      <c r="CQ6" s="103"/>
+      <c r="CR6" s="103"/>
+      <c r="CS6" s="103"/>
+      <c r="CT6" s="103"/>
+      <c r="CU6" s="103"/>
+      <c r="CV6" s="103"/>
+      <c r="CW6" s="103"/>
+      <c r="CX6" s="103"/>
+      <c r="CY6" s="103"/>
+      <c r="CZ6" s="103"/>
+      <c r="DA6" s="103"/>
+      <c r="DB6" s="103"/>
+      <c r="DC6" s="103"/>
+      <c r="DD6" s="103"/>
+      <c r="DE6" s="103"/>
+      <c r="DF6" s="103"/>
+      <c r="DG6" s="103"/>
+      <c r="DH6" s="103"/>
+      <c r="DI6" s="103"/>
+      <c r="DJ6" s="103"/>
+      <c r="DK6" s="103"/>
+      <c r="DL6" s="103"/>
+      <c r="DM6" s="103"/>
+      <c r="DN6" s="103"/>
+      <c r="DO6" s="103"/>
+      <c r="DP6" s="103"/>
+      <c r="DQ6" s="103"/>
+      <c r="DR6" s="103"/>
+      <c r="DS6" s="103"/>
+      <c r="DT6" s="103"/>
+      <c r="DU6" s="103"/>
+      <c r="DV6" s="103"/>
+      <c r="DW6" s="103"/>
+      <c r="DX6" s="103"/>
+      <c r="DY6" s="103"/>
     </row>
     <row r="7" spans="1:256" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="101" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="101"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="101"/>
-      <c r="Y7" s="101"/>
-      <c r="Z7" s="101"/>
-      <c r="AA7" s="101"/>
-      <c r="AB7" s="101"/>
-      <c r="AC7" s="101"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="101"/>
-      <c r="AF7" s="101"/>
-      <c r="AG7" s="101"/>
-      <c r="AH7" s="101"/>
-      <c r="AI7" s="101"/>
-      <c r="AJ7" s="101"/>
-      <c r="AK7" s="101"/>
-      <c r="AL7" s="101"/>
-      <c r="AM7" s="101"/>
-      <c r="AN7" s="101"/>
-      <c r="AO7" s="101"/>
-      <c r="AP7" s="101"/>
-      <c r="AQ7" s="101"/>
-      <c r="AR7" s="101"/>
-      <c r="AS7" s="101"/>
-      <c r="AT7" s="101"/>
-      <c r="AU7" s="101"/>
-      <c r="AV7" s="101"/>
-      <c r="AW7" s="101"/>
-      <c r="AX7" s="101"/>
-      <c r="AY7" s="101"/>
-      <c r="AZ7" s="101"/>
-      <c r="BA7" s="101"/>
-      <c r="BB7" s="101"/>
-      <c r="BC7" s="101"/>
-      <c r="BD7" s="101"/>
-      <c r="BE7" s="101"/>
-      <c r="BF7" s="101"/>
-      <c r="BG7" s="101"/>
-      <c r="BH7" s="101"/>
-      <c r="BI7" s="101"/>
-      <c r="BJ7" s="101"/>
-      <c r="BK7" s="101"/>
-      <c r="BL7" s="101"/>
-      <c r="BM7" s="101"/>
-      <c r="BN7" s="101"/>
-      <c r="BO7" s="101"/>
-      <c r="BP7" s="101"/>
-      <c r="BQ7" s="101"/>
-      <c r="BR7" s="101"/>
-      <c r="BS7" s="101"/>
-      <c r="BT7" s="101"/>
-      <c r="BU7" s="101"/>
-      <c r="BV7" s="101"/>
-      <c r="BW7" s="101"/>
-      <c r="BX7" s="101"/>
-      <c r="BY7" s="101"/>
-      <c r="BZ7" s="101"/>
-      <c r="CA7" s="101"/>
-      <c r="CB7" s="101"/>
-      <c r="CC7" s="101"/>
-      <c r="CD7" s="101"/>
-      <c r="CE7" s="101"/>
-      <c r="CF7" s="101"/>
-      <c r="CG7" s="101"/>
-      <c r="CH7" s="101"/>
-      <c r="CI7" s="101"/>
-      <c r="CJ7" s="101"/>
-      <c r="CK7" s="101"/>
-      <c r="CL7" s="101"/>
-      <c r="CM7" s="101"/>
-      <c r="CN7" s="101"/>
-      <c r="CO7" s="101"/>
-      <c r="CP7" s="101"/>
-      <c r="CQ7" s="101"/>
-      <c r="CR7" s="101"/>
-      <c r="CS7" s="101"/>
-      <c r="CT7" s="101"/>
-      <c r="CU7" s="101"/>
-      <c r="CV7" s="101"/>
-      <c r="CW7" s="101"/>
-      <c r="CX7" s="101"/>
-      <c r="CY7" s="101"/>
-      <c r="CZ7" s="101"/>
-      <c r="DA7" s="101"/>
-      <c r="DB7" s="101"/>
-      <c r="DC7" s="101"/>
-      <c r="DD7" s="101"/>
-      <c r="DE7" s="101"/>
-      <c r="DF7" s="101"/>
-      <c r="DG7" s="101"/>
-      <c r="DH7" s="101"/>
-      <c r="DI7" s="101"/>
-      <c r="DJ7" s="101"/>
-      <c r="DK7" s="101"/>
-      <c r="DL7" s="101"/>
-      <c r="DM7" s="101"/>
-      <c r="DN7" s="101"/>
-      <c r="DO7" s="101"/>
-      <c r="DP7" s="101"/>
-      <c r="DQ7" s="101"/>
-      <c r="DR7" s="101"/>
-      <c r="DS7" s="101"/>
-      <c r="DT7" s="101"/>
-      <c r="DU7" s="101"/>
-      <c r="DV7" s="101"/>
-      <c r="DW7" s="101"/>
-      <c r="DX7" s="101"/>
-      <c r="DY7" s="101"/>
+      <c r="A7" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="103"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="103"/>
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
+      <c r="AJ7" s="103"/>
+      <c r="AK7" s="103"/>
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="103"/>
+      <c r="AN7" s="103"/>
+      <c r="AO7" s="103"/>
+      <c r="AP7" s="103"/>
+      <c r="AQ7" s="103"/>
+      <c r="AR7" s="103"/>
+      <c r="AS7" s="103"/>
+      <c r="AT7" s="103"/>
+      <c r="AU7" s="103"/>
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="103"/>
+      <c r="AX7" s="103"/>
+      <c r="AY7" s="103"/>
+      <c r="AZ7" s="103"/>
+      <c r="BA7" s="103"/>
+      <c r="BB7" s="103"/>
+      <c r="BC7" s="103"/>
+      <c r="BD7" s="103"/>
+      <c r="BE7" s="103"/>
+      <c r="BF7" s="103"/>
+      <c r="BG7" s="103"/>
+      <c r="BH7" s="103"/>
+      <c r="BI7" s="103"/>
+      <c r="BJ7" s="103"/>
+      <c r="BK7" s="103"/>
+      <c r="BL7" s="103"/>
+      <c r="BM7" s="103"/>
+      <c r="BN7" s="103"/>
+      <c r="BO7" s="103"/>
+      <c r="BP7" s="103"/>
+      <c r="BQ7" s="103"/>
+      <c r="BR7" s="103"/>
+      <c r="BS7" s="103"/>
+      <c r="BT7" s="103"/>
+      <c r="BU7" s="103"/>
+      <c r="BV7" s="103"/>
+      <c r="BW7" s="103"/>
+      <c r="BX7" s="103"/>
+      <c r="BY7" s="103"/>
+      <c r="BZ7" s="103"/>
+      <c r="CA7" s="103"/>
+      <c r="CB7" s="103"/>
+      <c r="CC7" s="103"/>
+      <c r="CD7" s="103"/>
+      <c r="CE7" s="103"/>
+      <c r="CF7" s="103"/>
+      <c r="CG7" s="103"/>
+      <c r="CH7" s="103"/>
+      <c r="CI7" s="103"/>
+      <c r="CJ7" s="103"/>
+      <c r="CK7" s="103"/>
+      <c r="CL7" s="103"/>
+      <c r="CM7" s="103"/>
+      <c r="CN7" s="103"/>
+      <c r="CO7" s="103"/>
+      <c r="CP7" s="103"/>
+      <c r="CQ7" s="103"/>
+      <c r="CR7" s="103"/>
+      <c r="CS7" s="103"/>
+      <c r="CT7" s="103"/>
+      <c r="CU7" s="103"/>
+      <c r="CV7" s="103"/>
+      <c r="CW7" s="103"/>
+      <c r="CX7" s="103"/>
+      <c r="CY7" s="103"/>
+      <c r="CZ7" s="103"/>
+      <c r="DA7" s="103"/>
+      <c r="DB7" s="103"/>
+      <c r="DC7" s="103"/>
+      <c r="DD7" s="103"/>
+      <c r="DE7" s="103"/>
+      <c r="DF7" s="103"/>
+      <c r="DG7" s="103"/>
+      <c r="DH7" s="103"/>
+      <c r="DI7" s="103"/>
+      <c r="DJ7" s="103"/>
+      <c r="DK7" s="103"/>
+      <c r="DL7" s="103"/>
+      <c r="DM7" s="103"/>
+      <c r="DN7" s="103"/>
+      <c r="DO7" s="103"/>
+      <c r="DP7" s="103"/>
+      <c r="DQ7" s="103"/>
+      <c r="DR7" s="103"/>
+      <c r="DS7" s="103"/>
+      <c r="DT7" s="103"/>
+      <c r="DU7" s="103"/>
+      <c r="DV7" s="103"/>
+      <c r="DW7" s="103"/>
+      <c r="DX7" s="103"/>
+      <c r="DY7" s="103"/>
     </row>
     <row r="8" spans="1:256" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="101"/>
-      <c r="AG8" s="101"/>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="101"/>
-      <c r="AK8" s="101"/>
-      <c r="AL8" s="101"/>
-      <c r="AM8" s="101"/>
-      <c r="AN8" s="101"/>
-      <c r="AO8" s="101"/>
-      <c r="AP8" s="101"/>
-      <c r="AQ8" s="101"/>
-      <c r="AR8" s="101"/>
-      <c r="AS8" s="101"/>
-      <c r="AT8" s="101"/>
-      <c r="AU8" s="101"/>
-      <c r="AV8" s="101"/>
-      <c r="AW8" s="101"/>
-      <c r="AX8" s="101"/>
-      <c r="AY8" s="101"/>
-      <c r="AZ8" s="101"/>
-      <c r="BA8" s="101"/>
-      <c r="BB8" s="101"/>
-      <c r="BC8" s="101"/>
-      <c r="BD8" s="101"/>
-      <c r="BE8" s="101"/>
-      <c r="BF8" s="101"/>
-      <c r="BG8" s="101"/>
-      <c r="BH8" s="101"/>
-      <c r="BI8" s="101"/>
-      <c r="BJ8" s="101"/>
-      <c r="BK8" s="101"/>
-      <c r="BL8" s="101"/>
-      <c r="BM8" s="101"/>
-      <c r="BN8" s="101"/>
-      <c r="BO8" s="101"/>
-      <c r="BP8" s="101"/>
-      <c r="BQ8" s="101"/>
-      <c r="BR8" s="101"/>
-      <c r="BS8" s="101"/>
-      <c r="BT8" s="101"/>
-      <c r="BU8" s="101"/>
-      <c r="BV8" s="101"/>
-      <c r="BW8" s="101"/>
-      <c r="BX8" s="101"/>
-      <c r="BY8" s="101"/>
-      <c r="BZ8" s="101"/>
-      <c r="CA8" s="101"/>
-      <c r="CB8" s="101"/>
-      <c r="CC8" s="101"/>
-      <c r="CD8" s="101"/>
-      <c r="CE8" s="101"/>
-      <c r="CF8" s="101"/>
-      <c r="CG8" s="101"/>
-      <c r="CH8" s="101"/>
-      <c r="CI8" s="101"/>
-      <c r="CJ8" s="101"/>
-      <c r="CK8" s="101"/>
-      <c r="CL8" s="101"/>
-      <c r="CM8" s="101"/>
-      <c r="CN8" s="101"/>
-      <c r="CO8" s="101"/>
-      <c r="CP8" s="101"/>
-      <c r="CQ8" s="101"/>
-      <c r="CR8" s="101"/>
-      <c r="CS8" s="101"/>
-      <c r="CT8" s="101"/>
-      <c r="CU8" s="101"/>
-      <c r="CV8" s="101"/>
-      <c r="CW8" s="101"/>
-      <c r="CX8" s="101"/>
-      <c r="CY8" s="101"/>
-      <c r="CZ8" s="101"/>
-      <c r="DA8" s="101"/>
-      <c r="DB8" s="101"/>
-      <c r="DC8" s="101"/>
-      <c r="DD8" s="101"/>
-      <c r="DE8" s="101"/>
-      <c r="DF8" s="101"/>
-      <c r="DG8" s="101"/>
-      <c r="DH8" s="101"/>
-      <c r="DI8" s="101"/>
-      <c r="DJ8" s="101"/>
-      <c r="DK8" s="101"/>
-      <c r="DL8" s="101"/>
-      <c r="DM8" s="101"/>
-      <c r="DN8" s="101"/>
-      <c r="DO8" s="101"/>
-      <c r="DP8" s="101"/>
-      <c r="DQ8" s="101"/>
-      <c r="DR8" s="101"/>
-      <c r="DS8" s="101"/>
-      <c r="DT8" s="101"/>
-      <c r="DU8" s="101"/>
-      <c r="DV8" s="101"/>
-      <c r="DW8" s="101"/>
-      <c r="DX8" s="101"/>
-      <c r="DY8" s="101"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="103"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="103"/>
+      <c r="T8" s="103"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="103"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="103"/>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="103"/>
+      <c r="AU8" s="103"/>
+      <c r="AV8" s="103"/>
+      <c r="AW8" s="103"/>
+      <c r="AX8" s="103"/>
+      <c r="AY8" s="103"/>
+      <c r="AZ8" s="103"/>
+      <c r="BA8" s="103"/>
+      <c r="BB8" s="103"/>
+      <c r="BC8" s="103"/>
+      <c r="BD8" s="103"/>
+      <c r="BE8" s="103"/>
+      <c r="BF8" s="103"/>
+      <c r="BG8" s="103"/>
+      <c r="BH8" s="103"/>
+      <c r="BI8" s="103"/>
+      <c r="BJ8" s="103"/>
+      <c r="BK8" s="103"/>
+      <c r="BL8" s="103"/>
+      <c r="BM8" s="103"/>
+      <c r="BN8" s="103"/>
+      <c r="BO8" s="103"/>
+      <c r="BP8" s="103"/>
+      <c r="BQ8" s="103"/>
+      <c r="BR8" s="103"/>
+      <c r="BS8" s="103"/>
+      <c r="BT8" s="103"/>
+      <c r="BU8" s="103"/>
+      <c r="BV8" s="103"/>
+      <c r="BW8" s="103"/>
+      <c r="BX8" s="103"/>
+      <c r="BY8" s="103"/>
+      <c r="BZ8" s="103"/>
+      <c r="CA8" s="103"/>
+      <c r="CB8" s="103"/>
+      <c r="CC8" s="103"/>
+      <c r="CD8" s="103"/>
+      <c r="CE8" s="103"/>
+      <c r="CF8" s="103"/>
+      <c r="CG8" s="103"/>
+      <c r="CH8" s="103"/>
+      <c r="CI8" s="103"/>
+      <c r="CJ8" s="103"/>
+      <c r="CK8" s="103"/>
+      <c r="CL8" s="103"/>
+      <c r="CM8" s="103"/>
+      <c r="CN8" s="103"/>
+      <c r="CO8" s="103"/>
+      <c r="CP8" s="103"/>
+      <c r="CQ8" s="103"/>
+      <c r="CR8" s="103"/>
+      <c r="CS8" s="103"/>
+      <c r="CT8" s="103"/>
+      <c r="CU8" s="103"/>
+      <c r="CV8" s="103"/>
+      <c r="CW8" s="103"/>
+      <c r="CX8" s="103"/>
+      <c r="CY8" s="103"/>
+      <c r="CZ8" s="103"/>
+      <c r="DA8" s="103"/>
+      <c r="DB8" s="103"/>
+      <c r="DC8" s="103"/>
+      <c r="DD8" s="103"/>
+      <c r="DE8" s="103"/>
+      <c r="DF8" s="103"/>
+      <c r="DG8" s="103"/>
+      <c r="DH8" s="103"/>
+      <c r="DI8" s="103"/>
+      <c r="DJ8" s="103"/>
+      <c r="DK8" s="103"/>
+      <c r="DL8" s="103"/>
+      <c r="DM8" s="103"/>
+      <c r="DN8" s="103"/>
+      <c r="DO8" s="103"/>
+      <c r="DP8" s="103"/>
+      <c r="DQ8" s="103"/>
+      <c r="DR8" s="103"/>
+      <c r="DS8" s="103"/>
+      <c r="DT8" s="103"/>
+      <c r="DU8" s="103"/>
+      <c r="DV8" s="103"/>
+      <c r="DW8" s="103"/>
+      <c r="DX8" s="103"/>
+      <c r="DY8" s="103"/>
     </row>
     <row r="9" spans="1:256" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
-      <c r="U9" s="101"/>
-      <c r="V9" s="101"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="101"/>
-      <c r="AC9" s="101"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="101"/>
-      <c r="AF9" s="101"/>
-      <c r="AG9" s="101"/>
-      <c r="AH9" s="101"/>
-      <c r="AI9" s="101"/>
-      <c r="AJ9" s="101"/>
-      <c r="AK9" s="101"/>
-      <c r="AL9" s="101"/>
-      <c r="AM9" s="101"/>
-      <c r="AN9" s="101"/>
-      <c r="AO9" s="101"/>
-      <c r="AP9" s="101"/>
-      <c r="AQ9" s="101"/>
-      <c r="AR9" s="101"/>
-      <c r="AS9" s="101"/>
-      <c r="AT9" s="101"/>
-      <c r="AU9" s="101"/>
-      <c r="AV9" s="101"/>
-      <c r="AW9" s="101"/>
-      <c r="AX9" s="101"/>
-      <c r="AY9" s="101"/>
-      <c r="AZ9" s="101"/>
-      <c r="BA9" s="101"/>
-      <c r="BB9" s="101"/>
-      <c r="BC9" s="101"/>
-      <c r="BD9" s="101"/>
-      <c r="BE9" s="101"/>
-      <c r="BF9" s="101"/>
-      <c r="BG9" s="101"/>
-      <c r="BH9" s="101"/>
-      <c r="BI9" s="101"/>
-      <c r="BJ9" s="101"/>
-      <c r="BK9" s="101"/>
-      <c r="BL9" s="101"/>
-      <c r="BM9" s="101"/>
-      <c r="BN9" s="101"/>
-      <c r="BO9" s="101"/>
-      <c r="BP9" s="101"/>
-      <c r="BQ9" s="101"/>
-      <c r="BR9" s="101"/>
-      <c r="BS9" s="101"/>
-      <c r="BT9" s="101"/>
-      <c r="BU9" s="101"/>
-      <c r="BV9" s="101"/>
-      <c r="BW9" s="101"/>
-      <c r="BX9" s="101"/>
-      <c r="BY9" s="101"/>
-      <c r="BZ9" s="101"/>
-      <c r="CA9" s="101"/>
-      <c r="CB9" s="101"/>
-      <c r="CC9" s="101"/>
-      <c r="CD9" s="101"/>
-      <c r="CE9" s="101"/>
-      <c r="CF9" s="101"/>
-      <c r="CG9" s="101"/>
-      <c r="CH9" s="101"/>
-      <c r="CI9" s="101"/>
-      <c r="CJ9" s="101"/>
-      <c r="CK9" s="101"/>
-      <c r="CL9" s="101"/>
-      <c r="CM9" s="101"/>
-      <c r="CN9" s="101"/>
-      <c r="CO9" s="101"/>
-      <c r="CP9" s="101"/>
-      <c r="CQ9" s="101"/>
-      <c r="CR9" s="101"/>
-      <c r="CS9" s="101"/>
-      <c r="CT9" s="101"/>
-      <c r="CU9" s="101"/>
-      <c r="CV9" s="101"/>
-      <c r="CW9" s="101"/>
-      <c r="CX9" s="101"/>
-      <c r="CY9" s="101"/>
-      <c r="CZ9" s="101"/>
-      <c r="DA9" s="101"/>
-      <c r="DB9" s="101"/>
-      <c r="DC9" s="101"/>
-      <c r="DD9" s="101"/>
-      <c r="DE9" s="101"/>
-      <c r="DF9" s="101"/>
-      <c r="DG9" s="101"/>
-      <c r="DH9" s="101"/>
-      <c r="DI9" s="101"/>
-      <c r="DJ9" s="101"/>
-      <c r="DK9" s="101"/>
-      <c r="DL9" s="101"/>
-      <c r="DM9" s="101"/>
-      <c r="DN9" s="101"/>
-      <c r="DO9" s="101"/>
-      <c r="DP9" s="101"/>
-      <c r="DQ9" s="101"/>
-      <c r="DR9" s="101"/>
-      <c r="DS9" s="101"/>
-      <c r="DT9" s="101"/>
-      <c r="DU9" s="101"/>
-      <c r="DV9" s="101"/>
-      <c r="DW9" s="101"/>
-      <c r="DX9" s="101"/>
-      <c r="DY9" s="101"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="103"/>
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="103"/>
+      <c r="AN9" s="103"/>
+      <c r="AO9" s="103"/>
+      <c r="AP9" s="103"/>
+      <c r="AQ9" s="103"/>
+      <c r="AR9" s="103"/>
+      <c r="AS9" s="103"/>
+      <c r="AT9" s="103"/>
+      <c r="AU9" s="103"/>
+      <c r="AV9" s="103"/>
+      <c r="AW9" s="103"/>
+      <c r="AX9" s="103"/>
+      <c r="AY9" s="103"/>
+      <c r="AZ9" s="103"/>
+      <c r="BA9" s="103"/>
+      <c r="BB9" s="103"/>
+      <c r="BC9" s="103"/>
+      <c r="BD9" s="103"/>
+      <c r="BE9" s="103"/>
+      <c r="BF9" s="103"/>
+      <c r="BG9" s="103"/>
+      <c r="BH9" s="103"/>
+      <c r="BI9" s="103"/>
+      <c r="BJ9" s="103"/>
+      <c r="BK9" s="103"/>
+      <c r="BL9" s="103"/>
+      <c r="BM9" s="103"/>
+      <c r="BN9" s="103"/>
+      <c r="BO9" s="103"/>
+      <c r="BP9" s="103"/>
+      <c r="BQ9" s="103"/>
+      <c r="BR9" s="103"/>
+      <c r="BS9" s="103"/>
+      <c r="BT9" s="103"/>
+      <c r="BU9" s="103"/>
+      <c r="BV9" s="103"/>
+      <c r="BW9" s="103"/>
+      <c r="BX9" s="103"/>
+      <c r="BY9" s="103"/>
+      <c r="BZ9" s="103"/>
+      <c r="CA9" s="103"/>
+      <c r="CB9" s="103"/>
+      <c r="CC9" s="103"/>
+      <c r="CD9" s="103"/>
+      <c r="CE9" s="103"/>
+      <c r="CF9" s="103"/>
+      <c r="CG9" s="103"/>
+      <c r="CH9" s="103"/>
+      <c r="CI9" s="103"/>
+      <c r="CJ9" s="103"/>
+      <c r="CK9" s="103"/>
+      <c r="CL9" s="103"/>
+      <c r="CM9" s="103"/>
+      <c r="CN9" s="103"/>
+      <c r="CO9" s="103"/>
+      <c r="CP9" s="103"/>
+      <c r="CQ9" s="103"/>
+      <c r="CR9" s="103"/>
+      <c r="CS9" s="103"/>
+      <c r="CT9" s="103"/>
+      <c r="CU9" s="103"/>
+      <c r="CV9" s="103"/>
+      <c r="CW9" s="103"/>
+      <c r="CX9" s="103"/>
+      <c r="CY9" s="103"/>
+      <c r="CZ9" s="103"/>
+      <c r="DA9" s="103"/>
+      <c r="DB9" s="103"/>
+      <c r="DC9" s="103"/>
+      <c r="DD9" s="103"/>
+      <c r="DE9" s="103"/>
+      <c r="DF9" s="103"/>
+      <c r="DG9" s="103"/>
+      <c r="DH9" s="103"/>
+      <c r="DI9" s="103"/>
+      <c r="DJ9" s="103"/>
+      <c r="DK9" s="103"/>
+      <c r="DL9" s="103"/>
+      <c r="DM9" s="103"/>
+      <c r="DN9" s="103"/>
+      <c r="DO9" s="103"/>
+      <c r="DP9" s="103"/>
+      <c r="DQ9" s="103"/>
+      <c r="DR9" s="103"/>
+      <c r="DS9" s="103"/>
+      <c r="DT9" s="103"/>
+      <c r="DU9" s="103"/>
+      <c r="DV9" s="103"/>
+      <c r="DW9" s="103"/>
+      <c r="DX9" s="103"/>
+      <c r="DY9" s="103"/>
     </row>
     <row r="10" spans="1:256" s="6" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="59"/>
@@ -2163,663 +2163,663 @@
       <c r="DY10" s="59"/>
     </row>
     <row r="11" spans="1:256" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="100"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="100"/>
-      <c r="X11" s="100"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="100"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="100"/>
-      <c r="AC11" s="100"/>
-      <c r="AD11" s="100"/>
-      <c r="AE11" s="100"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="100"/>
-      <c r="AK11" s="100"/>
-      <c r="AL11" s="100"/>
-      <c r="AM11" s="100"/>
-      <c r="AN11" s="100"/>
-      <c r="AO11" s="100"/>
-      <c r="AP11" s="100"/>
-      <c r="AQ11" s="100"/>
-      <c r="AR11" s="100"/>
-      <c r="AS11" s="100"/>
-      <c r="AT11" s="100"/>
-      <c r="AU11" s="100"/>
-      <c r="AV11" s="100"/>
-      <c r="AW11" s="100"/>
-      <c r="AX11" s="100"/>
-      <c r="AY11" s="100"/>
-      <c r="AZ11" s="100"/>
-      <c r="BA11" s="100"/>
-      <c r="BB11" s="100"/>
-      <c r="BC11" s="100"/>
-      <c r="BD11" s="100"/>
-      <c r="BE11" s="100"/>
-      <c r="BF11" s="100"/>
-      <c r="BG11" s="100"/>
-      <c r="BH11" s="100"/>
-      <c r="BI11" s="100"/>
-      <c r="BJ11" s="100"/>
-      <c r="BK11" s="100"/>
-      <c r="BL11" s="100"/>
-      <c r="BM11" s="100"/>
-      <c r="BN11" s="100"/>
-      <c r="BO11" s="100"/>
-      <c r="BP11" s="100"/>
-      <c r="BQ11" s="100"/>
-      <c r="BR11" s="100"/>
-      <c r="BS11" s="100"/>
-      <c r="BT11" s="100"/>
-      <c r="BU11" s="100"/>
-      <c r="BV11" s="100"/>
-      <c r="BW11" s="100"/>
-      <c r="BX11" s="100"/>
-      <c r="BY11" s="100"/>
-      <c r="BZ11" s="100"/>
-      <c r="CA11" s="100"/>
-      <c r="CB11" s="100"/>
-      <c r="CC11" s="100"/>
-      <c r="CD11" s="100"/>
-      <c r="CE11" s="100"/>
-      <c r="CF11" s="100"/>
-      <c r="CG11" s="100"/>
-      <c r="CH11" s="100"/>
-      <c r="CI11" s="100"/>
-      <c r="CJ11" s="100"/>
-      <c r="CK11" s="100"/>
-      <c r="CL11" s="100"/>
-      <c r="CM11" s="100"/>
-      <c r="CN11" s="100"/>
-      <c r="CO11" s="100"/>
-      <c r="CP11" s="100"/>
-      <c r="CQ11" s="100"/>
-      <c r="CR11" s="100"/>
-      <c r="CS11" s="100"/>
-      <c r="CT11" s="100"/>
-      <c r="CU11" s="100"/>
-      <c r="CV11" s="100"/>
-      <c r="CW11" s="100"/>
-      <c r="CX11" s="100"/>
-      <c r="CY11" s="100"/>
-      <c r="CZ11" s="100"/>
-      <c r="DA11" s="100"/>
-      <c r="DB11" s="100"/>
-      <c r="DC11" s="100"/>
-      <c r="DD11" s="100"/>
-      <c r="DE11" s="100"/>
-      <c r="DF11" s="100"/>
-      <c r="DG11" s="100"/>
-      <c r="DH11" s="100"/>
-      <c r="DI11" s="100"/>
-      <c r="DJ11" s="100"/>
-      <c r="DK11" s="100"/>
-      <c r="DL11" s="100"/>
-      <c r="DM11" s="100"/>
-      <c r="DN11" s="100"/>
-      <c r="DO11" s="100"/>
-      <c r="DP11" s="100"/>
-      <c r="DQ11" s="100"/>
-      <c r="DR11" s="100"/>
-      <c r="DS11" s="100"/>
-      <c r="DT11" s="100"/>
-      <c r="DU11" s="100"/>
-      <c r="DV11" s="100"/>
-      <c r="DW11" s="100"/>
-      <c r="DX11" s="100"/>
-      <c r="DY11" s="100"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="102"/>
+      <c r="AJ11" s="102"/>
+      <c r="AK11" s="102"/>
+      <c r="AL11" s="102"/>
+      <c r="AM11" s="102"/>
+      <c r="AN11" s="102"/>
+      <c r="AO11" s="102"/>
+      <c r="AP11" s="102"/>
+      <c r="AQ11" s="102"/>
+      <c r="AR11" s="102"/>
+      <c r="AS11" s="102"/>
+      <c r="AT11" s="102"/>
+      <c r="AU11" s="102"/>
+      <c r="AV11" s="102"/>
+      <c r="AW11" s="102"/>
+      <c r="AX11" s="102"/>
+      <c r="AY11" s="102"/>
+      <c r="AZ11" s="102"/>
+      <c r="BA11" s="102"/>
+      <c r="BB11" s="102"/>
+      <c r="BC11" s="102"/>
+      <c r="BD11" s="102"/>
+      <c r="BE11" s="102"/>
+      <c r="BF11" s="102"/>
+      <c r="BG11" s="102"/>
+      <c r="BH11" s="102"/>
+      <c r="BI11" s="102"/>
+      <c r="BJ11" s="102"/>
+      <c r="BK11" s="102"/>
+      <c r="BL11" s="102"/>
+      <c r="BM11" s="102"/>
+      <c r="BN11" s="102"/>
+      <c r="BO11" s="102"/>
+      <c r="BP11" s="102"/>
+      <c r="BQ11" s="102"/>
+      <c r="BR11" s="102"/>
+      <c r="BS11" s="102"/>
+      <c r="BT11" s="102"/>
+      <c r="BU11" s="102"/>
+      <c r="BV11" s="102"/>
+      <c r="BW11" s="102"/>
+      <c r="BX11" s="102"/>
+      <c r="BY11" s="102"/>
+      <c r="BZ11" s="102"/>
+      <c r="CA11" s="102"/>
+      <c r="CB11" s="102"/>
+      <c r="CC11" s="102"/>
+      <c r="CD11" s="102"/>
+      <c r="CE11" s="102"/>
+      <c r="CF11" s="102"/>
+      <c r="CG11" s="102"/>
+      <c r="CH11" s="102"/>
+      <c r="CI11" s="102"/>
+      <c r="CJ11" s="102"/>
+      <c r="CK11" s="102"/>
+      <c r="CL11" s="102"/>
+      <c r="CM11" s="102"/>
+      <c r="CN11" s="102"/>
+      <c r="CO11" s="102"/>
+      <c r="CP11" s="102"/>
+      <c r="CQ11" s="102"/>
+      <c r="CR11" s="102"/>
+      <c r="CS11" s="102"/>
+      <c r="CT11" s="102"/>
+      <c r="CU11" s="102"/>
+      <c r="CV11" s="102"/>
+      <c r="CW11" s="102"/>
+      <c r="CX11" s="102"/>
+      <c r="CY11" s="102"/>
+      <c r="CZ11" s="102"/>
+      <c r="DA11" s="102"/>
+      <c r="DB11" s="102"/>
+      <c r="DC11" s="102"/>
+      <c r="DD11" s="102"/>
+      <c r="DE11" s="102"/>
+      <c r="DF11" s="102"/>
+      <c r="DG11" s="102"/>
+      <c r="DH11" s="102"/>
+      <c r="DI11" s="102"/>
+      <c r="DJ11" s="102"/>
+      <c r="DK11" s="102"/>
+      <c r="DL11" s="102"/>
+      <c r="DM11" s="102"/>
+      <c r="DN11" s="102"/>
+      <c r="DO11" s="102"/>
+      <c r="DP11" s="102"/>
+      <c r="DQ11" s="102"/>
+      <c r="DR11" s="102"/>
+      <c r="DS11" s="102"/>
+      <c r="DT11" s="102"/>
+      <c r="DU11" s="102"/>
+      <c r="DV11" s="102"/>
+      <c r="DW11" s="102"/>
+      <c r="DX11" s="102"/>
+      <c r="DY11" s="102"/>
     </row>
     <row r="12" spans="1:256" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="100"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="100"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="100"/>
-      <c r="AA12" s="100"/>
-      <c r="AB12" s="100"/>
-      <c r="AC12" s="100"/>
-      <c r="AD12" s="100"/>
-      <c r="AE12" s="100"/>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="100"/>
-      <c r="AH12" s="100"/>
-      <c r="AI12" s="100"/>
-      <c r="AJ12" s="100"/>
-      <c r="AK12" s="100"/>
-      <c r="AL12" s="100"/>
-      <c r="AM12" s="100"/>
-      <c r="AN12" s="100"/>
-      <c r="AO12" s="100"/>
-      <c r="AP12" s="100"/>
-      <c r="AQ12" s="100"/>
-      <c r="AR12" s="100"/>
-      <c r="AS12" s="100"/>
-      <c r="AT12" s="100"/>
-      <c r="AU12" s="100"/>
-      <c r="AV12" s="100"/>
-      <c r="AW12" s="100"/>
-      <c r="AX12" s="100"/>
-      <c r="AY12" s="100"/>
-      <c r="AZ12" s="100"/>
-      <c r="BA12" s="100"/>
-      <c r="BB12" s="100"/>
-      <c r="BC12" s="100"/>
-      <c r="BD12" s="100"/>
-      <c r="BE12" s="100"/>
-      <c r="BF12" s="100"/>
-      <c r="BG12" s="100"/>
-      <c r="BH12" s="100"/>
-      <c r="BI12" s="100"/>
-      <c r="BJ12" s="100"/>
-      <c r="BK12" s="100"/>
-      <c r="BL12" s="100"/>
-      <c r="BM12" s="100"/>
-      <c r="BN12" s="100"/>
-      <c r="BO12" s="100"/>
-      <c r="BP12" s="100"/>
-      <c r="BQ12" s="100"/>
-      <c r="BR12" s="100"/>
-      <c r="BS12" s="100"/>
-      <c r="BT12" s="100"/>
-      <c r="BU12" s="100"/>
-      <c r="BV12" s="100"/>
-      <c r="BW12" s="100"/>
-      <c r="BX12" s="100"/>
-      <c r="BY12" s="100"/>
-      <c r="BZ12" s="100"/>
-      <c r="CA12" s="100"/>
-      <c r="CB12" s="100"/>
-      <c r="CC12" s="100"/>
-      <c r="CD12" s="100"/>
-      <c r="CE12" s="100"/>
-      <c r="CF12" s="100"/>
-      <c r="CG12" s="100"/>
-      <c r="CH12" s="100"/>
-      <c r="CI12" s="100"/>
-      <c r="CJ12" s="100"/>
-      <c r="CK12" s="100"/>
-      <c r="CL12" s="100"/>
-      <c r="CM12" s="100"/>
-      <c r="CN12" s="100"/>
-      <c r="CO12" s="100"/>
-      <c r="CP12" s="100"/>
-      <c r="CQ12" s="100"/>
-      <c r="CR12" s="100"/>
-      <c r="CS12" s="100"/>
-      <c r="CT12" s="100"/>
-      <c r="CU12" s="100"/>
-      <c r="CV12" s="100"/>
-      <c r="CW12" s="100"/>
-      <c r="CX12" s="100"/>
-      <c r="CY12" s="100"/>
-      <c r="CZ12" s="100"/>
-      <c r="DA12" s="100"/>
-      <c r="DB12" s="100"/>
-      <c r="DC12" s="100"/>
-      <c r="DD12" s="100"/>
-      <c r="DE12" s="100"/>
-      <c r="DF12" s="100"/>
-      <c r="DG12" s="100"/>
-      <c r="DH12" s="100"/>
-      <c r="DI12" s="100"/>
-      <c r="DJ12" s="100"/>
-      <c r="DK12" s="100"/>
-      <c r="DL12" s="100"/>
-      <c r="DM12" s="100"/>
-      <c r="DN12" s="100"/>
-      <c r="DO12" s="100"/>
-      <c r="DP12" s="100"/>
-      <c r="DQ12" s="100"/>
-      <c r="DR12" s="100"/>
-      <c r="DS12" s="100"/>
-      <c r="DT12" s="100"/>
-      <c r="DU12" s="100"/>
-      <c r="DV12" s="100"/>
-      <c r="DW12" s="100"/>
-      <c r="DX12" s="100"/>
-      <c r="DY12" s="100"/>
+      <c r="A12" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="102"/>
+      <c r="AH12" s="102"/>
+      <c r="AI12" s="102"/>
+      <c r="AJ12" s="102"/>
+      <c r="AK12" s="102"/>
+      <c r="AL12" s="102"/>
+      <c r="AM12" s="102"/>
+      <c r="AN12" s="102"/>
+      <c r="AO12" s="102"/>
+      <c r="AP12" s="102"/>
+      <c r="AQ12" s="102"/>
+      <c r="AR12" s="102"/>
+      <c r="AS12" s="102"/>
+      <c r="AT12" s="102"/>
+      <c r="AU12" s="102"/>
+      <c r="AV12" s="102"/>
+      <c r="AW12" s="102"/>
+      <c r="AX12" s="102"/>
+      <c r="AY12" s="102"/>
+      <c r="AZ12" s="102"/>
+      <c r="BA12" s="102"/>
+      <c r="BB12" s="102"/>
+      <c r="BC12" s="102"/>
+      <c r="BD12" s="102"/>
+      <c r="BE12" s="102"/>
+      <c r="BF12" s="102"/>
+      <c r="BG12" s="102"/>
+      <c r="BH12" s="102"/>
+      <c r="BI12" s="102"/>
+      <c r="BJ12" s="102"/>
+      <c r="BK12" s="102"/>
+      <c r="BL12" s="102"/>
+      <c r="BM12" s="102"/>
+      <c r="BN12" s="102"/>
+      <c r="BO12" s="102"/>
+      <c r="BP12" s="102"/>
+      <c r="BQ12" s="102"/>
+      <c r="BR12" s="102"/>
+      <c r="BS12" s="102"/>
+      <c r="BT12" s="102"/>
+      <c r="BU12" s="102"/>
+      <c r="BV12" s="102"/>
+      <c r="BW12" s="102"/>
+      <c r="BX12" s="102"/>
+      <c r="BY12" s="102"/>
+      <c r="BZ12" s="102"/>
+      <c r="CA12" s="102"/>
+      <c r="CB12" s="102"/>
+      <c r="CC12" s="102"/>
+      <c r="CD12" s="102"/>
+      <c r="CE12" s="102"/>
+      <c r="CF12" s="102"/>
+      <c r="CG12" s="102"/>
+      <c r="CH12" s="102"/>
+      <c r="CI12" s="102"/>
+      <c r="CJ12" s="102"/>
+      <c r="CK12" s="102"/>
+      <c r="CL12" s="102"/>
+      <c r="CM12" s="102"/>
+      <c r="CN12" s="102"/>
+      <c r="CO12" s="102"/>
+      <c r="CP12" s="102"/>
+      <c r="CQ12" s="102"/>
+      <c r="CR12" s="102"/>
+      <c r="CS12" s="102"/>
+      <c r="CT12" s="102"/>
+      <c r="CU12" s="102"/>
+      <c r="CV12" s="102"/>
+      <c r="CW12" s="102"/>
+      <c r="CX12" s="102"/>
+      <c r="CY12" s="102"/>
+      <c r="CZ12" s="102"/>
+      <c r="DA12" s="102"/>
+      <c r="DB12" s="102"/>
+      <c r="DC12" s="102"/>
+      <c r="DD12" s="102"/>
+      <c r="DE12" s="102"/>
+      <c r="DF12" s="102"/>
+      <c r="DG12" s="102"/>
+      <c r="DH12" s="102"/>
+      <c r="DI12" s="102"/>
+      <c r="DJ12" s="102"/>
+      <c r="DK12" s="102"/>
+      <c r="DL12" s="102"/>
+      <c r="DM12" s="102"/>
+      <c r="DN12" s="102"/>
+      <c r="DO12" s="102"/>
+      <c r="DP12" s="102"/>
+      <c r="DQ12" s="102"/>
+      <c r="DR12" s="102"/>
+      <c r="DS12" s="102"/>
+      <c r="DT12" s="102"/>
+      <c r="DU12" s="102"/>
+      <c r="DV12" s="102"/>
+      <c r="DW12" s="102"/>
+      <c r="DX12" s="102"/>
+      <c r="DY12" s="102"/>
     </row>
     <row r="13" spans="1:256" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="100"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="100"/>
-      <c r="X13" s="100"/>
-      <c r="Y13" s="100"/>
-      <c r="Z13" s="100"/>
-      <c r="AA13" s="100"/>
-      <c r="AB13" s="100"/>
-      <c r="AC13" s="100"/>
-      <c r="AD13" s="100"/>
-      <c r="AE13" s="100"/>
-      <c r="AF13" s="100"/>
-      <c r="AG13" s="100"/>
-      <c r="AH13" s="100"/>
-      <c r="AI13" s="100"/>
-      <c r="AJ13" s="100"/>
-      <c r="AK13" s="100"/>
-      <c r="AL13" s="100"/>
-      <c r="AM13" s="100"/>
-      <c r="AN13" s="100"/>
-      <c r="AO13" s="100"/>
-      <c r="AP13" s="100"/>
-      <c r="AQ13" s="100"/>
-      <c r="AR13" s="100"/>
-      <c r="AS13" s="100"/>
-      <c r="AT13" s="100"/>
-      <c r="AU13" s="100"/>
-      <c r="AV13" s="100"/>
-      <c r="AW13" s="100"/>
-      <c r="AX13" s="100"/>
-      <c r="AY13" s="100"/>
-      <c r="AZ13" s="100"/>
-      <c r="BA13" s="100"/>
-      <c r="BB13" s="100"/>
-      <c r="BC13" s="100"/>
-      <c r="BD13" s="100"/>
-      <c r="BE13" s="100"/>
-      <c r="BF13" s="100"/>
-      <c r="BG13" s="100"/>
-      <c r="BH13" s="100"/>
-      <c r="BI13" s="100"/>
-      <c r="BJ13" s="100"/>
-      <c r="BK13" s="100"/>
-      <c r="BL13" s="100"/>
-      <c r="BM13" s="100"/>
-      <c r="BN13" s="100"/>
-      <c r="BO13" s="100"/>
-      <c r="BP13" s="100"/>
-      <c r="BQ13" s="100"/>
-      <c r="BR13" s="100"/>
-      <c r="BS13" s="100"/>
-      <c r="BT13" s="100"/>
-      <c r="BU13" s="100"/>
-      <c r="BV13" s="100"/>
-      <c r="BW13" s="100"/>
-      <c r="BX13" s="100"/>
-      <c r="BY13" s="100"/>
-      <c r="BZ13" s="100"/>
-      <c r="CA13" s="100"/>
-      <c r="CB13" s="100"/>
-      <c r="CC13" s="100"/>
-      <c r="CD13" s="100"/>
-      <c r="CE13" s="100"/>
-      <c r="CF13" s="100"/>
-      <c r="CG13" s="100"/>
-      <c r="CH13" s="100"/>
-      <c r="CI13" s="100"/>
-      <c r="CJ13" s="100"/>
-      <c r="CK13" s="100"/>
-      <c r="CL13" s="100"/>
-      <c r="CM13" s="100"/>
-      <c r="CN13" s="100"/>
-      <c r="CO13" s="100"/>
-      <c r="CP13" s="100"/>
-      <c r="CQ13" s="100"/>
-      <c r="CR13" s="100"/>
-      <c r="CS13" s="100"/>
-      <c r="CT13" s="100"/>
-      <c r="CU13" s="100"/>
-      <c r="CV13" s="100"/>
-      <c r="CW13" s="100"/>
-      <c r="CX13" s="100"/>
-      <c r="CY13" s="100"/>
-      <c r="CZ13" s="100"/>
-      <c r="DA13" s="100"/>
-      <c r="DB13" s="100"/>
-      <c r="DC13" s="100"/>
-      <c r="DD13" s="100"/>
-      <c r="DE13" s="100"/>
-      <c r="DF13" s="100"/>
-      <c r="DG13" s="100"/>
-      <c r="DH13" s="100"/>
-      <c r="DI13" s="100"/>
-      <c r="DJ13" s="100"/>
-      <c r="DK13" s="100"/>
-      <c r="DL13" s="100"/>
-      <c r="DM13" s="100"/>
-      <c r="DN13" s="100"/>
-      <c r="DO13" s="100"/>
-      <c r="DP13" s="100"/>
-      <c r="DQ13" s="100"/>
-      <c r="DR13" s="100"/>
-      <c r="DS13" s="100"/>
-      <c r="DT13" s="100"/>
-      <c r="DU13" s="100"/>
-      <c r="DV13" s="100"/>
-      <c r="DW13" s="100"/>
-      <c r="DX13" s="100"/>
-      <c r="DY13" s="100"/>
-      <c r="DZ13" s="100"/>
-      <c r="EA13" s="100"/>
-      <c r="EB13" s="100"/>
-      <c r="EC13" s="100"/>
-      <c r="ED13" s="100"/>
-      <c r="EE13" s="100"/>
-      <c r="EF13" s="100"/>
-      <c r="EG13" s="100"/>
-      <c r="EH13" s="100"/>
-      <c r="EI13" s="100"/>
-      <c r="EJ13" s="100"/>
-      <c r="EK13" s="100"/>
-      <c r="EL13" s="100"/>
-      <c r="EM13" s="100"/>
-      <c r="EN13" s="100"/>
-      <c r="EO13" s="100"/>
-      <c r="EP13" s="100"/>
-      <c r="EQ13" s="100"/>
-      <c r="ER13" s="100"/>
-      <c r="ES13" s="100"/>
-      <c r="ET13" s="100"/>
-      <c r="EU13" s="100"/>
-      <c r="EV13" s="100"/>
-      <c r="EW13" s="100"/>
-      <c r="EX13" s="100"/>
-      <c r="EY13" s="100"/>
-      <c r="EZ13" s="100"/>
-      <c r="FA13" s="100"/>
-      <c r="FB13" s="100"/>
-      <c r="FC13" s="100"/>
-      <c r="FD13" s="100"/>
-      <c r="FE13" s="100"/>
-      <c r="FF13" s="100"/>
-      <c r="FG13" s="100"/>
-      <c r="FH13" s="100"/>
-      <c r="FI13" s="100"/>
-      <c r="FJ13" s="100"/>
-      <c r="FK13" s="100"/>
-      <c r="FL13" s="100"/>
-      <c r="FM13" s="100"/>
-      <c r="FN13" s="100"/>
-      <c r="FO13" s="100"/>
-      <c r="FP13" s="100"/>
-      <c r="FQ13" s="100"/>
-      <c r="FR13" s="100"/>
-      <c r="FS13" s="100"/>
-      <c r="FT13" s="100"/>
-      <c r="FU13" s="100"/>
-      <c r="FV13" s="100"/>
-      <c r="FW13" s="100"/>
-      <c r="FX13" s="100"/>
-      <c r="FY13" s="100"/>
-      <c r="FZ13" s="100"/>
-      <c r="GA13" s="100"/>
-      <c r="GB13" s="100"/>
-      <c r="GC13" s="100"/>
-      <c r="GD13" s="100"/>
-      <c r="GE13" s="100"/>
-      <c r="GF13" s="100"/>
-      <c r="GG13" s="100"/>
-      <c r="GH13" s="100"/>
-      <c r="GI13" s="100"/>
-      <c r="GJ13" s="100"/>
-      <c r="GK13" s="100"/>
-      <c r="GL13" s="100"/>
-      <c r="GM13" s="100"/>
-      <c r="GN13" s="100"/>
-      <c r="GO13" s="100"/>
-      <c r="GP13" s="100"/>
-      <c r="GQ13" s="100"/>
-      <c r="GR13" s="100"/>
-      <c r="GS13" s="100"/>
-      <c r="GT13" s="100"/>
-      <c r="GU13" s="100"/>
-      <c r="GV13" s="100"/>
-      <c r="GW13" s="100"/>
-      <c r="GX13" s="100"/>
-      <c r="GY13" s="100"/>
-      <c r="GZ13" s="100"/>
-      <c r="HA13" s="100"/>
-      <c r="HB13" s="100"/>
-      <c r="HC13" s="100"/>
-      <c r="HD13" s="100"/>
-      <c r="HE13" s="100"/>
-      <c r="HF13" s="100"/>
-      <c r="HG13" s="100"/>
-      <c r="HH13" s="100"/>
-      <c r="HI13" s="100"/>
-      <c r="HJ13" s="100"/>
-      <c r="HK13" s="100"/>
-      <c r="HL13" s="100"/>
-      <c r="HM13" s="100"/>
-      <c r="HN13" s="100"/>
-      <c r="HO13" s="100"/>
-      <c r="HP13" s="100"/>
-      <c r="HQ13" s="100"/>
-      <c r="HR13" s="100"/>
-      <c r="HS13" s="100"/>
-      <c r="HT13" s="100"/>
-      <c r="HU13" s="100"/>
-      <c r="HV13" s="100"/>
-      <c r="HW13" s="100"/>
-      <c r="HX13" s="100"/>
-      <c r="HY13" s="100"/>
-      <c r="HZ13" s="100"/>
-      <c r="IA13" s="100"/>
-      <c r="IB13" s="100"/>
-      <c r="IC13" s="100"/>
-      <c r="ID13" s="100"/>
-      <c r="IE13" s="100"/>
-      <c r="IF13" s="100"/>
-      <c r="IG13" s="100"/>
-      <c r="IH13" s="100"/>
-      <c r="II13" s="100"/>
-      <c r="IJ13" s="100"/>
-      <c r="IK13" s="100"/>
-      <c r="IL13" s="100"/>
-      <c r="IM13" s="100"/>
-      <c r="IN13" s="100"/>
-      <c r="IO13" s="100"/>
-      <c r="IP13" s="100"/>
-      <c r="IQ13" s="100"/>
-      <c r="IR13" s="100"/>
-      <c r="IS13" s="100"/>
-      <c r="IT13" s="100"/>
-      <c r="IU13" s="100"/>
-      <c r="IV13" s="100"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="102"/>
+      <c r="AF13" s="102"/>
+      <c r="AG13" s="102"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="102"/>
+      <c r="AJ13" s="102"/>
+      <c r="AK13" s="102"/>
+      <c r="AL13" s="102"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="102"/>
+      <c r="AO13" s="102"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="102"/>
+      <c r="AR13" s="102"/>
+      <c r="AS13" s="102"/>
+      <c r="AT13" s="102"/>
+      <c r="AU13" s="102"/>
+      <c r="AV13" s="102"/>
+      <c r="AW13" s="102"/>
+      <c r="AX13" s="102"/>
+      <c r="AY13" s="102"/>
+      <c r="AZ13" s="102"/>
+      <c r="BA13" s="102"/>
+      <c r="BB13" s="102"/>
+      <c r="BC13" s="102"/>
+      <c r="BD13" s="102"/>
+      <c r="BE13" s="102"/>
+      <c r="BF13" s="102"/>
+      <c r="BG13" s="102"/>
+      <c r="BH13" s="102"/>
+      <c r="BI13" s="102"/>
+      <c r="BJ13" s="102"/>
+      <c r="BK13" s="102"/>
+      <c r="BL13" s="102"/>
+      <c r="BM13" s="102"/>
+      <c r="BN13" s="102"/>
+      <c r="BO13" s="102"/>
+      <c r="BP13" s="102"/>
+      <c r="BQ13" s="102"/>
+      <c r="BR13" s="102"/>
+      <c r="BS13" s="102"/>
+      <c r="BT13" s="102"/>
+      <c r="BU13" s="102"/>
+      <c r="BV13" s="102"/>
+      <c r="BW13" s="102"/>
+      <c r="BX13" s="102"/>
+      <c r="BY13" s="102"/>
+      <c r="BZ13" s="102"/>
+      <c r="CA13" s="102"/>
+      <c r="CB13" s="102"/>
+      <c r="CC13" s="102"/>
+      <c r="CD13" s="102"/>
+      <c r="CE13" s="102"/>
+      <c r="CF13" s="102"/>
+      <c r="CG13" s="102"/>
+      <c r="CH13" s="102"/>
+      <c r="CI13" s="102"/>
+      <c r="CJ13" s="102"/>
+      <c r="CK13" s="102"/>
+      <c r="CL13" s="102"/>
+      <c r="CM13" s="102"/>
+      <c r="CN13" s="102"/>
+      <c r="CO13" s="102"/>
+      <c r="CP13" s="102"/>
+      <c r="CQ13" s="102"/>
+      <c r="CR13" s="102"/>
+      <c r="CS13" s="102"/>
+      <c r="CT13" s="102"/>
+      <c r="CU13" s="102"/>
+      <c r="CV13" s="102"/>
+      <c r="CW13" s="102"/>
+      <c r="CX13" s="102"/>
+      <c r="CY13" s="102"/>
+      <c r="CZ13" s="102"/>
+      <c r="DA13" s="102"/>
+      <c r="DB13" s="102"/>
+      <c r="DC13" s="102"/>
+      <c r="DD13" s="102"/>
+      <c r="DE13" s="102"/>
+      <c r="DF13" s="102"/>
+      <c r="DG13" s="102"/>
+      <c r="DH13" s="102"/>
+      <c r="DI13" s="102"/>
+      <c r="DJ13" s="102"/>
+      <c r="DK13" s="102"/>
+      <c r="DL13" s="102"/>
+      <c r="DM13" s="102"/>
+      <c r="DN13" s="102"/>
+      <c r="DO13" s="102"/>
+      <c r="DP13" s="102"/>
+      <c r="DQ13" s="102"/>
+      <c r="DR13" s="102"/>
+      <c r="DS13" s="102"/>
+      <c r="DT13" s="102"/>
+      <c r="DU13" s="102"/>
+      <c r="DV13" s="102"/>
+      <c r="DW13" s="102"/>
+      <c r="DX13" s="102"/>
+      <c r="DY13" s="102"/>
+      <c r="DZ13" s="102"/>
+      <c r="EA13" s="102"/>
+      <c r="EB13" s="102"/>
+      <c r="EC13" s="102"/>
+      <c r="ED13" s="102"/>
+      <c r="EE13" s="102"/>
+      <c r="EF13" s="102"/>
+      <c r="EG13" s="102"/>
+      <c r="EH13" s="102"/>
+      <c r="EI13" s="102"/>
+      <c r="EJ13" s="102"/>
+      <c r="EK13" s="102"/>
+      <c r="EL13" s="102"/>
+      <c r="EM13" s="102"/>
+      <c r="EN13" s="102"/>
+      <c r="EO13" s="102"/>
+      <c r="EP13" s="102"/>
+      <c r="EQ13" s="102"/>
+      <c r="ER13" s="102"/>
+      <c r="ES13" s="102"/>
+      <c r="ET13" s="102"/>
+      <c r="EU13" s="102"/>
+      <c r="EV13" s="102"/>
+      <c r="EW13" s="102"/>
+      <c r="EX13" s="102"/>
+      <c r="EY13" s="102"/>
+      <c r="EZ13" s="102"/>
+      <c r="FA13" s="102"/>
+      <c r="FB13" s="102"/>
+      <c r="FC13" s="102"/>
+      <c r="FD13" s="102"/>
+      <c r="FE13" s="102"/>
+      <c r="FF13" s="102"/>
+      <c r="FG13" s="102"/>
+      <c r="FH13" s="102"/>
+      <c r="FI13" s="102"/>
+      <c r="FJ13" s="102"/>
+      <c r="FK13" s="102"/>
+      <c r="FL13" s="102"/>
+      <c r="FM13" s="102"/>
+      <c r="FN13" s="102"/>
+      <c r="FO13" s="102"/>
+      <c r="FP13" s="102"/>
+      <c r="FQ13" s="102"/>
+      <c r="FR13" s="102"/>
+      <c r="FS13" s="102"/>
+      <c r="FT13" s="102"/>
+      <c r="FU13" s="102"/>
+      <c r="FV13" s="102"/>
+      <c r="FW13" s="102"/>
+      <c r="FX13" s="102"/>
+      <c r="FY13" s="102"/>
+      <c r="FZ13" s="102"/>
+      <c r="GA13" s="102"/>
+      <c r="GB13" s="102"/>
+      <c r="GC13" s="102"/>
+      <c r="GD13" s="102"/>
+      <c r="GE13" s="102"/>
+      <c r="GF13" s="102"/>
+      <c r="GG13" s="102"/>
+      <c r="GH13" s="102"/>
+      <c r="GI13" s="102"/>
+      <c r="GJ13" s="102"/>
+      <c r="GK13" s="102"/>
+      <c r="GL13" s="102"/>
+      <c r="GM13" s="102"/>
+      <c r="GN13" s="102"/>
+      <c r="GO13" s="102"/>
+      <c r="GP13" s="102"/>
+      <c r="GQ13" s="102"/>
+      <c r="GR13" s="102"/>
+      <c r="GS13" s="102"/>
+      <c r="GT13" s="102"/>
+      <c r="GU13" s="102"/>
+      <c r="GV13" s="102"/>
+      <c r="GW13" s="102"/>
+      <c r="GX13" s="102"/>
+      <c r="GY13" s="102"/>
+      <c r="GZ13" s="102"/>
+      <c r="HA13" s="102"/>
+      <c r="HB13" s="102"/>
+      <c r="HC13" s="102"/>
+      <c r="HD13" s="102"/>
+      <c r="HE13" s="102"/>
+      <c r="HF13" s="102"/>
+      <c r="HG13" s="102"/>
+      <c r="HH13" s="102"/>
+      <c r="HI13" s="102"/>
+      <c r="HJ13" s="102"/>
+      <c r="HK13" s="102"/>
+      <c r="HL13" s="102"/>
+      <c r="HM13" s="102"/>
+      <c r="HN13" s="102"/>
+      <c r="HO13" s="102"/>
+      <c r="HP13" s="102"/>
+      <c r="HQ13" s="102"/>
+      <c r="HR13" s="102"/>
+      <c r="HS13" s="102"/>
+      <c r="HT13" s="102"/>
+      <c r="HU13" s="102"/>
+      <c r="HV13" s="102"/>
+      <c r="HW13" s="102"/>
+      <c r="HX13" s="102"/>
+      <c r="HY13" s="102"/>
+      <c r="HZ13" s="102"/>
+      <c r="IA13" s="102"/>
+      <c r="IB13" s="102"/>
+      <c r="IC13" s="102"/>
+      <c r="ID13" s="102"/>
+      <c r="IE13" s="102"/>
+      <c r="IF13" s="102"/>
+      <c r="IG13" s="102"/>
+      <c r="IH13" s="102"/>
+      <c r="II13" s="102"/>
+      <c r="IJ13" s="102"/>
+      <c r="IK13" s="102"/>
+      <c r="IL13" s="102"/>
+      <c r="IM13" s="102"/>
+      <c r="IN13" s="102"/>
+      <c r="IO13" s="102"/>
+      <c r="IP13" s="102"/>
+      <c r="IQ13" s="102"/>
+      <c r="IR13" s="102"/>
+      <c r="IS13" s="102"/>
+      <c r="IT13" s="102"/>
+      <c r="IU13" s="102"/>
+      <c r="IV13" s="102"/>
     </row>
     <row r="14" spans="1:256" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="100"/>
-      <c r="Y14" s="100"/>
-      <c r="Z14" s="100"/>
-      <c r="AA14" s="100"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="100"/>
-      <c r="AD14" s="100"/>
-      <c r="AE14" s="100"/>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="100"/>
-      <c r="AJ14" s="100"/>
-      <c r="AK14" s="100"/>
-      <c r="AL14" s="100"/>
-      <c r="AM14" s="100"/>
-      <c r="AN14" s="100"/>
-      <c r="AO14" s="100"/>
-      <c r="AP14" s="100"/>
-      <c r="AQ14" s="100"/>
-      <c r="AR14" s="100"/>
-      <c r="AS14" s="100"/>
-      <c r="AT14" s="100"/>
-      <c r="AU14" s="100"/>
-      <c r="AV14" s="100"/>
-      <c r="AW14" s="100"/>
-      <c r="AX14" s="100"/>
-      <c r="AY14" s="100"/>
-      <c r="AZ14" s="100"/>
-      <c r="BA14" s="100"/>
-      <c r="BB14" s="100"/>
-      <c r="BC14" s="100"/>
-      <c r="BD14" s="100"/>
-      <c r="BE14" s="100"/>
-      <c r="BF14" s="100"/>
-      <c r="BG14" s="100"/>
-      <c r="BH14" s="100"/>
-      <c r="BI14" s="100"/>
-      <c r="BJ14" s="100"/>
-      <c r="BK14" s="100"/>
-      <c r="BL14" s="100"/>
-      <c r="BM14" s="100"/>
-      <c r="BN14" s="100"/>
-      <c r="BO14" s="100"/>
-      <c r="BP14" s="100"/>
-      <c r="BQ14" s="100"/>
-      <c r="BR14" s="100"/>
-      <c r="BS14" s="100"/>
-      <c r="BT14" s="100"/>
-      <c r="BU14" s="100"/>
-      <c r="BV14" s="100"/>
-      <c r="BW14" s="100"/>
-      <c r="BX14" s="100"/>
-      <c r="BY14" s="100"/>
-      <c r="BZ14" s="100"/>
-      <c r="CA14" s="100"/>
-      <c r="CB14" s="100"/>
-      <c r="CC14" s="100"/>
-      <c r="CD14" s="100"/>
-      <c r="CE14" s="100"/>
-      <c r="CF14" s="100"/>
-      <c r="CG14" s="100"/>
-      <c r="CH14" s="100"/>
-      <c r="CI14" s="100"/>
-      <c r="CJ14" s="100"/>
-      <c r="CK14" s="100"/>
-      <c r="CL14" s="100"/>
-      <c r="CM14" s="100"/>
-      <c r="CN14" s="100"/>
-      <c r="CO14" s="100"/>
-      <c r="CP14" s="100"/>
-      <c r="CQ14" s="100"/>
-      <c r="CR14" s="100"/>
-      <c r="CS14" s="100"/>
-      <c r="CT14" s="100"/>
-      <c r="CU14" s="100"/>
-      <c r="CV14" s="100"/>
-      <c r="CW14" s="100"/>
-      <c r="CX14" s="100"/>
-      <c r="CY14" s="100"/>
-      <c r="CZ14" s="100"/>
-      <c r="DA14" s="100"/>
-      <c r="DB14" s="100"/>
-      <c r="DC14" s="100"/>
-      <c r="DD14" s="100"/>
-      <c r="DE14" s="100"/>
-      <c r="DF14" s="100"/>
-      <c r="DG14" s="100"/>
-      <c r="DH14" s="100"/>
-      <c r="DI14" s="100"/>
-      <c r="DJ14" s="100"/>
-      <c r="DK14" s="100"/>
-      <c r="DL14" s="100"/>
-      <c r="DM14" s="100"/>
-      <c r="DN14" s="100"/>
-      <c r="DO14" s="100"/>
-      <c r="DP14" s="100"/>
-      <c r="DQ14" s="100"/>
-      <c r="DR14" s="100"/>
-      <c r="DS14" s="100"/>
-      <c r="DT14" s="100"/>
-      <c r="DU14" s="100"/>
-      <c r="DV14" s="100"/>
-      <c r="DW14" s="100"/>
-      <c r="DX14" s="100"/>
-      <c r="DY14" s="100"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="102"/>
+      <c r="AF14" s="102"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="102"/>
+      <c r="AJ14" s="102"/>
+      <c r="AK14" s="102"/>
+      <c r="AL14" s="102"/>
+      <c r="AM14" s="102"/>
+      <c r="AN14" s="102"/>
+      <c r="AO14" s="102"/>
+      <c r="AP14" s="102"/>
+      <c r="AQ14" s="102"/>
+      <c r="AR14" s="102"/>
+      <c r="AS14" s="102"/>
+      <c r="AT14" s="102"/>
+      <c r="AU14" s="102"/>
+      <c r="AV14" s="102"/>
+      <c r="AW14" s="102"/>
+      <c r="AX14" s="102"/>
+      <c r="AY14" s="102"/>
+      <c r="AZ14" s="102"/>
+      <c r="BA14" s="102"/>
+      <c r="BB14" s="102"/>
+      <c r="BC14" s="102"/>
+      <c r="BD14" s="102"/>
+      <c r="BE14" s="102"/>
+      <c r="BF14" s="102"/>
+      <c r="BG14" s="102"/>
+      <c r="BH14" s="102"/>
+      <c r="BI14" s="102"/>
+      <c r="BJ14" s="102"/>
+      <c r="BK14" s="102"/>
+      <c r="BL14" s="102"/>
+      <c r="BM14" s="102"/>
+      <c r="BN14" s="102"/>
+      <c r="BO14" s="102"/>
+      <c r="BP14" s="102"/>
+      <c r="BQ14" s="102"/>
+      <c r="BR14" s="102"/>
+      <c r="BS14" s="102"/>
+      <c r="BT14" s="102"/>
+      <c r="BU14" s="102"/>
+      <c r="BV14" s="102"/>
+      <c r="BW14" s="102"/>
+      <c r="BX14" s="102"/>
+      <c r="BY14" s="102"/>
+      <c r="BZ14" s="102"/>
+      <c r="CA14" s="102"/>
+      <c r="CB14" s="102"/>
+      <c r="CC14" s="102"/>
+      <c r="CD14" s="102"/>
+      <c r="CE14" s="102"/>
+      <c r="CF14" s="102"/>
+      <c r="CG14" s="102"/>
+      <c r="CH14" s="102"/>
+      <c r="CI14" s="102"/>
+      <c r="CJ14" s="102"/>
+      <c r="CK14" s="102"/>
+      <c r="CL14" s="102"/>
+      <c r="CM14" s="102"/>
+      <c r="CN14" s="102"/>
+      <c r="CO14" s="102"/>
+      <c r="CP14" s="102"/>
+      <c r="CQ14" s="102"/>
+      <c r="CR14" s="102"/>
+      <c r="CS14" s="102"/>
+      <c r="CT14" s="102"/>
+      <c r="CU14" s="102"/>
+      <c r="CV14" s="102"/>
+      <c r="CW14" s="102"/>
+      <c r="CX14" s="102"/>
+      <c r="CY14" s="102"/>
+      <c r="CZ14" s="102"/>
+      <c r="DA14" s="102"/>
+      <c r="DB14" s="102"/>
+      <c r="DC14" s="102"/>
+      <c r="DD14" s="102"/>
+      <c r="DE14" s="102"/>
+      <c r="DF14" s="102"/>
+      <c r="DG14" s="102"/>
+      <c r="DH14" s="102"/>
+      <c r="DI14" s="102"/>
+      <c r="DJ14" s="102"/>
+      <c r="DK14" s="102"/>
+      <c r="DL14" s="102"/>
+      <c r="DM14" s="102"/>
+      <c r="DN14" s="102"/>
+      <c r="DO14" s="102"/>
+      <c r="DP14" s="102"/>
+      <c r="DQ14" s="102"/>
+      <c r="DR14" s="102"/>
+      <c r="DS14" s="102"/>
+      <c r="DT14" s="102"/>
+      <c r="DU14" s="102"/>
+      <c r="DV14" s="102"/>
+      <c r="DW14" s="102"/>
+      <c r="DX14" s="102"/>
+      <c r="DY14" s="102"/>
     </row>
     <row r="15" spans="1:256" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:256" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3004,10 +3004,10 @@
       <c r="DZ18" s="62"/>
       <c r="EA18" s="62"/>
       <c r="EB18" s="63"/>
-      <c r="EC18" s="102"/>
-      <c r="ED18" s="102"/>
-      <c r="EE18" s="102"/>
-      <c r="EF18" s="102"/>
+      <c r="EC18" s="100"/>
+      <c r="ED18" s="100"/>
+      <c r="EE18" s="100"/>
+      <c r="EF18" s="100"/>
     </row>
     <row r="19" spans="1:136" s="21" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
@@ -4652,10 +4652,10 @@
       <c r="DV33" s="62"/>
       <c r="DW33" s="62"/>
       <c r="DX33" s="63"/>
-      <c r="DY33" s="102"/>
-      <c r="DZ33" s="102"/>
-      <c r="EA33" s="102"/>
-      <c r="EB33" s="102"/>
+      <c r="DY33" s="100"/>
+      <c r="DZ33" s="100"/>
+      <c r="EA33" s="100"/>
+      <c r="EB33" s="100"/>
       <c r="EC33" s="61"/>
       <c r="ED33" s="62"/>
       <c r="EE33" s="62"/>
@@ -5190,144 +5190,144 @@
       <c r="EF39" s="63"/>
     </row>
     <row r="40" spans="1:137" s="31" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="106" t="s">
+      <c r="A40" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
-      <c r="O40" s="106"/>
-      <c r="P40" s="106"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="106"/>
-      <c r="S40" s="106"/>
-      <c r="T40" s="106"/>
-      <c r="U40" s="106"/>
-      <c r="V40" s="106"/>
-      <c r="W40" s="106"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="106"/>
-      <c r="AA40" s="106"/>
-      <c r="AB40" s="106"/>
-      <c r="AC40" s="106"/>
-      <c r="AD40" s="106"/>
-      <c r="AE40" s="106"/>
-      <c r="AF40" s="106"/>
-      <c r="AG40" s="106"/>
-      <c r="AH40" s="106"/>
-      <c r="AI40" s="106"/>
-      <c r="AJ40" s="106"/>
-      <c r="AK40" s="106"/>
-      <c r="AL40" s="106"/>
-      <c r="AM40" s="106"/>
-      <c r="AN40" s="106"/>
-      <c r="AO40" s="106"/>
-      <c r="AP40" s="106"/>
-      <c r="AQ40" s="106"/>
-      <c r="AR40" s="106"/>
-      <c r="AS40" s="106"/>
-      <c r="AT40" s="106"/>
-      <c r="AU40" s="106"/>
-      <c r="AV40" s="106"/>
-      <c r="AW40" s="106"/>
-      <c r="AX40" s="106"/>
-      <c r="AY40" s="106"/>
-      <c r="AZ40" s="106"/>
-      <c r="BA40" s="106"/>
-      <c r="BB40" s="106"/>
-      <c r="BC40" s="106"/>
-      <c r="BD40" s="106"/>
-      <c r="BE40" s="106"/>
-      <c r="BF40" s="106"/>
-      <c r="BG40" s="106"/>
-      <c r="BH40" s="106"/>
-      <c r="BI40" s="106"/>
-      <c r="BJ40" s="106"/>
-      <c r="BK40" s="106"/>
-      <c r="BL40" s="106"/>
-      <c r="BM40" s="106"/>
-      <c r="BN40" s="106"/>
-      <c r="BO40" s="106"/>
-      <c r="BP40" s="106"/>
-      <c r="BQ40" s="106"/>
-      <c r="BR40" s="106"/>
-      <c r="BS40" s="106"/>
-      <c r="BT40" s="106"/>
-      <c r="BU40" s="106"/>
-      <c r="BV40" s="106"/>
-      <c r="BW40" s="106"/>
-      <c r="BX40" s="106"/>
-      <c r="BY40" s="106"/>
-      <c r="BZ40" s="106"/>
-      <c r="CA40" s="106"/>
-      <c r="CB40" s="106"/>
-      <c r="CC40" s="106"/>
-      <c r="CD40" s="106"/>
-      <c r="CE40" s="106"/>
-      <c r="CF40" s="106"/>
-      <c r="CG40" s="106"/>
-      <c r="CH40" s="106"/>
-      <c r="CI40" s="106"/>
-      <c r="CJ40" s="106"/>
-      <c r="CK40" s="106"/>
-      <c r="CL40" s="106"/>
-      <c r="CM40" s="106"/>
-      <c r="CN40" s="106"/>
-      <c r="CO40" s="106"/>
-      <c r="CP40" s="106"/>
-      <c r="CQ40" s="106"/>
-      <c r="CR40" s="106"/>
-      <c r="CS40" s="106"/>
-      <c r="CT40" s="106"/>
-      <c r="CU40" s="106"/>
-      <c r="CV40" s="106"/>
-      <c r="CW40" s="106"/>
-      <c r="CX40" s="106"/>
-      <c r="CY40" s="106"/>
-      <c r="CZ40" s="106"/>
-      <c r="DA40" s="106"/>
-      <c r="DB40" s="106"/>
-      <c r="DC40" s="106"/>
-      <c r="DD40" s="106"/>
-      <c r="DE40" s="106"/>
-      <c r="DF40" s="106"/>
-      <c r="DG40" s="106"/>
-      <c r="DH40" s="106"/>
-      <c r="DI40" s="106"/>
-      <c r="DJ40" s="106"/>
-      <c r="DK40" s="106"/>
-      <c r="DL40" s="106"/>
-      <c r="DM40" s="106"/>
-      <c r="DN40" s="106"/>
-      <c r="DO40" s="106"/>
-      <c r="DP40" s="106"/>
-      <c r="DQ40" s="106"/>
-      <c r="DR40" s="106"/>
-      <c r="DS40" s="106"/>
-      <c r="DT40" s="106"/>
-      <c r="DU40" s="106"/>
-      <c r="DV40" s="106"/>
-      <c r="DW40" s="106"/>
-      <c r="DX40" s="106"/>
-      <c r="DY40" s="106"/>
-      <c r="DZ40" s="107"/>
-      <c r="EA40" s="107"/>
-      <c r="EB40" s="107"/>
-      <c r="EC40" s="107"/>
-      <c r="ED40" s="107"/>
-      <c r="EE40" s="107"/>
-      <c r="EF40" s="107"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="107"/>
+      <c r="O40" s="107"/>
+      <c r="P40" s="107"/>
+      <c r="Q40" s="107"/>
+      <c r="R40" s="107"/>
+      <c r="S40" s="107"/>
+      <c r="T40" s="107"/>
+      <c r="U40" s="107"/>
+      <c r="V40" s="107"/>
+      <c r="W40" s="107"/>
+      <c r="X40" s="107"/>
+      <c r="Y40" s="107"/>
+      <c r="Z40" s="107"/>
+      <c r="AA40" s="107"/>
+      <c r="AB40" s="107"/>
+      <c r="AC40" s="107"/>
+      <c r="AD40" s="107"/>
+      <c r="AE40" s="107"/>
+      <c r="AF40" s="107"/>
+      <c r="AG40" s="107"/>
+      <c r="AH40" s="107"/>
+      <c r="AI40" s="107"/>
+      <c r="AJ40" s="107"/>
+      <c r="AK40" s="107"/>
+      <c r="AL40" s="107"/>
+      <c r="AM40" s="107"/>
+      <c r="AN40" s="107"/>
+      <c r="AO40" s="107"/>
+      <c r="AP40" s="107"/>
+      <c r="AQ40" s="107"/>
+      <c r="AR40" s="107"/>
+      <c r="AS40" s="107"/>
+      <c r="AT40" s="107"/>
+      <c r="AU40" s="107"/>
+      <c r="AV40" s="107"/>
+      <c r="AW40" s="107"/>
+      <c r="AX40" s="107"/>
+      <c r="AY40" s="107"/>
+      <c r="AZ40" s="107"/>
+      <c r="BA40" s="107"/>
+      <c r="BB40" s="107"/>
+      <c r="BC40" s="107"/>
+      <c r="BD40" s="107"/>
+      <c r="BE40" s="107"/>
+      <c r="BF40" s="107"/>
+      <c r="BG40" s="107"/>
+      <c r="BH40" s="107"/>
+      <c r="BI40" s="107"/>
+      <c r="BJ40" s="107"/>
+      <c r="BK40" s="107"/>
+      <c r="BL40" s="107"/>
+      <c r="BM40" s="107"/>
+      <c r="BN40" s="107"/>
+      <c r="BO40" s="107"/>
+      <c r="BP40" s="107"/>
+      <c r="BQ40" s="107"/>
+      <c r="BR40" s="107"/>
+      <c r="BS40" s="107"/>
+      <c r="BT40" s="107"/>
+      <c r="BU40" s="107"/>
+      <c r="BV40" s="107"/>
+      <c r="BW40" s="107"/>
+      <c r="BX40" s="107"/>
+      <c r="BY40" s="107"/>
+      <c r="BZ40" s="107"/>
+      <c r="CA40" s="107"/>
+      <c r="CB40" s="107"/>
+      <c r="CC40" s="107"/>
+      <c r="CD40" s="107"/>
+      <c r="CE40" s="107"/>
+      <c r="CF40" s="107"/>
+      <c r="CG40" s="107"/>
+      <c r="CH40" s="107"/>
+      <c r="CI40" s="107"/>
+      <c r="CJ40" s="107"/>
+      <c r="CK40" s="107"/>
+      <c r="CL40" s="107"/>
+      <c r="CM40" s="107"/>
+      <c r="CN40" s="107"/>
+      <c r="CO40" s="107"/>
+      <c r="CP40" s="107"/>
+      <c r="CQ40" s="107"/>
+      <c r="CR40" s="107"/>
+      <c r="CS40" s="107"/>
+      <c r="CT40" s="107"/>
+      <c r="CU40" s="107"/>
+      <c r="CV40" s="107"/>
+      <c r="CW40" s="107"/>
+      <c r="CX40" s="107"/>
+      <c r="CY40" s="107"/>
+      <c r="CZ40" s="107"/>
+      <c r="DA40" s="107"/>
+      <c r="DB40" s="107"/>
+      <c r="DC40" s="107"/>
+      <c r="DD40" s="107"/>
+      <c r="DE40" s="107"/>
+      <c r="DF40" s="107"/>
+      <c r="DG40" s="107"/>
+      <c r="DH40" s="107"/>
+      <c r="DI40" s="107"/>
+      <c r="DJ40" s="107"/>
+      <c r="DK40" s="107"/>
+      <c r="DL40" s="107"/>
+      <c r="DM40" s="107"/>
+      <c r="DN40" s="107"/>
+      <c r="DO40" s="107"/>
+      <c r="DP40" s="107"/>
+      <c r="DQ40" s="107"/>
+      <c r="DR40" s="107"/>
+      <c r="DS40" s="107"/>
+      <c r="DT40" s="107"/>
+      <c r="DU40" s="107"/>
+      <c r="DV40" s="107"/>
+      <c r="DW40" s="107"/>
+      <c r="DX40" s="107"/>
+      <c r="DY40" s="107"/>
+      <c r="DZ40" s="108"/>
+      <c r="EA40" s="108"/>
+      <c r="EB40" s="108"/>
+      <c r="EC40" s="108"/>
+      <c r="ED40" s="108"/>
+      <c r="EE40" s="108"/>
+      <c r="EF40" s="108"/>
     </row>
     <row r="41" spans="1:137" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="61"/>
@@ -5468,137 +5468,137 @@
       <c r="EF41" s="63"/>
     </row>
     <row r="42" spans="1:137" s="31" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="103"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="103"/>
-      <c r="M42" s="103"/>
-      <c r="N42" s="103"/>
-      <c r="O42" s="103"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="103"/>
-      <c r="R42" s="103"/>
-      <c r="S42" s="103"/>
-      <c r="T42" s="103"/>
-      <c r="U42" s="103"/>
-      <c r="V42" s="103"/>
-      <c r="W42" s="103"/>
-      <c r="X42" s="103"/>
-      <c r="Y42" s="103"/>
-      <c r="Z42" s="103"/>
-      <c r="AA42" s="103"/>
-      <c r="AB42" s="103"/>
-      <c r="AC42" s="103"/>
-      <c r="AD42" s="103"/>
-      <c r="AE42" s="103"/>
-      <c r="AF42" s="103"/>
-      <c r="AG42" s="103"/>
-      <c r="AH42" s="103"/>
-      <c r="AI42" s="103"/>
-      <c r="AJ42" s="103"/>
-      <c r="AK42" s="103"/>
-      <c r="AL42" s="103"/>
-      <c r="AM42" s="103"/>
-      <c r="AN42" s="103"/>
-      <c r="AO42" s="103"/>
-      <c r="AP42" s="103"/>
-      <c r="AQ42" s="103"/>
-      <c r="AR42" s="103"/>
-      <c r="AS42" s="103"/>
-      <c r="AT42" s="103"/>
-      <c r="AU42" s="103"/>
-      <c r="AV42" s="103"/>
-      <c r="AW42" s="103"/>
-      <c r="AX42" s="103"/>
-      <c r="AY42" s="103"/>
-      <c r="AZ42" s="103"/>
-      <c r="BA42" s="103"/>
-      <c r="BB42" s="103"/>
-      <c r="BC42" s="103"/>
-      <c r="BD42" s="103"/>
-      <c r="BE42" s="103"/>
-      <c r="BF42" s="103"/>
-      <c r="BG42" s="103"/>
-      <c r="BH42" s="103"/>
-      <c r="BI42" s="103"/>
-      <c r="BJ42" s="103"/>
-      <c r="BK42" s="103"/>
-      <c r="BL42" s="103"/>
-      <c r="BM42" s="103"/>
-      <c r="BN42" s="103"/>
-      <c r="BO42" s="103"/>
-      <c r="BP42" s="103"/>
-      <c r="BQ42" s="103"/>
-      <c r="BR42" s="103"/>
-      <c r="BS42" s="103"/>
-      <c r="BT42" s="103"/>
-      <c r="BU42" s="103"/>
-      <c r="BV42" s="103"/>
-      <c r="BW42" s="103"/>
-      <c r="BX42" s="103"/>
-      <c r="BY42" s="103"/>
-      <c r="BZ42" s="103"/>
-      <c r="CA42" s="103"/>
-      <c r="CB42" s="103"/>
-      <c r="CC42" s="103"/>
-      <c r="CD42" s="103"/>
-      <c r="CE42" s="103"/>
-      <c r="CF42" s="103"/>
-      <c r="CG42" s="103"/>
-      <c r="CH42" s="103"/>
-      <c r="CI42" s="103"/>
-      <c r="CJ42" s="103"/>
-      <c r="CK42" s="103"/>
-      <c r="CL42" s="103"/>
-      <c r="CM42" s="103"/>
-      <c r="CN42" s="103"/>
-      <c r="CO42" s="103"/>
-      <c r="CP42" s="103"/>
-      <c r="CQ42" s="103"/>
-      <c r="CR42" s="103"/>
-      <c r="CS42" s="103"/>
-      <c r="CT42" s="103"/>
-      <c r="CU42" s="103"/>
-      <c r="CV42" s="104"/>
-      <c r="CW42" s="104"/>
-      <c r="CX42" s="104"/>
-      <c r="CY42" s="105"/>
-      <c r="CZ42" s="105"/>
-      <c r="DA42" s="105"/>
-      <c r="DB42" s="105"/>
-      <c r="DC42" s="105"/>
-      <c r="DD42" s="105"/>
-      <c r="DE42" s="105"/>
-      <c r="DF42" s="105"/>
-      <c r="DG42" s="105"/>
-      <c r="DH42" s="105"/>
-      <c r="DI42" s="105"/>
-      <c r="DJ42" s="105"/>
-      <c r="DK42" s="105"/>
-      <c r="DL42" s="105"/>
-      <c r="DM42" s="105"/>
-      <c r="DN42" s="105"/>
-      <c r="DO42" s="105"/>
-      <c r="DP42" s="105"/>
-      <c r="DQ42" s="105"/>
-      <c r="DR42" s="105"/>
-      <c r="DS42" s="105"/>
-      <c r="DT42" s="105"/>
-      <c r="DU42" s="105"/>
-      <c r="DV42" s="105"/>
-      <c r="DW42" s="105"/>
-      <c r="DX42" s="105"/>
-      <c r="DY42" s="105"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="104"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="104"/>
+      <c r="AD42" s="104"/>
+      <c r="AE42" s="104"/>
+      <c r="AF42" s="104"/>
+      <c r="AG42" s="104"/>
+      <c r="AH42" s="104"/>
+      <c r="AI42" s="104"/>
+      <c r="AJ42" s="104"/>
+      <c r="AK42" s="104"/>
+      <c r="AL42" s="104"/>
+      <c r="AM42" s="104"/>
+      <c r="AN42" s="104"/>
+      <c r="AO42" s="104"/>
+      <c r="AP42" s="104"/>
+      <c r="AQ42" s="104"/>
+      <c r="AR42" s="104"/>
+      <c r="AS42" s="104"/>
+      <c r="AT42" s="104"/>
+      <c r="AU42" s="104"/>
+      <c r="AV42" s="104"/>
+      <c r="AW42" s="104"/>
+      <c r="AX42" s="104"/>
+      <c r="AY42" s="104"/>
+      <c r="AZ42" s="104"/>
+      <c r="BA42" s="104"/>
+      <c r="BB42" s="104"/>
+      <c r="BC42" s="104"/>
+      <c r="BD42" s="104"/>
+      <c r="BE42" s="104"/>
+      <c r="BF42" s="104"/>
+      <c r="BG42" s="104"/>
+      <c r="BH42" s="104"/>
+      <c r="BI42" s="104"/>
+      <c r="BJ42" s="104"/>
+      <c r="BK42" s="104"/>
+      <c r="BL42" s="104"/>
+      <c r="BM42" s="104"/>
+      <c r="BN42" s="104"/>
+      <c r="BO42" s="104"/>
+      <c r="BP42" s="104"/>
+      <c r="BQ42" s="104"/>
+      <c r="BR42" s="104"/>
+      <c r="BS42" s="104"/>
+      <c r="BT42" s="104"/>
+      <c r="BU42" s="104"/>
+      <c r="BV42" s="104"/>
+      <c r="BW42" s="104"/>
+      <c r="BX42" s="104"/>
+      <c r="BY42" s="104"/>
+      <c r="BZ42" s="104"/>
+      <c r="CA42" s="104"/>
+      <c r="CB42" s="104"/>
+      <c r="CC42" s="104"/>
+      <c r="CD42" s="104"/>
+      <c r="CE42" s="104"/>
+      <c r="CF42" s="104"/>
+      <c r="CG42" s="104"/>
+      <c r="CH42" s="104"/>
+      <c r="CI42" s="104"/>
+      <c r="CJ42" s="104"/>
+      <c r="CK42" s="104"/>
+      <c r="CL42" s="104"/>
+      <c r="CM42" s="104"/>
+      <c r="CN42" s="104"/>
+      <c r="CO42" s="104"/>
+      <c r="CP42" s="104"/>
+      <c r="CQ42" s="104"/>
+      <c r="CR42" s="104"/>
+      <c r="CS42" s="104"/>
+      <c r="CT42" s="104"/>
+      <c r="CU42" s="104"/>
+      <c r="CV42" s="105"/>
+      <c r="CW42" s="105"/>
+      <c r="CX42" s="105"/>
+      <c r="CY42" s="106"/>
+      <c r="CZ42" s="106"/>
+      <c r="DA42" s="106"/>
+      <c r="DB42" s="106"/>
+      <c r="DC42" s="106"/>
+      <c r="DD42" s="106"/>
+      <c r="DE42" s="106"/>
+      <c r="DF42" s="106"/>
+      <c r="DG42" s="106"/>
+      <c r="DH42" s="106"/>
+      <c r="DI42" s="106"/>
+      <c r="DJ42" s="106"/>
+      <c r="DK42" s="106"/>
+      <c r="DL42" s="106"/>
+      <c r="DM42" s="106"/>
+      <c r="DN42" s="106"/>
+      <c r="DO42" s="106"/>
+      <c r="DP42" s="106"/>
+      <c r="DQ42" s="106"/>
+      <c r="DR42" s="106"/>
+      <c r="DS42" s="106"/>
+      <c r="DT42" s="106"/>
+      <c r="DU42" s="106"/>
+      <c r="DV42" s="106"/>
+      <c r="DW42" s="106"/>
+      <c r="DX42" s="106"/>
+      <c r="DY42" s="106"/>
     </row>
     <row r="43" spans="1:137" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="61" t="s">
@@ -5769,10 +5769,10 @@
       <c r="DZ43" s="62"/>
       <c r="EA43" s="62"/>
       <c r="EB43" s="63"/>
-      <c r="EC43" s="102"/>
-      <c r="ED43" s="102"/>
-      <c r="EE43" s="102"/>
-      <c r="EF43" s="102"/>
+      <c r="EC43" s="100"/>
+      <c r="ED43" s="100"/>
+      <c r="EE43" s="100"/>
+      <c r="EF43" s="100"/>
       <c r="EG43" s="21"/>
     </row>
     <row r="44" spans="1:137" s="11" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5915,144 +5915,144 @@
       <c r="EF45" s="63"/>
     </row>
     <row r="46" spans="1:137" s="31" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="109" t="s">
+      <c r="A46" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="109"/>
-      <c r="T46" s="109"/>
-      <c r="U46" s="109"/>
-      <c r="V46" s="109"/>
-      <c r="W46" s="109"/>
-      <c r="X46" s="109"/>
-      <c r="Y46" s="109"/>
-      <c r="Z46" s="109"/>
-      <c r="AA46" s="109"/>
-      <c r="AB46" s="109"/>
-      <c r="AC46" s="109"/>
-      <c r="AD46" s="109"/>
-      <c r="AE46" s="109"/>
-      <c r="AF46" s="109"/>
-      <c r="AG46" s="109"/>
-      <c r="AH46" s="109"/>
-      <c r="AI46" s="109"/>
-      <c r="AJ46" s="109"/>
-      <c r="AK46" s="109"/>
-      <c r="AL46" s="109"/>
-      <c r="AM46" s="109"/>
-      <c r="AN46" s="109"/>
-      <c r="AO46" s="109"/>
-      <c r="AP46" s="109"/>
-      <c r="AQ46" s="109"/>
-      <c r="AR46" s="109"/>
-      <c r="AS46" s="109"/>
-      <c r="AT46" s="109"/>
-      <c r="AU46" s="109"/>
-      <c r="AV46" s="109"/>
-      <c r="AW46" s="109"/>
-      <c r="AX46" s="109"/>
-      <c r="AY46" s="109"/>
-      <c r="AZ46" s="109"/>
-      <c r="BA46" s="109"/>
-      <c r="BB46" s="109"/>
-      <c r="BC46" s="109"/>
-      <c r="BD46" s="109"/>
-      <c r="BE46" s="109"/>
-      <c r="BF46" s="109"/>
-      <c r="BG46" s="109"/>
-      <c r="BH46" s="109"/>
-      <c r="BI46" s="109"/>
-      <c r="BJ46" s="109"/>
-      <c r="BK46" s="109"/>
-      <c r="BL46" s="109"/>
-      <c r="BM46" s="109"/>
-      <c r="BN46" s="109"/>
-      <c r="BO46" s="109"/>
-      <c r="BP46" s="109"/>
-      <c r="BQ46" s="109"/>
-      <c r="BR46" s="109"/>
-      <c r="BS46" s="109"/>
-      <c r="BT46" s="109"/>
-      <c r="BU46" s="109"/>
-      <c r="BV46" s="109"/>
-      <c r="BW46" s="109"/>
-      <c r="BX46" s="109"/>
-      <c r="BY46" s="109"/>
-      <c r="BZ46" s="109"/>
-      <c r="CA46" s="109"/>
-      <c r="CB46" s="109"/>
-      <c r="CC46" s="109"/>
-      <c r="CD46" s="109"/>
-      <c r="CE46" s="109"/>
-      <c r="CF46" s="109"/>
-      <c r="CG46" s="109"/>
-      <c r="CH46" s="109"/>
-      <c r="CI46" s="109"/>
-      <c r="CJ46" s="109"/>
-      <c r="CK46" s="109"/>
-      <c r="CL46" s="109"/>
-      <c r="CM46" s="109"/>
-      <c r="CN46" s="109"/>
-      <c r="CO46" s="109"/>
-      <c r="CP46" s="109"/>
-      <c r="CQ46" s="109"/>
-      <c r="CR46" s="109"/>
-      <c r="CS46" s="109"/>
-      <c r="CT46" s="109"/>
-      <c r="CU46" s="109"/>
-      <c r="CV46" s="109"/>
-      <c r="CW46" s="109"/>
-      <c r="CX46" s="109"/>
-      <c r="CY46" s="109"/>
-      <c r="CZ46" s="109"/>
-      <c r="DA46" s="109"/>
-      <c r="DB46" s="109"/>
-      <c r="DC46" s="109"/>
-      <c r="DD46" s="109"/>
-      <c r="DE46" s="109"/>
-      <c r="DF46" s="109"/>
-      <c r="DG46" s="109"/>
-      <c r="DH46" s="109"/>
-      <c r="DI46" s="109"/>
-      <c r="DJ46" s="109"/>
-      <c r="DK46" s="109"/>
-      <c r="DL46" s="109"/>
-      <c r="DM46" s="109"/>
-      <c r="DN46" s="109"/>
-      <c r="DO46" s="109"/>
-      <c r="DP46" s="109"/>
-      <c r="DQ46" s="109"/>
-      <c r="DR46" s="109"/>
-      <c r="DS46" s="109"/>
-      <c r="DT46" s="109"/>
-      <c r="DU46" s="109"/>
-      <c r="DV46" s="109"/>
-      <c r="DW46" s="109"/>
-      <c r="DX46" s="109"/>
-      <c r="DY46" s="109"/>
-      <c r="DZ46" s="109"/>
-      <c r="EA46" s="109"/>
-      <c r="EB46" s="109"/>
-      <c r="EC46" s="109"/>
-      <c r="ED46" s="109"/>
-      <c r="EE46" s="109"/>
-      <c r="EF46" s="109"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="110"/>
+      <c r="T46" s="110"/>
+      <c r="U46" s="110"/>
+      <c r="V46" s="110"/>
+      <c r="W46" s="110"/>
+      <c r="X46" s="110"/>
+      <c r="Y46" s="110"/>
+      <c r="Z46" s="110"/>
+      <c r="AA46" s="110"/>
+      <c r="AB46" s="110"/>
+      <c r="AC46" s="110"/>
+      <c r="AD46" s="110"/>
+      <c r="AE46" s="110"/>
+      <c r="AF46" s="110"/>
+      <c r="AG46" s="110"/>
+      <c r="AH46" s="110"/>
+      <c r="AI46" s="110"/>
+      <c r="AJ46" s="110"/>
+      <c r="AK46" s="110"/>
+      <c r="AL46" s="110"/>
+      <c r="AM46" s="110"/>
+      <c r="AN46" s="110"/>
+      <c r="AO46" s="110"/>
+      <c r="AP46" s="110"/>
+      <c r="AQ46" s="110"/>
+      <c r="AR46" s="110"/>
+      <c r="AS46" s="110"/>
+      <c r="AT46" s="110"/>
+      <c r="AU46" s="110"/>
+      <c r="AV46" s="110"/>
+      <c r="AW46" s="110"/>
+      <c r="AX46" s="110"/>
+      <c r="AY46" s="110"/>
+      <c r="AZ46" s="110"/>
+      <c r="BA46" s="110"/>
+      <c r="BB46" s="110"/>
+      <c r="BC46" s="110"/>
+      <c r="BD46" s="110"/>
+      <c r="BE46" s="110"/>
+      <c r="BF46" s="110"/>
+      <c r="BG46" s="110"/>
+      <c r="BH46" s="110"/>
+      <c r="BI46" s="110"/>
+      <c r="BJ46" s="110"/>
+      <c r="BK46" s="110"/>
+      <c r="BL46" s="110"/>
+      <c r="BM46" s="110"/>
+      <c r="BN46" s="110"/>
+      <c r="BO46" s="110"/>
+      <c r="BP46" s="110"/>
+      <c r="BQ46" s="110"/>
+      <c r="BR46" s="110"/>
+      <c r="BS46" s="110"/>
+      <c r="BT46" s="110"/>
+      <c r="BU46" s="110"/>
+      <c r="BV46" s="110"/>
+      <c r="BW46" s="110"/>
+      <c r="BX46" s="110"/>
+      <c r="BY46" s="110"/>
+      <c r="BZ46" s="110"/>
+      <c r="CA46" s="110"/>
+      <c r="CB46" s="110"/>
+      <c r="CC46" s="110"/>
+      <c r="CD46" s="110"/>
+      <c r="CE46" s="110"/>
+      <c r="CF46" s="110"/>
+      <c r="CG46" s="110"/>
+      <c r="CH46" s="110"/>
+      <c r="CI46" s="110"/>
+      <c r="CJ46" s="110"/>
+      <c r="CK46" s="110"/>
+      <c r="CL46" s="110"/>
+      <c r="CM46" s="110"/>
+      <c r="CN46" s="110"/>
+      <c r="CO46" s="110"/>
+      <c r="CP46" s="110"/>
+      <c r="CQ46" s="110"/>
+      <c r="CR46" s="110"/>
+      <c r="CS46" s="110"/>
+      <c r="CT46" s="110"/>
+      <c r="CU46" s="110"/>
+      <c r="CV46" s="110"/>
+      <c r="CW46" s="110"/>
+      <c r="CX46" s="110"/>
+      <c r="CY46" s="110"/>
+      <c r="CZ46" s="110"/>
+      <c r="DA46" s="110"/>
+      <c r="DB46" s="110"/>
+      <c r="DC46" s="110"/>
+      <c r="DD46" s="110"/>
+      <c r="DE46" s="110"/>
+      <c r="DF46" s="110"/>
+      <c r="DG46" s="110"/>
+      <c r="DH46" s="110"/>
+      <c r="DI46" s="110"/>
+      <c r="DJ46" s="110"/>
+      <c r="DK46" s="110"/>
+      <c r="DL46" s="110"/>
+      <c r="DM46" s="110"/>
+      <c r="DN46" s="110"/>
+      <c r="DO46" s="110"/>
+      <c r="DP46" s="110"/>
+      <c r="DQ46" s="110"/>
+      <c r="DR46" s="110"/>
+      <c r="DS46" s="110"/>
+      <c r="DT46" s="110"/>
+      <c r="DU46" s="110"/>
+      <c r="DV46" s="110"/>
+      <c r="DW46" s="110"/>
+      <c r="DX46" s="110"/>
+      <c r="DY46" s="110"/>
+      <c r="DZ46" s="110"/>
+      <c r="EA46" s="110"/>
+      <c r="EB46" s="110"/>
+      <c r="EC46" s="110"/>
+      <c r="ED46" s="110"/>
+      <c r="EE46" s="110"/>
+      <c r="EF46" s="110"/>
     </row>
     <row r="47" spans="1:137" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="61" t="s">
@@ -6872,133 +6872,133 @@
       <c r="DW52" s="80"/>
       <c r="DX52" s="80"/>
       <c r="DY52" s="80"/>
-      <c r="DZ52" s="105"/>
-      <c r="EA52" s="105"/>
-      <c r="EB52" s="105"/>
-      <c r="EC52" s="105"/>
-      <c r="ED52" s="105"/>
-      <c r="EE52" s="105"/>
-      <c r="EF52" s="105"/>
-      <c r="EG52" s="105"/>
-      <c r="EH52" s="105"/>
-      <c r="EI52" s="105"/>
-      <c r="EJ52" s="105"/>
-      <c r="EK52" s="105"/>
-      <c r="EL52" s="105"/>
-      <c r="EM52" s="105"/>
-      <c r="EN52" s="105"/>
-      <c r="EO52" s="105"/>
-      <c r="EP52" s="105"/>
-      <c r="EQ52" s="105"/>
-      <c r="ER52" s="105"/>
-      <c r="ES52" s="105"/>
-      <c r="ET52" s="105"/>
-      <c r="EU52" s="105"/>
-      <c r="EV52" s="105"/>
-      <c r="EW52" s="105"/>
-      <c r="EX52" s="105"/>
-      <c r="EY52" s="105"/>
-      <c r="EZ52" s="105"/>
-      <c r="FA52" s="105"/>
-      <c r="FB52" s="105"/>
-      <c r="FC52" s="105"/>
-      <c r="FD52" s="105"/>
-      <c r="FE52" s="105"/>
-      <c r="FF52" s="105"/>
-      <c r="FG52" s="105"/>
-      <c r="FH52" s="105"/>
-      <c r="FI52" s="105"/>
-      <c r="FJ52" s="105"/>
-      <c r="FK52" s="105"/>
-      <c r="FL52" s="105"/>
-      <c r="FM52" s="105"/>
-      <c r="FN52" s="105"/>
-      <c r="FO52" s="105"/>
-      <c r="FP52" s="105"/>
-      <c r="FQ52" s="105"/>
-      <c r="FR52" s="105"/>
-      <c r="FS52" s="105"/>
-      <c r="FT52" s="105"/>
-      <c r="FU52" s="105"/>
-      <c r="FV52" s="105"/>
-      <c r="FW52" s="105"/>
-      <c r="FX52" s="105"/>
-      <c r="FY52" s="105"/>
-      <c r="FZ52" s="105"/>
-      <c r="GA52" s="105"/>
-      <c r="GB52" s="105"/>
-      <c r="GC52" s="105"/>
-      <c r="GD52" s="105"/>
-      <c r="GE52" s="105"/>
-      <c r="GF52" s="105"/>
-      <c r="GG52" s="105"/>
-      <c r="GH52" s="105"/>
-      <c r="GI52" s="105"/>
-      <c r="GJ52" s="105"/>
-      <c r="GK52" s="105"/>
-      <c r="GL52" s="105"/>
-      <c r="GM52" s="105"/>
-      <c r="GN52" s="105"/>
-      <c r="GO52" s="105"/>
-      <c r="GP52" s="105"/>
-      <c r="GQ52" s="105"/>
-      <c r="GR52" s="105"/>
-      <c r="GS52" s="105"/>
-      <c r="GT52" s="105"/>
-      <c r="GU52" s="105"/>
-      <c r="GV52" s="105"/>
-      <c r="GW52" s="105"/>
-      <c r="GX52" s="105"/>
-      <c r="GY52" s="105"/>
-      <c r="GZ52" s="105"/>
-      <c r="HA52" s="105"/>
-      <c r="HB52" s="105"/>
-      <c r="HC52" s="105"/>
-      <c r="HD52" s="105"/>
-      <c r="HE52" s="105"/>
-      <c r="HF52" s="105"/>
-      <c r="HG52" s="105"/>
-      <c r="HH52" s="105"/>
-      <c r="HI52" s="105"/>
-      <c r="HJ52" s="105"/>
-      <c r="HK52" s="105"/>
-      <c r="HL52" s="105"/>
-      <c r="HM52" s="105"/>
-      <c r="HN52" s="105"/>
-      <c r="HO52" s="105"/>
-      <c r="HP52" s="105"/>
-      <c r="HQ52" s="105"/>
-      <c r="HR52" s="105"/>
-      <c r="HS52" s="105"/>
-      <c r="HT52" s="105"/>
-      <c r="HU52" s="105"/>
-      <c r="HV52" s="105"/>
-      <c r="HW52" s="105"/>
-      <c r="HX52" s="105"/>
-      <c r="HY52" s="105"/>
-      <c r="HZ52" s="105"/>
-      <c r="IA52" s="105"/>
-      <c r="IB52" s="105"/>
-      <c r="IC52" s="105"/>
-      <c r="ID52" s="105"/>
-      <c r="IE52" s="105"/>
-      <c r="IF52" s="105"/>
-      <c r="IG52" s="105"/>
-      <c r="IH52" s="105"/>
-      <c r="II52" s="105"/>
-      <c r="IJ52" s="105"/>
-      <c r="IK52" s="105"/>
-      <c r="IL52" s="105"/>
-      <c r="IM52" s="105"/>
-      <c r="IN52" s="105"/>
-      <c r="IO52" s="105"/>
-      <c r="IP52" s="105"/>
-      <c r="IQ52" s="105"/>
-      <c r="IR52" s="105"/>
-      <c r="IS52" s="105"/>
-      <c r="IT52" s="105"/>
-      <c r="IU52" s="105"/>
-      <c r="IV52" s="105"/>
+      <c r="DZ52" s="106"/>
+      <c r="EA52" s="106"/>
+      <c r="EB52" s="106"/>
+      <c r="EC52" s="106"/>
+      <c r="ED52" s="106"/>
+      <c r="EE52" s="106"/>
+      <c r="EF52" s="106"/>
+      <c r="EG52" s="106"/>
+      <c r="EH52" s="106"/>
+      <c r="EI52" s="106"/>
+      <c r="EJ52" s="106"/>
+      <c r="EK52" s="106"/>
+      <c r="EL52" s="106"/>
+      <c r="EM52" s="106"/>
+      <c r="EN52" s="106"/>
+      <c r="EO52" s="106"/>
+      <c r="EP52" s="106"/>
+      <c r="EQ52" s="106"/>
+      <c r="ER52" s="106"/>
+      <c r="ES52" s="106"/>
+      <c r="ET52" s="106"/>
+      <c r="EU52" s="106"/>
+      <c r="EV52" s="106"/>
+      <c r="EW52" s="106"/>
+      <c r="EX52" s="106"/>
+      <c r="EY52" s="106"/>
+      <c r="EZ52" s="106"/>
+      <c r="FA52" s="106"/>
+      <c r="FB52" s="106"/>
+      <c r="FC52" s="106"/>
+      <c r="FD52" s="106"/>
+      <c r="FE52" s="106"/>
+      <c r="FF52" s="106"/>
+      <c r="FG52" s="106"/>
+      <c r="FH52" s="106"/>
+      <c r="FI52" s="106"/>
+      <c r="FJ52" s="106"/>
+      <c r="FK52" s="106"/>
+      <c r="FL52" s="106"/>
+      <c r="FM52" s="106"/>
+      <c r="FN52" s="106"/>
+      <c r="FO52" s="106"/>
+      <c r="FP52" s="106"/>
+      <c r="FQ52" s="106"/>
+      <c r="FR52" s="106"/>
+      <c r="FS52" s="106"/>
+      <c r="FT52" s="106"/>
+      <c r="FU52" s="106"/>
+      <c r="FV52" s="106"/>
+      <c r="FW52" s="106"/>
+      <c r="FX52" s="106"/>
+      <c r="FY52" s="106"/>
+      <c r="FZ52" s="106"/>
+      <c r="GA52" s="106"/>
+      <c r="GB52" s="106"/>
+      <c r="GC52" s="106"/>
+      <c r="GD52" s="106"/>
+      <c r="GE52" s="106"/>
+      <c r="GF52" s="106"/>
+      <c r="GG52" s="106"/>
+      <c r="GH52" s="106"/>
+      <c r="GI52" s="106"/>
+      <c r="GJ52" s="106"/>
+      <c r="GK52" s="106"/>
+      <c r="GL52" s="106"/>
+      <c r="GM52" s="106"/>
+      <c r="GN52" s="106"/>
+      <c r="GO52" s="106"/>
+      <c r="GP52" s="106"/>
+      <c r="GQ52" s="106"/>
+      <c r="GR52" s="106"/>
+      <c r="GS52" s="106"/>
+      <c r="GT52" s="106"/>
+      <c r="GU52" s="106"/>
+      <c r="GV52" s="106"/>
+      <c r="GW52" s="106"/>
+      <c r="GX52" s="106"/>
+      <c r="GY52" s="106"/>
+      <c r="GZ52" s="106"/>
+      <c r="HA52" s="106"/>
+      <c r="HB52" s="106"/>
+      <c r="HC52" s="106"/>
+      <c r="HD52" s="106"/>
+      <c r="HE52" s="106"/>
+      <c r="HF52" s="106"/>
+      <c r="HG52" s="106"/>
+      <c r="HH52" s="106"/>
+      <c r="HI52" s="106"/>
+      <c r="HJ52" s="106"/>
+      <c r="HK52" s="106"/>
+      <c r="HL52" s="106"/>
+      <c r="HM52" s="106"/>
+      <c r="HN52" s="106"/>
+      <c r="HO52" s="106"/>
+      <c r="HP52" s="106"/>
+      <c r="HQ52" s="106"/>
+      <c r="HR52" s="106"/>
+      <c r="HS52" s="106"/>
+      <c r="HT52" s="106"/>
+      <c r="HU52" s="106"/>
+      <c r="HV52" s="106"/>
+      <c r="HW52" s="106"/>
+      <c r="HX52" s="106"/>
+      <c r="HY52" s="106"/>
+      <c r="HZ52" s="106"/>
+      <c r="IA52" s="106"/>
+      <c r="IB52" s="106"/>
+      <c r="IC52" s="106"/>
+      <c r="ID52" s="106"/>
+      <c r="IE52" s="106"/>
+      <c r="IF52" s="106"/>
+      <c r="IG52" s="106"/>
+      <c r="IH52" s="106"/>
+      <c r="II52" s="106"/>
+      <c r="IJ52" s="106"/>
+      <c r="IK52" s="106"/>
+      <c r="IL52" s="106"/>
+      <c r="IM52" s="106"/>
+      <c r="IN52" s="106"/>
+      <c r="IO52" s="106"/>
+      <c r="IP52" s="106"/>
+      <c r="IQ52" s="106"/>
+      <c r="IR52" s="106"/>
+      <c r="IS52" s="106"/>
+      <c r="IT52" s="106"/>
+      <c r="IU52" s="106"/>
+      <c r="IV52" s="106"/>
     </row>
     <row r="53" spans="1:256" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="61" t="s">
@@ -7646,12 +7646,12 @@
       <c r="DQ57" s="62"/>
       <c r="DR57" s="62"/>
       <c r="DS57" s="63"/>
-      <c r="DT57" s="102"/>
-      <c r="DU57" s="102"/>
-      <c r="DV57" s="102"/>
-      <c r="DW57" s="102"/>
-      <c r="DX57" s="110"/>
-      <c r="DY57" s="110"/>
+      <c r="DT57" s="100"/>
+      <c r="DU57" s="100"/>
+      <c r="DV57" s="100"/>
+      <c r="DW57" s="100"/>
+      <c r="DX57" s="101"/>
+      <c r="DY57" s="101"/>
     </row>
     <row r="58" spans="1:256" s="16" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
@@ -7785,137 +7785,137 @@
       <c r="DY58" s="36"/>
     </row>
     <row r="59" spans="1:256" s="28" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="108" t="s">
+      <c r="A59" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="108"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="108"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="108"/>
-      <c r="H59" s="108"/>
-      <c r="I59" s="108"/>
-      <c r="J59" s="108"/>
-      <c r="K59" s="108"/>
-      <c r="L59" s="108"/>
-      <c r="M59" s="108"/>
-      <c r="N59" s="108"/>
-      <c r="O59" s="108"/>
-      <c r="P59" s="108"/>
-      <c r="Q59" s="108"/>
-      <c r="R59" s="108"/>
-      <c r="S59" s="108"/>
-      <c r="T59" s="108"/>
-      <c r="U59" s="108"/>
-      <c r="V59" s="108"/>
-      <c r="W59" s="108"/>
-      <c r="X59" s="108"/>
-      <c r="Y59" s="108"/>
-      <c r="Z59" s="108"/>
-      <c r="AA59" s="108"/>
-      <c r="AB59" s="108"/>
-      <c r="AC59" s="108"/>
-      <c r="AD59" s="108"/>
-      <c r="AE59" s="108"/>
-      <c r="AF59" s="108"/>
-      <c r="AG59" s="108"/>
-      <c r="AH59" s="108"/>
-      <c r="AI59" s="108"/>
-      <c r="AJ59" s="108"/>
-      <c r="AK59" s="108"/>
-      <c r="AL59" s="108"/>
-      <c r="AM59" s="108"/>
-      <c r="AN59" s="108"/>
-      <c r="AO59" s="108"/>
-      <c r="AP59" s="108"/>
-      <c r="AQ59" s="108"/>
-      <c r="AR59" s="108"/>
-      <c r="AS59" s="108"/>
-      <c r="AT59" s="108"/>
-      <c r="AU59" s="108"/>
-      <c r="AV59" s="108"/>
-      <c r="AW59" s="108"/>
-      <c r="AX59" s="108"/>
-      <c r="AY59" s="108"/>
-      <c r="AZ59" s="108"/>
-      <c r="BA59" s="108"/>
-      <c r="BB59" s="108"/>
-      <c r="BC59" s="108"/>
-      <c r="BD59" s="108"/>
-      <c r="BE59" s="108"/>
-      <c r="BF59" s="108"/>
-      <c r="BG59" s="108"/>
-      <c r="BH59" s="108"/>
-      <c r="BI59" s="108"/>
-      <c r="BJ59" s="108"/>
-      <c r="BK59" s="108"/>
-      <c r="BL59" s="108"/>
-      <c r="BM59" s="108"/>
-      <c r="BN59" s="108"/>
-      <c r="BO59" s="108"/>
-      <c r="BP59" s="108"/>
-      <c r="BQ59" s="108"/>
-      <c r="BR59" s="108"/>
-      <c r="BS59" s="108"/>
-      <c r="BT59" s="108"/>
-      <c r="BU59" s="108"/>
-      <c r="BV59" s="108"/>
-      <c r="BW59" s="108"/>
-      <c r="BX59" s="108"/>
-      <c r="BY59" s="108"/>
-      <c r="BZ59" s="108"/>
-      <c r="CA59" s="108"/>
-      <c r="CB59" s="108"/>
-      <c r="CC59" s="108"/>
-      <c r="CD59" s="108"/>
-      <c r="CE59" s="108"/>
-      <c r="CF59" s="108"/>
-      <c r="CG59" s="108"/>
-      <c r="CH59" s="108"/>
-      <c r="CI59" s="108"/>
-      <c r="CJ59" s="108"/>
-      <c r="CK59" s="108"/>
-      <c r="CL59" s="108"/>
-      <c r="CM59" s="108"/>
-      <c r="CN59" s="108"/>
-      <c r="CO59" s="108"/>
-      <c r="CP59" s="108"/>
-      <c r="CQ59" s="108"/>
-      <c r="CR59" s="108"/>
-      <c r="CS59" s="108"/>
-      <c r="CT59" s="108"/>
-      <c r="CU59" s="108"/>
-      <c r="CV59" s="108"/>
-      <c r="CW59" s="108"/>
-      <c r="CX59" s="108"/>
-      <c r="CY59" s="108"/>
-      <c r="CZ59" s="108"/>
-      <c r="DA59" s="108"/>
-      <c r="DB59" s="108"/>
-      <c r="DC59" s="108"/>
-      <c r="DD59" s="108"/>
-      <c r="DE59" s="108"/>
-      <c r="DF59" s="108"/>
-      <c r="DG59" s="108"/>
-      <c r="DH59" s="108"/>
-      <c r="DI59" s="108"/>
-      <c r="DJ59" s="108"/>
-      <c r="DK59" s="108"/>
-      <c r="DL59" s="108"/>
-      <c r="DM59" s="108"/>
-      <c r="DN59" s="108"/>
-      <c r="DO59" s="108"/>
-      <c r="DP59" s="108"/>
-      <c r="DQ59" s="108"/>
-      <c r="DR59" s="108"/>
-      <c r="DS59" s="108"/>
-      <c r="DT59" s="108"/>
-      <c r="DU59" s="108"/>
-      <c r="DV59" s="108"/>
-      <c r="DW59" s="108"/>
-      <c r="DX59" s="108"/>
-      <c r="DY59" s="108"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
+      <c r="L59" s="109"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="109"/>
+      <c r="O59" s="109"/>
+      <c r="P59" s="109"/>
+      <c r="Q59" s="109"/>
+      <c r="R59" s="109"/>
+      <c r="S59" s="109"/>
+      <c r="T59" s="109"/>
+      <c r="U59" s="109"/>
+      <c r="V59" s="109"/>
+      <c r="W59" s="109"/>
+      <c r="X59" s="109"/>
+      <c r="Y59" s="109"/>
+      <c r="Z59" s="109"/>
+      <c r="AA59" s="109"/>
+      <c r="AB59" s="109"/>
+      <c r="AC59" s="109"/>
+      <c r="AD59" s="109"/>
+      <c r="AE59" s="109"/>
+      <c r="AF59" s="109"/>
+      <c r="AG59" s="109"/>
+      <c r="AH59" s="109"/>
+      <c r="AI59" s="109"/>
+      <c r="AJ59" s="109"/>
+      <c r="AK59" s="109"/>
+      <c r="AL59" s="109"/>
+      <c r="AM59" s="109"/>
+      <c r="AN59" s="109"/>
+      <c r="AO59" s="109"/>
+      <c r="AP59" s="109"/>
+      <c r="AQ59" s="109"/>
+      <c r="AR59" s="109"/>
+      <c r="AS59" s="109"/>
+      <c r="AT59" s="109"/>
+      <c r="AU59" s="109"/>
+      <c r="AV59" s="109"/>
+      <c r="AW59" s="109"/>
+      <c r="AX59" s="109"/>
+      <c r="AY59" s="109"/>
+      <c r="AZ59" s="109"/>
+      <c r="BA59" s="109"/>
+      <c r="BB59" s="109"/>
+      <c r="BC59" s="109"/>
+      <c r="BD59" s="109"/>
+      <c r="BE59" s="109"/>
+      <c r="BF59" s="109"/>
+      <c r="BG59" s="109"/>
+      <c r="BH59" s="109"/>
+      <c r="BI59" s="109"/>
+      <c r="BJ59" s="109"/>
+      <c r="BK59" s="109"/>
+      <c r="BL59" s="109"/>
+      <c r="BM59" s="109"/>
+      <c r="BN59" s="109"/>
+      <c r="BO59" s="109"/>
+      <c r="BP59" s="109"/>
+      <c r="BQ59" s="109"/>
+      <c r="BR59" s="109"/>
+      <c r="BS59" s="109"/>
+      <c r="BT59" s="109"/>
+      <c r="BU59" s="109"/>
+      <c r="BV59" s="109"/>
+      <c r="BW59" s="109"/>
+      <c r="BX59" s="109"/>
+      <c r="BY59" s="109"/>
+      <c r="BZ59" s="109"/>
+      <c r="CA59" s="109"/>
+      <c r="CB59" s="109"/>
+      <c r="CC59" s="109"/>
+      <c r="CD59" s="109"/>
+      <c r="CE59" s="109"/>
+      <c r="CF59" s="109"/>
+      <c r="CG59" s="109"/>
+      <c r="CH59" s="109"/>
+      <c r="CI59" s="109"/>
+      <c r="CJ59" s="109"/>
+      <c r="CK59" s="109"/>
+      <c r="CL59" s="109"/>
+      <c r="CM59" s="109"/>
+      <c r="CN59" s="109"/>
+      <c r="CO59" s="109"/>
+      <c r="CP59" s="109"/>
+      <c r="CQ59" s="109"/>
+      <c r="CR59" s="109"/>
+      <c r="CS59" s="109"/>
+      <c r="CT59" s="109"/>
+      <c r="CU59" s="109"/>
+      <c r="CV59" s="109"/>
+      <c r="CW59" s="109"/>
+      <c r="CX59" s="109"/>
+      <c r="CY59" s="109"/>
+      <c r="CZ59" s="109"/>
+      <c r="DA59" s="109"/>
+      <c r="DB59" s="109"/>
+      <c r="DC59" s="109"/>
+      <c r="DD59" s="109"/>
+      <c r="DE59" s="109"/>
+      <c r="DF59" s="109"/>
+      <c r="DG59" s="109"/>
+      <c r="DH59" s="109"/>
+      <c r="DI59" s="109"/>
+      <c r="DJ59" s="109"/>
+      <c r="DK59" s="109"/>
+      <c r="DL59" s="109"/>
+      <c r="DM59" s="109"/>
+      <c r="DN59" s="109"/>
+      <c r="DO59" s="109"/>
+      <c r="DP59" s="109"/>
+      <c r="DQ59" s="109"/>
+      <c r="DR59" s="109"/>
+      <c r="DS59" s="109"/>
+      <c r="DT59" s="109"/>
+      <c r="DU59" s="109"/>
+      <c r="DV59" s="109"/>
+      <c r="DW59" s="109"/>
+      <c r="DX59" s="109"/>
+      <c r="DY59" s="109"/>
     </row>
     <row r="60" spans="1:256" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
@@ -9678,10 +9678,16 @@
     </row>
   </sheetData>
   <mergeCells count="738">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="BI41:BL41"/>
+    <mergeCell ref="BM41:BP41"/>
+    <mergeCell ref="BQ41:BT41"/>
+    <mergeCell ref="BU41:BX41"/>
+    <mergeCell ref="BY41:CB41"/>
+    <mergeCell ref="CW41:CZ41"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:P41"/>
     <mergeCell ref="EC41:EF41"/>
     <mergeCell ref="EC39:EF39"/>
     <mergeCell ref="EC37:EF37"/>
@@ -9692,16 +9698,6 @@
     <mergeCell ref="DU41:DX41"/>
     <mergeCell ref="DY41:EB41"/>
     <mergeCell ref="DM41:DP41"/>
-    <mergeCell ref="BI41:BL41"/>
-    <mergeCell ref="BM41:BP41"/>
-    <mergeCell ref="BQ41:BT41"/>
-    <mergeCell ref="BU41:BX41"/>
-    <mergeCell ref="BY41:CB41"/>
-    <mergeCell ref="CW41:CZ41"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:P41"/>
     <mergeCell ref="BA72:BD72"/>
     <mergeCell ref="BE72:BH72"/>
     <mergeCell ref="BM64:BP64"/>
@@ -9846,7 +9842,6 @@
     <mergeCell ref="BE53:BH53"/>
     <mergeCell ref="BI53:BL53"/>
     <mergeCell ref="AS53:AV53"/>
-    <mergeCell ref="CW49:CZ49"/>
     <mergeCell ref="DI49:DL49"/>
     <mergeCell ref="DM49:DP49"/>
     <mergeCell ref="DQ49:DT49"/>
@@ -9869,6 +9864,7 @@
     <mergeCell ref="DI51:DL51"/>
     <mergeCell ref="DY51:EB51"/>
     <mergeCell ref="EC51:EF51"/>
+    <mergeCell ref="CS51:CV51"/>
     <mergeCell ref="DE47:DH47"/>
     <mergeCell ref="DI47:DL47"/>
     <mergeCell ref="DM47:DP47"/>
@@ -9969,6 +9965,7 @@
     <mergeCell ref="AO41:AR41"/>
     <mergeCell ref="AS41:AV41"/>
     <mergeCell ref="AW41:AZ41"/>
+    <mergeCell ref="CK45:CN45"/>
     <mergeCell ref="DU37:DX37"/>
     <mergeCell ref="DY37:EB37"/>
     <mergeCell ref="A39:D39"/>
@@ -9992,10 +9989,6 @@
     <mergeCell ref="Q37:T37"/>
     <mergeCell ref="U37:X37"/>
     <mergeCell ref="DQ37:DT37"/>
-    <mergeCell ref="BA37:BD37"/>
-    <mergeCell ref="CK41:CN41"/>
-    <mergeCell ref="CO41:CR41"/>
-    <mergeCell ref="CS41:CV41"/>
     <mergeCell ref="DA49:DD49"/>
     <mergeCell ref="CW51:CZ51"/>
     <mergeCell ref="DA51:DD51"/>
@@ -10007,24 +10000,20 @@
     <mergeCell ref="CC51:CF51"/>
     <mergeCell ref="CG51:CJ51"/>
     <mergeCell ref="CK51:CN51"/>
-    <mergeCell ref="BU43:BX43"/>
-    <mergeCell ref="CC43:CF43"/>
-    <mergeCell ref="CG43:CJ43"/>
-    <mergeCell ref="CK43:CN43"/>
-    <mergeCell ref="CO43:CR43"/>
-    <mergeCell ref="CS43:CV43"/>
-    <mergeCell ref="CW43:CZ43"/>
-    <mergeCell ref="DA43:DD43"/>
     <mergeCell ref="CO51:CR51"/>
-    <mergeCell ref="CK45:CN45"/>
+    <mergeCell ref="CW49:CZ49"/>
+    <mergeCell ref="BI35:BL35"/>
+    <mergeCell ref="DE33:DH33"/>
+    <mergeCell ref="DI33:DL33"/>
+    <mergeCell ref="BQ33:BT33"/>
+    <mergeCell ref="BU33:BX33"/>
+    <mergeCell ref="BY33:CB33"/>
     <mergeCell ref="AS72:AV72"/>
     <mergeCell ref="AW72:AZ72"/>
     <mergeCell ref="CW35:CZ35"/>
     <mergeCell ref="DA35:DD35"/>
     <mergeCell ref="DE35:DH35"/>
     <mergeCell ref="DI35:DL35"/>
-    <mergeCell ref="DM35:DP35"/>
-    <mergeCell ref="DQ35:DT35"/>
     <mergeCell ref="A52:DY52"/>
     <mergeCell ref="CK37:CN37"/>
     <mergeCell ref="DM66:DP66"/>
@@ -10037,10 +10026,12 @@
     <mergeCell ref="AS37:AV37"/>
     <mergeCell ref="AW37:AZ37"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="CO53:CR53"/>
+    <mergeCell ref="A56:DY56"/>
+    <mergeCell ref="A59:DY59"/>
+    <mergeCell ref="AO55:AR55"/>
+    <mergeCell ref="AS55:AV55"/>
+    <mergeCell ref="AW55:AZ55"/>
+    <mergeCell ref="BA55:BD55"/>
     <mergeCell ref="DU33:DX33"/>
     <mergeCell ref="DY33:EB33"/>
     <mergeCell ref="EC33:EF33"/>
@@ -10059,12 +10050,12 @@
     <mergeCell ref="BA35:BD35"/>
     <mergeCell ref="AK35:AN35"/>
     <mergeCell ref="BE35:BH35"/>
-    <mergeCell ref="BI35:BL35"/>
-    <mergeCell ref="DE33:DH33"/>
-    <mergeCell ref="DI33:DL33"/>
-    <mergeCell ref="BQ33:BT33"/>
-    <mergeCell ref="BU33:BX33"/>
-    <mergeCell ref="BY33:CB33"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="BQ39:BT39"/>
+    <mergeCell ref="CS39:CV39"/>
+    <mergeCell ref="CK35:CN35"/>
+    <mergeCell ref="CO35:CR35"/>
+    <mergeCell ref="CS35:CV35"/>
     <mergeCell ref="AO68:AR68"/>
     <mergeCell ref="AS68:AV68"/>
     <mergeCell ref="AW68:AZ68"/>
@@ -10083,19 +10074,6 @@
     <mergeCell ref="BE60:BH60"/>
     <mergeCell ref="BA43:BD43"/>
     <mergeCell ref="BM68:BP68"/>
-    <mergeCell ref="A56:DY56"/>
-    <mergeCell ref="A59:DY59"/>
-    <mergeCell ref="AO55:AR55"/>
-    <mergeCell ref="AS55:AV55"/>
-    <mergeCell ref="AW55:AZ55"/>
-    <mergeCell ref="BA55:BD55"/>
-    <mergeCell ref="CC33:CF33"/>
-    <mergeCell ref="DM33:DP33"/>
-    <mergeCell ref="DQ33:DT33"/>
-    <mergeCell ref="CO33:CR33"/>
-    <mergeCell ref="CS33:CV33"/>
-    <mergeCell ref="CW33:CZ33"/>
-    <mergeCell ref="DA33:DD33"/>
     <mergeCell ref="BQ43:BT43"/>
     <mergeCell ref="DI41:DL41"/>
     <mergeCell ref="DA37:DD37"/>
@@ -10105,23 +10083,36 @@
     <mergeCell ref="BU39:BX39"/>
     <mergeCell ref="CC39:CF39"/>
     <mergeCell ref="A40:EF40"/>
-    <mergeCell ref="CG33:CJ33"/>
-    <mergeCell ref="CK33:CN33"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="BQ39:BT39"/>
-    <mergeCell ref="CS39:CV39"/>
-    <mergeCell ref="CK35:CN35"/>
-    <mergeCell ref="CO35:CR35"/>
-    <mergeCell ref="CS35:CV35"/>
-    <mergeCell ref="BE37:BH37"/>
-    <mergeCell ref="BI37:BL37"/>
-    <mergeCell ref="BM37:BP37"/>
-    <mergeCell ref="BQ37:BT37"/>
-    <mergeCell ref="BU37:BX37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="CK41:CN41"/>
+    <mergeCell ref="CO41:CR41"/>
+    <mergeCell ref="CS41:CV41"/>
+    <mergeCell ref="BU43:BX43"/>
+    <mergeCell ref="CC43:CF43"/>
+    <mergeCell ref="CG43:CJ43"/>
+    <mergeCell ref="CK43:CN43"/>
+    <mergeCell ref="CO43:CR43"/>
+    <mergeCell ref="CS43:CV43"/>
+    <mergeCell ref="CW43:CZ43"/>
+    <mergeCell ref="DA43:DD43"/>
+    <mergeCell ref="BA37:BD37"/>
     <mergeCell ref="BY37:CB37"/>
     <mergeCell ref="CC37:CF37"/>
     <mergeCell ref="CG37:CJ37"/>
     <mergeCell ref="CW37:CZ37"/>
+    <mergeCell ref="CC33:CF33"/>
+    <mergeCell ref="DM33:DP33"/>
+    <mergeCell ref="DQ33:DT33"/>
+    <mergeCell ref="CO33:CR33"/>
+    <mergeCell ref="CS33:CV33"/>
+    <mergeCell ref="CW33:CZ33"/>
+    <mergeCell ref="DA33:DD33"/>
+    <mergeCell ref="CG33:CJ33"/>
+    <mergeCell ref="CK33:CN33"/>
+    <mergeCell ref="DM35:DP35"/>
+    <mergeCell ref="DQ35:DT35"/>
     <mergeCell ref="EC68:EF68"/>
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="E70:H70"/>
@@ -10146,11 +10137,6 @@
     <mergeCell ref="DI68:DL68"/>
     <mergeCell ref="AW70:AZ70"/>
     <mergeCell ref="BI70:BL70"/>
-    <mergeCell ref="AS18:AV18"/>
-    <mergeCell ref="AW18:AZ18"/>
-    <mergeCell ref="BA18:BD18"/>
-    <mergeCell ref="BE18:BH18"/>
-    <mergeCell ref="BI18:BL18"/>
     <mergeCell ref="CW70:CZ70"/>
     <mergeCell ref="DA70:DD70"/>
     <mergeCell ref="DE70:DH70"/>
@@ -10170,6 +10156,11 @@
     <mergeCell ref="CC41:CF41"/>
     <mergeCell ref="CG41:CJ41"/>
     <mergeCell ref="A42:DY42"/>
+    <mergeCell ref="BE37:BH37"/>
+    <mergeCell ref="BI37:BL37"/>
+    <mergeCell ref="BM37:BP37"/>
+    <mergeCell ref="BQ37:BT37"/>
+    <mergeCell ref="BU37:BX37"/>
     <mergeCell ref="U72:X72"/>
     <mergeCell ref="Y72:AB72"/>
     <mergeCell ref="AG72:AJ72"/>
@@ -10194,12 +10185,6 @@
     <mergeCell ref="BQ70:BT70"/>
     <mergeCell ref="AC39:AF39"/>
     <mergeCell ref="AW43:AZ43"/>
-    <mergeCell ref="EC18:EF18"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="Q20:T20"/>
     <mergeCell ref="U20:X20"/>
     <mergeCell ref="Y20:AB20"/>
     <mergeCell ref="AC20:AF20"/>
@@ -10218,12 +10203,11 @@
     <mergeCell ref="CK18:CN18"/>
     <mergeCell ref="CO18:CR18"/>
     <mergeCell ref="CS18:CV18"/>
-    <mergeCell ref="A6:DY6"/>
-    <mergeCell ref="A7:DY7"/>
-    <mergeCell ref="A8:DY8"/>
-    <mergeCell ref="A9:DY9"/>
-    <mergeCell ref="A11:DY11"/>
-    <mergeCell ref="A12:DY12"/>
+    <mergeCell ref="AS18:AV18"/>
+    <mergeCell ref="AW18:AZ18"/>
+    <mergeCell ref="BA18:BD18"/>
+    <mergeCell ref="BE18:BH18"/>
+    <mergeCell ref="BI18:BL18"/>
     <mergeCell ref="DU20:DX20"/>
     <mergeCell ref="DY20:EB20"/>
     <mergeCell ref="A13:DY13"/>
@@ -10242,6 +10226,36 @@
     <mergeCell ref="BU20:BX20"/>
     <mergeCell ref="BY20:CB20"/>
     <mergeCell ref="CC20:CF20"/>
+    <mergeCell ref="EC18:EF18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="BM18:BP18"/>
+    <mergeCell ref="BQ18:BT18"/>
+    <mergeCell ref="BU18:BX18"/>
+    <mergeCell ref="BY18:CB18"/>
+    <mergeCell ref="CC18:CF18"/>
+    <mergeCell ref="CG18:CJ18"/>
+    <mergeCell ref="AO18:AR18"/>
+    <mergeCell ref="A6:DY6"/>
+    <mergeCell ref="A7:DY7"/>
+    <mergeCell ref="A8:DY8"/>
+    <mergeCell ref="A9:DY9"/>
+    <mergeCell ref="A11:DY11"/>
+    <mergeCell ref="A12:DY12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="Y53:AB53"/>
+    <mergeCell ref="AC53:AF53"/>
+    <mergeCell ref="AW53:AZ53"/>
+    <mergeCell ref="BA53:BD53"/>
+    <mergeCell ref="AG53:AJ53"/>
+    <mergeCell ref="AK53:AN53"/>
     <mergeCell ref="A14:DY14"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="BA33:BD33"/>
@@ -10259,24 +10273,6 @@
     <mergeCell ref="BA20:BD20"/>
     <mergeCell ref="BE20:BH20"/>
     <mergeCell ref="M18:P18"/>
-    <mergeCell ref="BM18:BP18"/>
-    <mergeCell ref="BQ18:BT18"/>
-    <mergeCell ref="BU18:BX18"/>
-    <mergeCell ref="BY18:CB18"/>
-    <mergeCell ref="CC18:CF18"/>
-    <mergeCell ref="CG18:CJ18"/>
-    <mergeCell ref="AO18:AR18"/>
-    <mergeCell ref="CS51:CV51"/>
-    <mergeCell ref="BA49:BD49"/>
-    <mergeCell ref="AS49:AV49"/>
-    <mergeCell ref="AW49:AZ49"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="Y53:AB53"/>
-    <mergeCell ref="AC53:AF53"/>
-    <mergeCell ref="AW53:AZ53"/>
-    <mergeCell ref="BA53:BD53"/>
-    <mergeCell ref="AG53:AJ53"/>
-    <mergeCell ref="AK53:AN53"/>
     <mergeCell ref="CO49:CR49"/>
     <mergeCell ref="CC49:CF49"/>
     <mergeCell ref="CS53:CV53"/>
@@ -10294,6 +10290,10 @@
     <mergeCell ref="BQ55:BT55"/>
     <mergeCell ref="BU55:BX55"/>
     <mergeCell ref="BY55:CB55"/>
+    <mergeCell ref="BA49:BD49"/>
+    <mergeCell ref="AS49:AV49"/>
+    <mergeCell ref="AW49:AZ49"/>
+    <mergeCell ref="CO53:CR53"/>
     <mergeCell ref="DA55:DD55"/>
     <mergeCell ref="DE55:DH55"/>
     <mergeCell ref="DI55:DL55"/>
@@ -10432,8 +10432,8 @@
   </sheetPr>
   <dimension ref="A1:EF69"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A37" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="BC52" sqref="BC52"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:CK56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10442,44 +10442,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:136" s="19" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="136"/>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="136"/>
-      <c r="AE1" s="136"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="136"/>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="136"/>
-      <c r="AJ1" s="136"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
       <c r="AK1" s="18"/>
       <c r="AL1" s="18"/>
       <c r="AM1" s="18"/>
@@ -10498,42 +10498,42 @@
       <c r="BB1" s="18"/>
     </row>
     <row r="2" spans="1:136" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
       <c r="AK2" s="121" t="s">
         <v>93</v>
       </c>
@@ -10600,41 +10600,41 @@
       <c r="CH2" s="67"/>
       <c r="CI2" s="67"/>
       <c r="CJ2" s="68"/>
-      <c r="CK2" s="143"/>
-      <c r="CL2" s="143"/>
-      <c r="CM2" s="143"/>
-      <c r="CN2" s="143"/>
-      <c r="CO2" s="133"/>
-      <c r="CP2" s="133"/>
-      <c r="CQ2" s="133"/>
-      <c r="CR2" s="133"/>
-      <c r="CS2" s="133"/>
-      <c r="CT2" s="133"/>
-      <c r="CU2" s="133"/>
-      <c r="CV2" s="133"/>
-      <c r="CW2" s="133"/>
-      <c r="CX2" s="133"/>
-      <c r="CY2" s="133"/>
-      <c r="CZ2" s="133"/>
-      <c r="DA2" s="133"/>
-      <c r="DB2" s="133"/>
-      <c r="DC2" s="133"/>
-      <c r="DD2" s="133"/>
-      <c r="DE2" s="133"/>
-      <c r="DF2" s="133"/>
-      <c r="DG2" s="133"/>
-      <c r="DH2" s="133"/>
-      <c r="DI2" s="133"/>
-      <c r="DJ2" s="133"/>
-      <c r="DK2" s="133"/>
-      <c r="DL2" s="133"/>
-      <c r="DM2" s="133"/>
-      <c r="DN2" s="133"/>
-      <c r="DO2" s="133"/>
-      <c r="DP2" s="133"/>
-      <c r="DQ2" s="133"/>
-      <c r="DR2" s="133"/>
-      <c r="DS2" s="133"/>
+      <c r="CK2" s="145"/>
+      <c r="CL2" s="145"/>
+      <c r="CM2" s="145"/>
+      <c r="CN2" s="145"/>
+      <c r="CO2" s="135"/>
+      <c r="CP2" s="135"/>
+      <c r="CQ2" s="135"/>
+      <c r="CR2" s="135"/>
+      <c r="CS2" s="135"/>
+      <c r="CT2" s="135"/>
+      <c r="CU2" s="135"/>
+      <c r="CV2" s="135"/>
+      <c r="CW2" s="135"/>
+      <c r="CX2" s="135"/>
+      <c r="CY2" s="135"/>
+      <c r="CZ2" s="135"/>
+      <c r="DA2" s="135"/>
+      <c r="DB2" s="135"/>
+      <c r="DC2" s="135"/>
+      <c r="DD2" s="135"/>
+      <c r="DE2" s="135"/>
+      <c r="DF2" s="135"/>
+      <c r="DG2" s="135"/>
+      <c r="DH2" s="135"/>
+      <c r="DI2" s="135"/>
+      <c r="DJ2" s="135"/>
+      <c r="DK2" s="135"/>
+      <c r="DL2" s="135"/>
+      <c r="DM2" s="135"/>
+      <c r="DN2" s="135"/>
+      <c r="DO2" s="135"/>
+      <c r="DP2" s="135"/>
+      <c r="DQ2" s="135"/>
+      <c r="DR2" s="135"/>
+      <c r="DS2" s="135"/>
       <c r="DT2" s="84"/>
       <c r="DU2" s="84"/>
       <c r="DV2" s="84"/>
@@ -10643,137 +10643,137 @@
       <c r="DY2" s="84"/>
     </row>
     <row r="3" spans="1:136" s="34" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="126" t="s">
+      <c r="A3" s="138"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="138"/>
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="126"/>
-      <c r="AO3" s="126"/>
-      <c r="AP3" s="126"/>
-      <c r="AQ3" s="126"/>
-      <c r="AR3" s="126"/>
-      <c r="AS3" s="126"/>
-      <c r="AT3" s="126"/>
-      <c r="AU3" s="126"/>
-      <c r="AV3" s="126"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
-      <c r="AZ3" s="126"/>
-      <c r="BA3" s="126"/>
-      <c r="BB3" s="126"/>
-      <c r="BC3" s="126"/>
-      <c r="BD3" s="126"/>
-      <c r="BE3" s="126"/>
-      <c r="BF3" s="126"/>
-      <c r="BG3" s="126"/>
-      <c r="BH3" s="126"/>
-      <c r="BI3" s="126"/>
-      <c r="BJ3" s="126"/>
-      <c r="BK3" s="126"/>
-      <c r="BL3" s="126"/>
-      <c r="BM3" s="126"/>
-      <c r="BN3" s="126"/>
-      <c r="BO3" s="126"/>
-      <c r="BP3" s="126"/>
-      <c r="BQ3" s="126"/>
-      <c r="BR3" s="126"/>
-      <c r="BS3" s="126"/>
-      <c r="BT3" s="126"/>
-      <c r="BU3" s="126"/>
-      <c r="BV3" s="126"/>
-      <c r="BW3" s="126"/>
-      <c r="BX3" s="126"/>
-      <c r="BY3" s="126"/>
-      <c r="BZ3" s="126"/>
-      <c r="CA3" s="127"/>
-      <c r="CB3" s="127"/>
-      <c r="CC3" s="127"/>
-      <c r="CD3" s="127"/>
-      <c r="CE3" s="127"/>
-      <c r="CF3" s="127"/>
-      <c r="CG3" s="127"/>
-      <c r="CH3" s="127"/>
-      <c r="CI3" s="127"/>
-      <c r="CJ3" s="127"/>
-      <c r="CK3" s="127"/>
-      <c r="CL3" s="127"/>
-      <c r="CM3" s="127"/>
-      <c r="CN3" s="127"/>
-      <c r="CO3" s="127"/>
-      <c r="CP3" s="127"/>
-      <c r="CQ3" s="127"/>
-      <c r="CR3" s="127"/>
-      <c r="CS3" s="127"/>
-      <c r="CT3" s="127"/>
-      <c r="CU3" s="127"/>
-      <c r="CV3" s="127"/>
-      <c r="CW3" s="127"/>
-      <c r="CX3" s="127"/>
-      <c r="CY3" s="127"/>
-      <c r="CZ3" s="127"/>
-      <c r="DA3" s="127"/>
-      <c r="DB3" s="127"/>
-      <c r="DC3" s="127"/>
-      <c r="DD3" s="127"/>
-      <c r="DE3" s="127"/>
-      <c r="DF3" s="127"/>
-      <c r="DG3" s="127"/>
-      <c r="DH3" s="127"/>
-      <c r="DI3" s="127"/>
-      <c r="DJ3" s="127"/>
-      <c r="DK3" s="127"/>
-      <c r="DL3" s="127"/>
-      <c r="DM3" s="127"/>
-      <c r="DN3" s="127"/>
-      <c r="DO3" s="127"/>
-      <c r="DP3" s="127"/>
-      <c r="DQ3" s="127"/>
-      <c r="DR3" s="127"/>
-      <c r="DS3" s="127"/>
-      <c r="DT3" s="127"/>
-      <c r="DU3" s="127"/>
-      <c r="DV3" s="127"/>
-      <c r="DW3" s="127"/>
-      <c r="DX3" s="127"/>
-      <c r="DY3" s="127"/>
+      <c r="AL3" s="128"/>
+      <c r="AM3" s="128"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="128"/>
+      <c r="AP3" s="128"/>
+      <c r="AQ3" s="128"/>
+      <c r="AR3" s="128"/>
+      <c r="AS3" s="128"/>
+      <c r="AT3" s="128"/>
+      <c r="AU3" s="128"/>
+      <c r="AV3" s="128"/>
+      <c r="AW3" s="128"/>
+      <c r="AX3" s="128"/>
+      <c r="AY3" s="128"/>
+      <c r="AZ3" s="128"/>
+      <c r="BA3" s="128"/>
+      <c r="BB3" s="128"/>
+      <c r="BC3" s="128"/>
+      <c r="BD3" s="128"/>
+      <c r="BE3" s="128"/>
+      <c r="BF3" s="128"/>
+      <c r="BG3" s="128"/>
+      <c r="BH3" s="128"/>
+      <c r="BI3" s="128"/>
+      <c r="BJ3" s="128"/>
+      <c r="BK3" s="128"/>
+      <c r="BL3" s="128"/>
+      <c r="BM3" s="128"/>
+      <c r="BN3" s="128"/>
+      <c r="BO3" s="128"/>
+      <c r="BP3" s="128"/>
+      <c r="BQ3" s="128"/>
+      <c r="BR3" s="128"/>
+      <c r="BS3" s="128"/>
+      <c r="BT3" s="128"/>
+      <c r="BU3" s="128"/>
+      <c r="BV3" s="128"/>
+      <c r="BW3" s="128"/>
+      <c r="BX3" s="128"/>
+      <c r="BY3" s="128"/>
+      <c r="BZ3" s="128"/>
+      <c r="CA3" s="129"/>
+      <c r="CB3" s="129"/>
+      <c r="CC3" s="129"/>
+      <c r="CD3" s="129"/>
+      <c r="CE3" s="129"/>
+      <c r="CF3" s="129"/>
+      <c r="CG3" s="129"/>
+      <c r="CH3" s="129"/>
+      <c r="CI3" s="129"/>
+      <c r="CJ3" s="129"/>
+      <c r="CK3" s="129"/>
+      <c r="CL3" s="129"/>
+      <c r="CM3" s="129"/>
+      <c r="CN3" s="129"/>
+      <c r="CO3" s="129"/>
+      <c r="CP3" s="129"/>
+      <c r="CQ3" s="129"/>
+      <c r="CR3" s="129"/>
+      <c r="CS3" s="129"/>
+      <c r="CT3" s="129"/>
+      <c r="CU3" s="129"/>
+      <c r="CV3" s="129"/>
+      <c r="CW3" s="129"/>
+      <c r="CX3" s="129"/>
+      <c r="CY3" s="129"/>
+      <c r="CZ3" s="129"/>
+      <c r="DA3" s="129"/>
+      <c r="DB3" s="129"/>
+      <c r="DC3" s="129"/>
+      <c r="DD3" s="129"/>
+      <c r="DE3" s="129"/>
+      <c r="DF3" s="129"/>
+      <c r="DG3" s="129"/>
+      <c r="DH3" s="129"/>
+      <c r="DI3" s="129"/>
+      <c r="DJ3" s="129"/>
+      <c r="DK3" s="129"/>
+      <c r="DL3" s="129"/>
+      <c r="DM3" s="129"/>
+      <c r="DN3" s="129"/>
+      <c r="DO3" s="129"/>
+      <c r="DP3" s="129"/>
+      <c r="DQ3" s="129"/>
+      <c r="DR3" s="129"/>
+      <c r="DS3" s="129"/>
+      <c r="DT3" s="129"/>
+      <c r="DU3" s="129"/>
+      <c r="DV3" s="129"/>
+      <c r="DW3" s="129"/>
+      <c r="DX3" s="129"/>
+      <c r="DY3" s="129"/>
     </row>
     <row r="4" spans="1:136" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -10824,8 +10824,8 @@
       <c r="AP4" s="93"/>
       <c r="AQ4" s="50"/>
       <c r="AR4" s="90"/>
-      <c r="AS4" s="139"/>
-      <c r="AT4" s="139"/>
+      <c r="AS4" s="141"/>
+      <c r="AT4" s="141"/>
       <c r="AU4" s="91"/>
       <c r="AV4" s="121"/>
       <c r="AW4" s="121"/>
@@ -10859,20 +10859,20 @@
       <c r="BY4" s="77"/>
       <c r="BZ4" s="77"/>
       <c r="CA4" s="78"/>
-      <c r="CB4" s="128" t="s">
+      <c r="CB4" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="CC4" s="129"/>
-      <c r="CD4" s="129"/>
-      <c r="CE4" s="129"/>
-      <c r="CF4" s="129"/>
-      <c r="CG4" s="129"/>
-      <c r="CH4" s="129"/>
-      <c r="CI4" s="129"/>
-      <c r="CJ4" s="129"/>
-      <c r="CK4" s="129"/>
-      <c r="CL4" s="129"/>
-      <c r="CM4" s="129"/>
+      <c r="CC4" s="131"/>
+      <c r="CD4" s="131"/>
+      <c r="CE4" s="131"/>
+      <c r="CF4" s="131"/>
+      <c r="CG4" s="131"/>
+      <c r="CH4" s="131"/>
+      <c r="CI4" s="131"/>
+      <c r="CJ4" s="131"/>
+      <c r="CK4" s="131"/>
+      <c r="CL4" s="131"/>
+      <c r="CM4" s="131"/>
       <c r="CN4" s="76"/>
       <c r="CO4" s="77"/>
       <c r="CP4" s="77"/>
@@ -10910,18 +10910,18 @@
       <c r="DY4" s="121"/>
     </row>
     <row r="5" spans="1:136" s="34" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="CB5" s="130"/>
-      <c r="CC5" s="130"/>
-      <c r="CD5" s="130"/>
-      <c r="CE5" s="130"/>
-      <c r="CF5" s="130"/>
-      <c r="CG5" s="130"/>
-      <c r="CH5" s="130"/>
-      <c r="CI5" s="130"/>
-      <c r="CJ5" s="130"/>
-      <c r="CK5" s="130"/>
-      <c r="CL5" s="130"/>
-      <c r="CM5" s="130"/>
+      <c r="CB5" s="132"/>
+      <c r="CC5" s="132"/>
+      <c r="CD5" s="132"/>
+      <c r="CE5" s="132"/>
+      <c r="CF5" s="132"/>
+      <c r="CG5" s="132"/>
+      <c r="CH5" s="132"/>
+      <c r="CI5" s="132"/>
+      <c r="CJ5" s="132"/>
+      <c r="CK5" s="132"/>
+      <c r="CL5" s="132"/>
+      <c r="CM5" s="132"/>
       <c r="CN5" s="79" t="s">
         <v>15</v>
       </c>
@@ -10933,36 +10933,36 @@
       <c r="CT5" s="79"/>
       <c r="CU5" s="79"/>
       <c r="CV5" s="51"/>
-      <c r="CY5" s="134" t="s">
+      <c r="CY5" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="CZ5" s="134"/>
-      <c r="DA5" s="134"/>
-      <c r="DB5" s="134"/>
-      <c r="DC5" s="134"/>
-      <c r="DD5" s="134"/>
-      <c r="DE5" s="134"/>
-      <c r="DF5" s="134"/>
+      <c r="CZ5" s="136"/>
+      <c r="DA5" s="136"/>
+      <c r="DB5" s="136"/>
+      <c r="DC5" s="136"/>
+      <c r="DD5" s="136"/>
+      <c r="DE5" s="136"/>
+      <c r="DF5" s="136"/>
       <c r="DG5" s="51"/>
       <c r="DH5" s="51"/>
-      <c r="DJ5" s="134" t="s">
+      <c r="DJ5" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="DK5" s="134"/>
-      <c r="DL5" s="134"/>
-      <c r="DM5" s="134"/>
-      <c r="DN5" s="134"/>
-      <c r="DO5" s="134"/>
-      <c r="DP5" s="134"/>
-      <c r="DQ5" s="134"/>
-      <c r="DR5" s="134"/>
-      <c r="DS5" s="134"/>
-      <c r="DT5" s="134"/>
-      <c r="DU5" s="134"/>
-      <c r="DV5" s="134"/>
-      <c r="DW5" s="134"/>
-      <c r="DX5" s="134"/>
-      <c r="DY5" s="134"/>
+      <c r="DK5" s="136"/>
+      <c r="DL5" s="136"/>
+      <c r="DM5" s="136"/>
+      <c r="DN5" s="136"/>
+      <c r="DO5" s="136"/>
+      <c r="DP5" s="136"/>
+      <c r="DQ5" s="136"/>
+      <c r="DR5" s="136"/>
+      <c r="DS5" s="136"/>
+      <c r="DT5" s="136"/>
+      <c r="DU5" s="136"/>
+      <c r="DV5" s="136"/>
+      <c r="DW5" s="136"/>
+      <c r="DX5" s="136"/>
+      <c r="DY5" s="136"/>
     </row>
     <row r="6" spans="1:136" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -11139,7 +11139,7 @@
       <c r="AJ8" s="99"/>
       <c r="AK8" s="99"/>
       <c r="AL8" s="99"/>
-      <c r="AM8" s="137"/>
+      <c r="AM8" s="139"/>
       <c r="AN8" s="76"/>
       <c r="AO8" s="77"/>
       <c r="AP8" s="77"/>
@@ -11439,7 +11439,7 @@
       <c r="K11" s="99"/>
       <c r="L11" s="99"/>
       <c r="M11" s="99"/>
-      <c r="N11" s="137"/>
+      <c r="N11" s="139"/>
       <c r="O11" s="76"/>
       <c r="P11" s="77"/>
       <c r="Q11" s="77"/>
@@ -11567,48 +11567,48 @@
       <c r="N12" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="134" t="s">
+      <c r="O12" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="134"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="136"/>
       <c r="W12" s="51"/>
       <c r="X12" s="40"/>
-      <c r="AA12" s="134" t="s">
+      <c r="AA12" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="134"/>
-      <c r="AH12" s="134"/>
+      <c r="AB12" s="136"/>
+      <c r="AC12" s="136"/>
+      <c r="AD12" s="136"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="136"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
       <c r="AI12" s="51"/>
       <c r="AJ12" s="51"/>
-      <c r="AM12" s="134" t="s">
+      <c r="AM12" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="AN12" s="134"/>
-      <c r="AO12" s="134"/>
-      <c r="AP12" s="134"/>
-      <c r="AQ12" s="134"/>
-      <c r="AR12" s="134"/>
-      <c r="AS12" s="134"/>
-      <c r="AT12" s="134"/>
-      <c r="AU12" s="134"/>
-      <c r="AV12" s="134"/>
-      <c r="AW12" s="134"/>
-      <c r="AX12" s="134"/>
-      <c r="AY12" s="134"/>
-      <c r="AZ12" s="134"/>
-      <c r="BA12" s="134"/>
-      <c r="BB12" s="134"/>
+      <c r="AN12" s="136"/>
+      <c r="AO12" s="136"/>
+      <c r="AP12" s="136"/>
+      <c r="AQ12" s="136"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="136"/>
+      <c r="AT12" s="136"/>
+      <c r="AU12" s="136"/>
+      <c r="AV12" s="136"/>
+      <c r="AW12" s="136"/>
+      <c r="AX12" s="136"/>
+      <c r="AY12" s="136"/>
+      <c r="AZ12" s="136"/>
+      <c r="BA12" s="136"/>
+      <c r="BB12" s="136"/>
       <c r="BC12" s="34"/>
       <c r="BD12" s="34"/>
       <c r="BE12" s="34"/>
@@ -11810,55 +11810,55 @@
       <c r="DY13" s="40"/>
     </row>
     <row r="14" spans="1:136" s="16" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="131"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="131"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="131"/>
-      <c r="AA14" s="131"/>
-      <c r="AB14" s="131"/>
-      <c r="AC14" s="131"/>
-      <c r="AD14" s="131"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="131"/>
-      <c r="AG14" s="131"/>
-      <c r="AH14" s="131"/>
-      <c r="AI14" s="131"/>
-      <c r="AJ14" s="131"/>
-      <c r="AK14" s="131"/>
-      <c r="AL14" s="131"/>
-      <c r="AM14" s="131"/>
-      <c r="AN14" s="131"/>
-      <c r="AO14" s="131"/>
-      <c r="AP14" s="131"/>
-      <c r="AQ14" s="131"/>
-      <c r="AR14" s="131"/>
-      <c r="AS14" s="131"/>
-      <c r="AT14" s="131"/>
-      <c r="AU14" s="131"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
+      <c r="X14" s="133"/>
+      <c r="Y14" s="133"/>
+      <c r="Z14" s="133"/>
+      <c r="AA14" s="133"/>
+      <c r="AB14" s="133"/>
+      <c r="AC14" s="133"/>
+      <c r="AD14" s="133"/>
+      <c r="AE14" s="133"/>
+      <c r="AF14" s="133"/>
+      <c r="AG14" s="133"/>
+      <c r="AH14" s="133"/>
+      <c r="AI14" s="133"/>
+      <c r="AJ14" s="133"/>
+      <c r="AK14" s="133"/>
+      <c r="AL14" s="133"/>
+      <c r="AM14" s="133"/>
+      <c r="AN14" s="133"/>
+      <c r="AO14" s="133"/>
+      <c r="AP14" s="133"/>
+      <c r="AQ14" s="133"/>
+      <c r="AR14" s="133"/>
+      <c r="AS14" s="133"/>
+      <c r="AT14" s="133"/>
+      <c r="AU14" s="133"/>
       <c r="AV14" s="74"/>
       <c r="AW14" s="74"/>
       <c r="AX14" s="74"/>
@@ -11871,7 +11871,7 @@
       <c r="BE14" s="74"/>
       <c r="BF14" s="74"/>
       <c r="BG14" s="74"/>
-      <c r="BH14" s="132"/>
+      <c r="BH14" s="134"/>
       <c r="BI14" s="76"/>
       <c r="BJ14" s="77"/>
       <c r="BK14" s="77"/>
@@ -12482,52 +12482,52 @@
       <c r="AP20" s="146"/>
       <c r="AQ20" s="52"/>
       <c r="AR20" s="52"/>
-      <c r="AS20" s="134" t="s">
+      <c r="AS20" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="AT20" s="134"/>
-      <c r="AU20" s="134"/>
-      <c r="AV20" s="134"/>
-      <c r="AW20" s="134"/>
-      <c r="AX20" s="134"/>
-      <c r="AY20" s="134"/>
-      <c r="AZ20" s="134"/>
+      <c r="AT20" s="136"/>
+      <c r="AU20" s="136"/>
+      <c r="AV20" s="136"/>
+      <c r="AW20" s="136"/>
+      <c r="AX20" s="136"/>
+      <c r="AY20" s="136"/>
+      <c r="AZ20" s="136"/>
       <c r="BA20" s="51"/>
       <c r="BB20" s="51"/>
       <c r="BC20" s="51"/>
       <c r="BD20" s="9"/>
-      <c r="BE20" s="134" t="s">
+      <c r="BE20" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="BF20" s="134"/>
-      <c r="BG20" s="134"/>
-      <c r="BH20" s="134"/>
-      <c r="BI20" s="134"/>
-      <c r="BJ20" s="134"/>
-      <c r="BK20" s="134"/>
-      <c r="BL20" s="134"/>
+      <c r="BF20" s="136"/>
+      <c r="BG20" s="136"/>
+      <c r="BH20" s="136"/>
+      <c r="BI20" s="136"/>
+      <c r="BJ20" s="136"/>
+      <c r="BK20" s="136"/>
+      <c r="BL20" s="136"/>
       <c r="BM20" s="51"/>
       <c r="BN20" s="51"/>
       <c r="BO20" s="51"/>
       <c r="BP20" s="34"/>
-      <c r="BQ20" s="134" t="s">
+      <c r="BQ20" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="BR20" s="134"/>
-      <c r="BS20" s="134"/>
-      <c r="BT20" s="134"/>
-      <c r="BU20" s="134"/>
-      <c r="BV20" s="134"/>
-      <c r="BW20" s="134"/>
-      <c r="BX20" s="134"/>
-      <c r="BY20" s="134"/>
-      <c r="BZ20" s="134"/>
-      <c r="CA20" s="134"/>
-      <c r="CB20" s="134"/>
-      <c r="CC20" s="134"/>
-      <c r="CD20" s="134"/>
-      <c r="CE20" s="134"/>
-      <c r="CF20" s="134"/>
+      <c r="BR20" s="136"/>
+      <c r="BS20" s="136"/>
+      <c r="BT20" s="136"/>
+      <c r="BU20" s="136"/>
+      <c r="BV20" s="136"/>
+      <c r="BW20" s="136"/>
+      <c r="BX20" s="136"/>
+      <c r="BY20" s="136"/>
+      <c r="BZ20" s="136"/>
+      <c r="CA20" s="136"/>
+      <c r="CB20" s="136"/>
+      <c r="CC20" s="136"/>
+      <c r="CD20" s="136"/>
+      <c r="CE20" s="136"/>
+      <c r="CF20" s="136"/>
       <c r="CM20" s="34"/>
       <c r="CN20" s="34"/>
       <c r="CO20" s="34"/>
@@ -13469,230 +13469,230 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="134" t="s">
+      <c r="P31" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="Q31" s="134"/>
-      <c r="R31" s="134"/>
-      <c r="S31" s="134"/>
-      <c r="T31" s="134"/>
-      <c r="U31" s="134"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="134"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="136"/>
+      <c r="S31" s="136"/>
+      <c r="T31" s="136"/>
+      <c r="U31" s="136"/>
+      <c r="V31" s="136"/>
+      <c r="W31" s="136"/>
       <c r="X31" s="51"/>
       <c r="Y31" s="51"/>
-      <c r="AB31" s="134" t="s">
+      <c r="AB31" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="134"/>
-      <c r="AF31" s="134"/>
-      <c r="AG31" s="134"/>
-      <c r="AH31" s="134"/>
-      <c r="AI31" s="134"/>
+      <c r="AC31" s="136"/>
+      <c r="AD31" s="136"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="136"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="136"/>
       <c r="AJ31" s="51"/>
       <c r="AK31" s="51"/>
-      <c r="AN31" s="134" t="s">
+      <c r="AN31" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="AO31" s="134"/>
-      <c r="AP31" s="134"/>
-      <c r="AQ31" s="134"/>
-      <c r="AR31" s="134"/>
-      <c r="AS31" s="134"/>
-      <c r="AT31" s="134"/>
-      <c r="AU31" s="134"/>
-      <c r="AV31" s="134"/>
-      <c r="AW31" s="134"/>
-      <c r="AX31" s="134"/>
-      <c r="AY31" s="134"/>
-      <c r="AZ31" s="134"/>
-      <c r="BA31" s="134"/>
-      <c r="BB31" s="134"/>
-      <c r="BC31" s="134"/>
+      <c r="AO31" s="136"/>
+      <c r="AP31" s="136"/>
+      <c r="AQ31" s="136"/>
+      <c r="AR31" s="136"/>
+      <c r="AS31" s="136"/>
+      <c r="AT31" s="136"/>
+      <c r="AU31" s="136"/>
+      <c r="AV31" s="136"/>
+      <c r="AW31" s="136"/>
+      <c r="AX31" s="136"/>
+      <c r="AY31" s="136"/>
+      <c r="AZ31" s="136"/>
+      <c r="BA31" s="136"/>
+      <c r="BB31" s="136"/>
+      <c r="BC31" s="136"/>
       <c r="BD31" s="9"/>
       <c r="BE31" s="9"/>
       <c r="BF31" s="9"/>
       <c r="BG31" s="9"/>
-      <c r="BH31" s="134" t="s">
+      <c r="BH31" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="BI31" s="134"/>
-      <c r="BJ31" s="134"/>
-      <c r="BK31" s="134"/>
-      <c r="BL31" s="134"/>
-      <c r="BM31" s="134"/>
-      <c r="BN31" s="134"/>
-      <c r="BO31" s="134"/>
+      <c r="BI31" s="136"/>
+      <c r="BJ31" s="136"/>
+      <c r="BK31" s="136"/>
+      <c r="BL31" s="136"/>
+      <c r="BM31" s="136"/>
+      <c r="BN31" s="136"/>
+      <c r="BO31" s="136"/>
       <c r="BP31" s="51"/>
       <c r="BQ31" s="51"/>
       <c r="BR31" s="51"/>
       <c r="BS31" s="9"/>
-      <c r="BT31" s="134" t="s">
+      <c r="BT31" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="BU31" s="134"/>
-      <c r="BV31" s="134"/>
-      <c r="BW31" s="134"/>
-      <c r="BX31" s="134"/>
-      <c r="BY31" s="134"/>
-      <c r="BZ31" s="134"/>
-      <c r="CA31" s="134"/>
+      <c r="BU31" s="136"/>
+      <c r="BV31" s="136"/>
+      <c r="BW31" s="136"/>
+      <c r="BX31" s="136"/>
+      <c r="BY31" s="136"/>
+      <c r="BZ31" s="136"/>
+      <c r="CA31" s="136"/>
       <c r="CB31" s="51"/>
       <c r="CC31" s="51"/>
       <c r="CD31" s="51"/>
-      <c r="CF31" s="134" t="s">
+      <c r="CF31" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="CG31" s="134"/>
-      <c r="CH31" s="134"/>
-      <c r="CI31" s="134"/>
-      <c r="CJ31" s="134"/>
-      <c r="CK31" s="134"/>
-      <c r="CL31" s="134"/>
-      <c r="CM31" s="134"/>
-      <c r="CN31" s="134"/>
-      <c r="CO31" s="134"/>
-      <c r="CP31" s="134"/>
-      <c r="CQ31" s="134"/>
-      <c r="CR31" s="134"/>
-      <c r="CS31" s="134"/>
-      <c r="CT31" s="134"/>
-      <c r="CU31" s="134"/>
+      <c r="CG31" s="136"/>
+      <c r="CH31" s="136"/>
+      <c r="CI31" s="136"/>
+      <c r="CJ31" s="136"/>
+      <c r="CK31" s="136"/>
+      <c r="CL31" s="136"/>
+      <c r="CM31" s="136"/>
+      <c r="CN31" s="136"/>
+      <c r="CO31" s="136"/>
+      <c r="CP31" s="136"/>
+      <c r="CQ31" s="136"/>
+      <c r="CR31" s="136"/>
+      <c r="CS31" s="136"/>
+      <c r="CT31" s="136"/>
+      <c r="CU31" s="136"/>
     </row>
     <row r="32" spans="1:136" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="124" t="s">
+      <c r="A32" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="124"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
-      <c r="M32" s="124"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="124"/>
-      <c r="P32" s="124"/>
-      <c r="Q32" s="124"/>
-      <c r="R32" s="124"/>
-      <c r="S32" s="124"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="124"/>
-      <c r="W32" s="124"/>
-      <c r="X32" s="124"/>
-      <c r="Y32" s="124"/>
-      <c r="Z32" s="124"/>
-      <c r="AA32" s="124"/>
-      <c r="AB32" s="124"/>
-      <c r="AC32" s="124"/>
-      <c r="AD32" s="124"/>
-      <c r="AE32" s="124"/>
-      <c r="AF32" s="124"/>
-      <c r="AG32" s="124"/>
-      <c r="AH32" s="124"/>
-      <c r="AI32" s="124"/>
-      <c r="AJ32" s="124"/>
-      <c r="AK32" s="124"/>
-      <c r="AL32" s="124"/>
-      <c r="AM32" s="124"/>
-      <c r="AN32" s="124"/>
-      <c r="AO32" s="124"/>
-      <c r="AP32" s="124"/>
-      <c r="AQ32" s="124"/>
-      <c r="AR32" s="124"/>
-      <c r="AS32" s="124"/>
-      <c r="AT32" s="124"/>
-      <c r="AU32" s="124"/>
-      <c r="AV32" s="124"/>
-      <c r="AW32" s="124"/>
-      <c r="AX32" s="124"/>
-      <c r="AY32" s="124"/>
-      <c r="AZ32" s="124"/>
-      <c r="BA32" s="124"/>
-      <c r="BB32" s="124"/>
-      <c r="BC32" s="124"/>
-      <c r="BD32" s="124"/>
-      <c r="BE32" s="124"/>
-      <c r="BF32" s="124"/>
-      <c r="BG32" s="124"/>
-      <c r="BH32" s="124"/>
-      <c r="BI32" s="124"/>
-      <c r="BJ32" s="124"/>
-      <c r="BK32" s="124"/>
-      <c r="BL32" s="124"/>
-      <c r="BM32" s="124"/>
-      <c r="BN32" s="124"/>
-      <c r="BO32" s="124"/>
-      <c r="BP32" s="124"/>
-      <c r="BQ32" s="124"/>
-      <c r="BR32" s="124"/>
-      <c r="BS32" s="124"/>
-      <c r="BT32" s="124"/>
-      <c r="BU32" s="124"/>
-      <c r="BV32" s="124"/>
-      <c r="BW32" s="124"/>
-      <c r="BX32" s="124"/>
-      <c r="BY32" s="124"/>
-      <c r="BZ32" s="124"/>
-      <c r="CA32" s="124"/>
-      <c r="CB32" s="124"/>
-      <c r="CC32" s="124"/>
-      <c r="CD32" s="124"/>
-      <c r="CE32" s="124"/>
-      <c r="CF32" s="124"/>
-      <c r="CG32" s="124"/>
-      <c r="CH32" s="124"/>
-      <c r="CI32" s="124"/>
-      <c r="CJ32" s="124"/>
-      <c r="CK32" s="124"/>
-      <c r="CL32" s="124"/>
-      <c r="CM32" s="124"/>
-      <c r="CN32" s="124"/>
-      <c r="CO32" s="124"/>
-      <c r="CP32" s="124"/>
-      <c r="CQ32" s="124"/>
-      <c r="CR32" s="124"/>
-      <c r="CS32" s="124"/>
-      <c r="CT32" s="124"/>
-      <c r="CU32" s="124"/>
-      <c r="CV32" s="124"/>
-      <c r="CW32" s="124"/>
-      <c r="CX32" s="124"/>
-      <c r="CY32" s="125"/>
-      <c r="CZ32" s="125"/>
-      <c r="DA32" s="125"/>
-      <c r="DB32" s="125"/>
-      <c r="DC32" s="125"/>
-      <c r="DD32" s="125"/>
-      <c r="DE32" s="125"/>
-      <c r="DF32" s="125"/>
-      <c r="DG32" s="125"/>
-      <c r="DH32" s="125"/>
-      <c r="DI32" s="125"/>
-      <c r="DJ32" s="125"/>
-      <c r="DK32" s="125"/>
-      <c r="DL32" s="125"/>
-      <c r="DM32" s="125"/>
-      <c r="DN32" s="125"/>
-      <c r="DO32" s="125"/>
-      <c r="DP32" s="125"/>
-      <c r="DQ32" s="125"/>
-      <c r="DR32" s="125"/>
-      <c r="DS32" s="125"/>
-      <c r="DT32" s="125"/>
-      <c r="DU32" s="125"/>
-      <c r="DV32" s="125"/>
-      <c r="DW32" s="125"/>
-      <c r="DX32" s="125"/>
-      <c r="DY32" s="125"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
+      <c r="O32" s="126"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="126"/>
+      <c r="R32" s="126"/>
+      <c r="S32" s="126"/>
+      <c r="T32" s="126"/>
+      <c r="U32" s="126"/>
+      <c r="V32" s="126"/>
+      <c r="W32" s="126"/>
+      <c r="X32" s="126"/>
+      <c r="Y32" s="126"/>
+      <c r="Z32" s="126"/>
+      <c r="AA32" s="126"/>
+      <c r="AB32" s="126"/>
+      <c r="AC32" s="126"/>
+      <c r="AD32" s="126"/>
+      <c r="AE32" s="126"/>
+      <c r="AF32" s="126"/>
+      <c r="AG32" s="126"/>
+      <c r="AH32" s="126"/>
+      <c r="AI32" s="126"/>
+      <c r="AJ32" s="126"/>
+      <c r="AK32" s="126"/>
+      <c r="AL32" s="126"/>
+      <c r="AM32" s="126"/>
+      <c r="AN32" s="126"/>
+      <c r="AO32" s="126"/>
+      <c r="AP32" s="126"/>
+      <c r="AQ32" s="126"/>
+      <c r="AR32" s="126"/>
+      <c r="AS32" s="126"/>
+      <c r="AT32" s="126"/>
+      <c r="AU32" s="126"/>
+      <c r="AV32" s="126"/>
+      <c r="AW32" s="126"/>
+      <c r="AX32" s="126"/>
+      <c r="AY32" s="126"/>
+      <c r="AZ32" s="126"/>
+      <c r="BA32" s="126"/>
+      <c r="BB32" s="126"/>
+      <c r="BC32" s="126"/>
+      <c r="BD32" s="126"/>
+      <c r="BE32" s="126"/>
+      <c r="BF32" s="126"/>
+      <c r="BG32" s="126"/>
+      <c r="BH32" s="126"/>
+      <c r="BI32" s="126"/>
+      <c r="BJ32" s="126"/>
+      <c r="BK32" s="126"/>
+      <c r="BL32" s="126"/>
+      <c r="BM32" s="126"/>
+      <c r="BN32" s="126"/>
+      <c r="BO32" s="126"/>
+      <c r="BP32" s="126"/>
+      <c r="BQ32" s="126"/>
+      <c r="BR32" s="126"/>
+      <c r="BS32" s="126"/>
+      <c r="BT32" s="126"/>
+      <c r="BU32" s="126"/>
+      <c r="BV32" s="126"/>
+      <c r="BW32" s="126"/>
+      <c r="BX32" s="126"/>
+      <c r="BY32" s="126"/>
+      <c r="BZ32" s="126"/>
+      <c r="CA32" s="126"/>
+      <c r="CB32" s="126"/>
+      <c r="CC32" s="126"/>
+      <c r="CD32" s="126"/>
+      <c r="CE32" s="126"/>
+      <c r="CF32" s="126"/>
+      <c r="CG32" s="126"/>
+      <c r="CH32" s="126"/>
+      <c r="CI32" s="126"/>
+      <c r="CJ32" s="126"/>
+      <c r="CK32" s="126"/>
+      <c r="CL32" s="126"/>
+      <c r="CM32" s="126"/>
+      <c r="CN32" s="126"/>
+      <c r="CO32" s="126"/>
+      <c r="CP32" s="126"/>
+      <c r="CQ32" s="126"/>
+      <c r="CR32" s="126"/>
+      <c r="CS32" s="126"/>
+      <c r="CT32" s="126"/>
+      <c r="CU32" s="126"/>
+      <c r="CV32" s="126"/>
+      <c r="CW32" s="126"/>
+      <c r="CX32" s="126"/>
+      <c r="CY32" s="127"/>
+      <c r="CZ32" s="127"/>
+      <c r="DA32" s="127"/>
+      <c r="DB32" s="127"/>
+      <c r="DC32" s="127"/>
+      <c r="DD32" s="127"/>
+      <c r="DE32" s="127"/>
+      <c r="DF32" s="127"/>
+      <c r="DG32" s="127"/>
+      <c r="DH32" s="127"/>
+      <c r="DI32" s="127"/>
+      <c r="DJ32" s="127"/>
+      <c r="DK32" s="127"/>
+      <c r="DL32" s="127"/>
+      <c r="DM32" s="127"/>
+      <c r="DN32" s="127"/>
+      <c r="DO32" s="127"/>
+      <c r="DP32" s="127"/>
+      <c r="DQ32" s="127"/>
+      <c r="DR32" s="127"/>
+      <c r="DS32" s="127"/>
+      <c r="DT32" s="127"/>
+      <c r="DU32" s="127"/>
+      <c r="DV32" s="127"/>
+      <c r="DW32" s="127"/>
+      <c r="DX32" s="127"/>
+      <c r="DY32" s="127"/>
     </row>
     <row r="33" spans="1:136" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="76"/>
@@ -14800,137 +14800,137 @@
       <c r="EF41" s="78"/>
     </row>
     <row r="42" spans="1:136" s="19" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="144" t="s">
+      <c r="A42" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
-      <c r="M42" s="144"/>
-      <c r="N42" s="144"/>
-      <c r="O42" s="144"/>
-      <c r="P42" s="144"/>
-      <c r="Q42" s="144"/>
-      <c r="R42" s="144"/>
-      <c r="S42" s="144"/>
-      <c r="T42" s="144"/>
-      <c r="U42" s="144"/>
-      <c r="V42" s="144"/>
-      <c r="W42" s="144"/>
-      <c r="X42" s="144"/>
-      <c r="Y42" s="144"/>
-      <c r="Z42" s="144"/>
-      <c r="AA42" s="144"/>
-      <c r="AB42" s="144"/>
-      <c r="AC42" s="144"/>
-      <c r="AD42" s="144"/>
-      <c r="AE42" s="144"/>
-      <c r="AF42" s="144"/>
-      <c r="AG42" s="144"/>
-      <c r="AH42" s="144"/>
-      <c r="AI42" s="144"/>
-      <c r="AJ42" s="144"/>
-      <c r="AK42" s="144"/>
-      <c r="AL42" s="144"/>
-      <c r="AM42" s="144"/>
-      <c r="AN42" s="144"/>
-      <c r="AO42" s="144"/>
-      <c r="AP42" s="144"/>
-      <c r="AQ42" s="144"/>
-      <c r="AR42" s="144"/>
-      <c r="AS42" s="144"/>
-      <c r="AT42" s="144"/>
-      <c r="AU42" s="144"/>
-      <c r="AV42" s="144"/>
-      <c r="AW42" s="144"/>
-      <c r="AX42" s="144"/>
-      <c r="AY42" s="144"/>
-      <c r="AZ42" s="144"/>
-      <c r="BA42" s="144"/>
-      <c r="BB42" s="144"/>
-      <c r="BC42" s="144"/>
-      <c r="BD42" s="144"/>
-      <c r="BE42" s="144"/>
-      <c r="BF42" s="144"/>
-      <c r="BG42" s="144"/>
-      <c r="BH42" s="144"/>
-      <c r="BI42" s="144"/>
-      <c r="BJ42" s="144"/>
-      <c r="BK42" s="144"/>
-      <c r="BL42" s="144"/>
-      <c r="BM42" s="144"/>
-      <c r="BN42" s="144"/>
-      <c r="BO42" s="144"/>
-      <c r="BP42" s="144"/>
-      <c r="BQ42" s="144"/>
-      <c r="BR42" s="144"/>
-      <c r="BS42" s="144"/>
-      <c r="BT42" s="144"/>
-      <c r="BU42" s="144"/>
-      <c r="BV42" s="144"/>
-      <c r="BW42" s="144"/>
-      <c r="BX42" s="144"/>
-      <c r="BY42" s="144"/>
-      <c r="BZ42" s="144"/>
-      <c r="CA42" s="144"/>
-      <c r="CB42" s="144"/>
-      <c r="CC42" s="144"/>
-      <c r="CD42" s="144"/>
-      <c r="CE42" s="144"/>
-      <c r="CF42" s="144"/>
-      <c r="CG42" s="144"/>
-      <c r="CH42" s="144"/>
-      <c r="CI42" s="144"/>
-      <c r="CJ42" s="144"/>
-      <c r="CK42" s="144"/>
-      <c r="CL42" s="144"/>
-      <c r="CM42" s="144"/>
-      <c r="CN42" s="144"/>
-      <c r="CO42" s="144"/>
-      <c r="CP42" s="144"/>
-      <c r="CQ42" s="144"/>
-      <c r="CR42" s="144"/>
-      <c r="CS42" s="144"/>
-      <c r="CT42" s="144"/>
-      <c r="CU42" s="144"/>
-      <c r="CV42" s="144"/>
-      <c r="CW42" s="144"/>
-      <c r="CX42" s="144"/>
-      <c r="CY42" s="145"/>
-      <c r="CZ42" s="145"/>
-      <c r="DA42" s="145"/>
-      <c r="DB42" s="145"/>
-      <c r="DC42" s="145"/>
-      <c r="DD42" s="145"/>
-      <c r="DE42" s="145"/>
-      <c r="DF42" s="145"/>
-      <c r="DG42" s="145"/>
-      <c r="DH42" s="145"/>
-      <c r="DI42" s="145"/>
-      <c r="DJ42" s="145"/>
-      <c r="DK42" s="145"/>
-      <c r="DL42" s="145"/>
-      <c r="DM42" s="145"/>
-      <c r="DN42" s="145"/>
-      <c r="DO42" s="145"/>
-      <c r="DP42" s="145"/>
-      <c r="DQ42" s="145"/>
-      <c r="DR42" s="145"/>
-      <c r="DS42" s="145"/>
-      <c r="DT42" s="145"/>
-      <c r="DU42" s="145"/>
-      <c r="DV42" s="145"/>
-      <c r="DW42" s="145"/>
-      <c r="DX42" s="145"/>
-      <c r="DY42" s="145"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="142"/>
+      <c r="N42" s="142"/>
+      <c r="O42" s="142"/>
+      <c r="P42" s="142"/>
+      <c r="Q42" s="142"/>
+      <c r="R42" s="142"/>
+      <c r="S42" s="142"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="142"/>
+      <c r="W42" s="142"/>
+      <c r="X42" s="142"/>
+      <c r="Y42" s="142"/>
+      <c r="Z42" s="142"/>
+      <c r="AA42" s="142"/>
+      <c r="AB42" s="142"/>
+      <c r="AC42" s="142"/>
+      <c r="AD42" s="142"/>
+      <c r="AE42" s="142"/>
+      <c r="AF42" s="142"/>
+      <c r="AG42" s="142"/>
+      <c r="AH42" s="142"/>
+      <c r="AI42" s="142"/>
+      <c r="AJ42" s="142"/>
+      <c r="AK42" s="142"/>
+      <c r="AL42" s="142"/>
+      <c r="AM42" s="142"/>
+      <c r="AN42" s="142"/>
+      <c r="AO42" s="142"/>
+      <c r="AP42" s="142"/>
+      <c r="AQ42" s="142"/>
+      <c r="AR42" s="142"/>
+      <c r="AS42" s="142"/>
+      <c r="AT42" s="142"/>
+      <c r="AU42" s="142"/>
+      <c r="AV42" s="142"/>
+      <c r="AW42" s="142"/>
+      <c r="AX42" s="142"/>
+      <c r="AY42" s="142"/>
+      <c r="AZ42" s="142"/>
+      <c r="BA42" s="142"/>
+      <c r="BB42" s="142"/>
+      <c r="BC42" s="142"/>
+      <c r="BD42" s="142"/>
+      <c r="BE42" s="142"/>
+      <c r="BF42" s="142"/>
+      <c r="BG42" s="142"/>
+      <c r="BH42" s="142"/>
+      <c r="BI42" s="142"/>
+      <c r="BJ42" s="142"/>
+      <c r="BK42" s="142"/>
+      <c r="BL42" s="142"/>
+      <c r="BM42" s="142"/>
+      <c r="BN42" s="142"/>
+      <c r="BO42" s="142"/>
+      <c r="BP42" s="142"/>
+      <c r="BQ42" s="142"/>
+      <c r="BR42" s="142"/>
+      <c r="BS42" s="142"/>
+      <c r="BT42" s="142"/>
+      <c r="BU42" s="142"/>
+      <c r="BV42" s="142"/>
+      <c r="BW42" s="142"/>
+      <c r="BX42" s="142"/>
+      <c r="BY42" s="142"/>
+      <c r="BZ42" s="142"/>
+      <c r="CA42" s="142"/>
+      <c r="CB42" s="142"/>
+      <c r="CC42" s="142"/>
+      <c r="CD42" s="142"/>
+      <c r="CE42" s="142"/>
+      <c r="CF42" s="142"/>
+      <c r="CG42" s="142"/>
+      <c r="CH42" s="142"/>
+      <c r="CI42" s="142"/>
+      <c r="CJ42" s="142"/>
+      <c r="CK42" s="142"/>
+      <c r="CL42" s="142"/>
+      <c r="CM42" s="142"/>
+      <c r="CN42" s="142"/>
+      <c r="CO42" s="142"/>
+      <c r="CP42" s="142"/>
+      <c r="CQ42" s="142"/>
+      <c r="CR42" s="142"/>
+      <c r="CS42" s="142"/>
+      <c r="CT42" s="142"/>
+      <c r="CU42" s="142"/>
+      <c r="CV42" s="142"/>
+      <c r="CW42" s="142"/>
+      <c r="CX42" s="142"/>
+      <c r="CY42" s="124"/>
+      <c r="CZ42" s="124"/>
+      <c r="DA42" s="124"/>
+      <c r="DB42" s="124"/>
+      <c r="DC42" s="124"/>
+      <c r="DD42" s="124"/>
+      <c r="DE42" s="124"/>
+      <c r="DF42" s="124"/>
+      <c r="DG42" s="124"/>
+      <c r="DH42" s="124"/>
+      <c r="DI42" s="124"/>
+      <c r="DJ42" s="124"/>
+      <c r="DK42" s="124"/>
+      <c r="DL42" s="124"/>
+      <c r="DM42" s="124"/>
+      <c r="DN42" s="124"/>
+      <c r="DO42" s="124"/>
+      <c r="DP42" s="124"/>
+      <c r="DQ42" s="124"/>
+      <c r="DR42" s="124"/>
+      <c r="DS42" s="124"/>
+      <c r="DT42" s="124"/>
+      <c r="DU42" s="124"/>
+      <c r="DV42" s="124"/>
+      <c r="DW42" s="124"/>
+      <c r="DX42" s="124"/>
+      <c r="DY42" s="124"/>
     </row>
     <row r="43" spans="1:136" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="99" t="s">
@@ -15032,7 +15032,7 @@
       <c r="CP43" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="CQ43" s="139"/>
+      <c r="CQ43" s="141"/>
       <c r="CR43" s="91"/>
       <c r="CS43" s="93" t="s">
         <v>1</v>
@@ -15045,7 +15045,7 @@
       <c r="CY43" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="CZ43" s="139"/>
+      <c r="CZ43" s="141"/>
       <c r="DA43" s="91"/>
       <c r="DC43" s="99" t="s">
         <v>44</v>
@@ -15191,7 +15191,7 @@
     </row>
     <row r="46" spans="1:136" s="12" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="85"/>
       <c r="C46" s="85"/>
@@ -15439,22 +15439,22 @@
       <c r="DJ47" s="16"/>
       <c r="DK47" s="16"/>
       <c r="DL47" s="16"/>
-      <c r="DM47" s="138"/>
-      <c r="DN47" s="138"/>
-      <c r="DO47" s="138"/>
-      <c r="DP47" s="138"/>
-      <c r="DQ47" s="138"/>
-      <c r="DR47" s="138"/>
-      <c r="DS47" s="138"/>
-      <c r="DT47" s="138"/>
-      <c r="DU47" s="138"/>
-      <c r="DV47" s="138"/>
-      <c r="DW47" s="138"/>
-      <c r="DX47" s="138"/>
-      <c r="DY47" s="138"/>
-      <c r="DZ47" s="138"/>
-      <c r="EA47" s="138"/>
-      <c r="EB47" s="138"/>
+      <c r="DM47" s="140"/>
+      <c r="DN47" s="140"/>
+      <c r="DO47" s="140"/>
+      <c r="DP47" s="140"/>
+      <c r="DQ47" s="140"/>
+      <c r="DR47" s="140"/>
+      <c r="DS47" s="140"/>
+      <c r="DT47" s="140"/>
+      <c r="DU47" s="140"/>
+      <c r="DV47" s="140"/>
+      <c r="DW47" s="140"/>
+      <c r="DX47" s="140"/>
+      <c r="DY47" s="140"/>
+      <c r="DZ47" s="140"/>
+      <c r="EA47" s="140"/>
+      <c r="EB47" s="140"/>
       <c r="EC47" s="151"/>
       <c r="ED47" s="151"/>
     </row>
@@ -15548,16 +15548,16 @@
       <c r="CL48" s="34"/>
       <c r="CM48" s="34"/>
       <c r="CN48" s="34"/>
-      <c r="CO48" s="134" t="s">
+      <c r="CO48" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="CP48" s="134"/>
-      <c r="CQ48" s="134"/>
-      <c r="CR48" s="134"/>
-      <c r="CS48" s="134"/>
-      <c r="CT48" s="134"/>
-      <c r="CU48" s="134"/>
-      <c r="CV48" s="134"/>
+      <c r="CP48" s="136"/>
+      <c r="CQ48" s="136"/>
+      <c r="CR48" s="136"/>
+      <c r="CS48" s="136"/>
+      <c r="CT48" s="136"/>
+      <c r="CU48" s="136"/>
+      <c r="CV48" s="136"/>
       <c r="CW48" s="34"/>
       <c r="CX48" s="34"/>
       <c r="CY48" s="34"/>
@@ -15576,24 +15576,24 @@
       <c r="DJ48" s="34"/>
       <c r="DK48" s="34"/>
       <c r="DL48" s="34"/>
-      <c r="DM48" s="134" t="s">
+      <c r="DM48" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="DN48" s="134"/>
-      <c r="DO48" s="134"/>
-      <c r="DP48" s="134"/>
-      <c r="DQ48" s="134"/>
-      <c r="DR48" s="134"/>
-      <c r="DS48" s="134"/>
-      <c r="DT48" s="134"/>
-      <c r="DU48" s="134"/>
-      <c r="DV48" s="134"/>
-      <c r="DW48" s="134"/>
-      <c r="DX48" s="134"/>
-      <c r="DY48" s="134"/>
-      <c r="DZ48" s="134"/>
-      <c r="EA48" s="134"/>
-      <c r="EB48" s="134"/>
+      <c r="DN48" s="136"/>
+      <c r="DO48" s="136"/>
+      <c r="DP48" s="136"/>
+      <c r="DQ48" s="136"/>
+      <c r="DR48" s="136"/>
+      <c r="DS48" s="136"/>
+      <c r="DT48" s="136"/>
+      <c r="DU48" s="136"/>
+      <c r="DV48" s="136"/>
+      <c r="DW48" s="136"/>
+      <c r="DX48" s="136"/>
+      <c r="DY48" s="136"/>
+      <c r="DZ48" s="136"/>
+      <c r="EA48" s="136"/>
+      <c r="EB48" s="136"/>
     </row>
     <row r="49" spans="1:136" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
@@ -15699,7 +15699,7 @@
     </row>
     <row r="50" spans="1:136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="120"/>
       <c r="C50" s="120"/>
@@ -15791,7 +15791,7 @@
       <c r="CK50"/>
       <c r="CL50"/>
       <c r="CM50" s="118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CN50" s="118"/>
       <c r="CO50" s="118"/>
@@ -15987,7 +15987,7 @@
     </row>
     <row r="52" spans="1:136" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52" s="72"/>
       <c r="C52" s="72"/>
@@ -16001,7 +16001,7 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52" s="123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L52" s="123"/>
       <c r="M52" s="123"/>
@@ -16408,7 +16408,7 @@
       <c r="EF54" s="159"/>
     </row>
     <row r="55" spans="1:136" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="141" t="s">
+      <c r="A55" s="143" t="s">
         <v>83</v>
       </c>
       <c r="B55" s="160"/>
@@ -16549,7 +16549,7 @@
     </row>
     <row r="56" spans="1:136" s="4" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A56" s="112" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="B56" s="112"/>
       <c r="C56" s="112"/>
@@ -16618,7 +16618,7 @@
       <c r="BN56" s="112"/>
       <c r="BO56" s="112"/>
       <c r="BP56" s="112"/>
-      <c r="BQ56" s="56"/>
+      <c r="BQ56" s="112"/>
       <c r="BR56" s="112"/>
       <c r="BS56" s="112"/>
       <c r="BT56" s="112"/>
@@ -16688,145 +16688,145 @@
       <c r="EF56" s="57"/>
     </row>
     <row r="57" spans="1:136" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="145" t="s">
+      <c r="A57" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="145"/>
-      <c r="K57" s="145"/>
-      <c r="L57" s="145"/>
-      <c r="M57" s="145"/>
-      <c r="N57" s="145"/>
-      <c r="O57" s="145"/>
-      <c r="P57" s="145"/>
-      <c r="Q57" s="145"/>
-      <c r="R57" s="145"/>
-      <c r="S57" s="145"/>
-      <c r="T57" s="145"/>
-      <c r="U57" s="145"/>
-      <c r="V57" s="145"/>
-      <c r="W57" s="145"/>
-      <c r="X57" s="145"/>
-      <c r="Y57" s="145"/>
-      <c r="Z57" s="145"/>
-      <c r="AA57" s="145"/>
-      <c r="AB57" s="145"/>
-      <c r="AC57" s="145"/>
-      <c r="AD57" s="145"/>
-      <c r="AE57" s="145"/>
-      <c r="AF57" s="145"/>
-      <c r="AG57" s="145"/>
-      <c r="AH57" s="145"/>
-      <c r="AI57" s="145"/>
-      <c r="AJ57" s="145"/>
-      <c r="AK57" s="145"/>
-      <c r="AL57" s="145"/>
-      <c r="AM57" s="145"/>
-      <c r="AN57" s="145"/>
-      <c r="AO57" s="145"/>
-      <c r="AP57" s="145"/>
-      <c r="AQ57" s="145"/>
-      <c r="AR57" s="145"/>
-      <c r="AS57" s="145"/>
-      <c r="AT57" s="145"/>
-      <c r="AU57" s="145"/>
-      <c r="AV57" s="145"/>
-      <c r="AW57" s="145"/>
-      <c r="AX57" s="145"/>
-      <c r="AY57" s="145"/>
-      <c r="AZ57" s="145"/>
-      <c r="BA57" s="145"/>
-      <c r="BB57" s="145"/>
-      <c r="BC57" s="145"/>
-      <c r="BD57" s="145"/>
-      <c r="BE57" s="145"/>
-      <c r="BF57" s="145"/>
-      <c r="BG57" s="145"/>
-      <c r="BH57" s="145"/>
-      <c r="BI57" s="145"/>
-      <c r="BJ57" s="145"/>
-      <c r="BK57" s="145"/>
-      <c r="BL57" s="145"/>
-      <c r="BM57" s="145"/>
-      <c r="BN57" s="145"/>
-      <c r="BO57" s="145"/>
-      <c r="BP57" s="145"/>
-      <c r="BQ57" s="145"/>
-      <c r="BR57" s="145"/>
-      <c r="BS57" s="145"/>
-      <c r="BT57" s="145"/>
-      <c r="BU57" s="145"/>
-      <c r="BV57" s="145"/>
-      <c r="BW57" s="145"/>
-      <c r="BX57" s="145"/>
-      <c r="BY57" s="145"/>
-      <c r="BZ57" s="145"/>
-      <c r="CA57" s="145"/>
-      <c r="CB57" s="145"/>
-      <c r="CC57" s="145"/>
-      <c r="CD57" s="145"/>
-      <c r="CE57" s="145"/>
-      <c r="CF57" s="145"/>
-      <c r="CG57" s="145"/>
-      <c r="CH57" s="145"/>
-      <c r="CI57" s="145"/>
-      <c r="CJ57" s="145"/>
-      <c r="CK57" s="145"/>
-      <c r="CL57" s="145"/>
-      <c r="CM57" s="145"/>
-      <c r="CN57" s="145"/>
-      <c r="CO57" s="145"/>
-      <c r="CP57" s="145"/>
-      <c r="CQ57" s="145"/>
-      <c r="CR57" s="145"/>
-      <c r="CS57" s="145"/>
-      <c r="CT57" s="145"/>
-      <c r="CU57" s="145"/>
-      <c r="CV57" s="145"/>
-      <c r="CW57" s="145"/>
-      <c r="CX57" s="145"/>
-      <c r="CY57" s="145"/>
-      <c r="CZ57" s="145"/>
-      <c r="DA57" s="145"/>
-      <c r="DB57" s="145"/>
-      <c r="DC57" s="145"/>
-      <c r="DD57" s="145"/>
-      <c r="DE57" s="145"/>
-      <c r="DF57" s="145"/>
-      <c r="DG57" s="145"/>
-      <c r="DH57" s="145"/>
-      <c r="DI57" s="145"/>
-      <c r="DJ57" s="145"/>
-      <c r="DK57" s="145"/>
-      <c r="DL57" s="145"/>
-      <c r="DM57" s="145"/>
-      <c r="DN57" s="145"/>
-      <c r="DO57" s="145"/>
-      <c r="DP57" s="145"/>
-      <c r="DQ57" s="145"/>
-      <c r="DR57" s="145"/>
-      <c r="DS57" s="145"/>
-      <c r="DT57" s="145"/>
-      <c r="DU57" s="145"/>
-      <c r="DV57" s="145"/>
-      <c r="DW57" s="145"/>
-      <c r="DX57" s="145"/>
-      <c r="DY57" s="145"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="124"/>
+      <c r="O57" s="124"/>
+      <c r="P57" s="124"/>
+      <c r="Q57" s="124"/>
+      <c r="R57" s="124"/>
+      <c r="S57" s="124"/>
+      <c r="T57" s="124"/>
+      <c r="U57" s="124"/>
+      <c r="V57" s="124"/>
+      <c r="W57" s="124"/>
+      <c r="X57" s="124"/>
+      <c r="Y57" s="124"/>
+      <c r="Z57" s="124"/>
+      <c r="AA57" s="124"/>
+      <c r="AB57" s="124"/>
+      <c r="AC57" s="124"/>
+      <c r="AD57" s="124"/>
+      <c r="AE57" s="124"/>
+      <c r="AF57" s="124"/>
+      <c r="AG57" s="124"/>
+      <c r="AH57" s="124"/>
+      <c r="AI57" s="124"/>
+      <c r="AJ57" s="124"/>
+      <c r="AK57" s="124"/>
+      <c r="AL57" s="124"/>
+      <c r="AM57" s="124"/>
+      <c r="AN57" s="124"/>
+      <c r="AO57" s="124"/>
+      <c r="AP57" s="124"/>
+      <c r="AQ57" s="124"/>
+      <c r="AR57" s="124"/>
+      <c r="AS57" s="124"/>
+      <c r="AT57" s="124"/>
+      <c r="AU57" s="124"/>
+      <c r="AV57" s="124"/>
+      <c r="AW57" s="124"/>
+      <c r="AX57" s="124"/>
+      <c r="AY57" s="124"/>
+      <c r="AZ57" s="124"/>
+      <c r="BA57" s="124"/>
+      <c r="BB57" s="124"/>
+      <c r="BC57" s="124"/>
+      <c r="BD57" s="124"/>
+      <c r="BE57" s="124"/>
+      <c r="BF57" s="124"/>
+      <c r="BG57" s="124"/>
+      <c r="BH57" s="124"/>
+      <c r="BI57" s="124"/>
+      <c r="BJ57" s="124"/>
+      <c r="BK57" s="124"/>
+      <c r="BL57" s="124"/>
+      <c r="BM57" s="124"/>
+      <c r="BN57" s="124"/>
+      <c r="BO57" s="124"/>
+      <c r="BP57" s="124"/>
+      <c r="BQ57" s="124"/>
+      <c r="BR57" s="124"/>
+      <c r="BS57" s="124"/>
+      <c r="BT57" s="124"/>
+      <c r="BU57" s="124"/>
+      <c r="BV57" s="124"/>
+      <c r="BW57" s="124"/>
+      <c r="BX57" s="124"/>
+      <c r="BY57" s="124"/>
+      <c r="BZ57" s="124"/>
+      <c r="CA57" s="124"/>
+      <c r="CB57" s="124"/>
+      <c r="CC57" s="124"/>
+      <c r="CD57" s="124"/>
+      <c r="CE57" s="124"/>
+      <c r="CF57" s="124"/>
+      <c r="CG57" s="124"/>
+      <c r="CH57" s="124"/>
+      <c r="CI57" s="124"/>
+      <c r="CJ57" s="124"/>
+      <c r="CK57" s="124"/>
+      <c r="CL57" s="124"/>
+      <c r="CM57" s="124"/>
+      <c r="CN57" s="124"/>
+      <c r="CO57" s="124"/>
+      <c r="CP57" s="124"/>
+      <c r="CQ57" s="124"/>
+      <c r="CR57" s="124"/>
+      <c r="CS57" s="124"/>
+      <c r="CT57" s="124"/>
+      <c r="CU57" s="124"/>
+      <c r="CV57" s="124"/>
+      <c r="CW57" s="124"/>
+      <c r="CX57" s="124"/>
+      <c r="CY57" s="124"/>
+      <c r="CZ57" s="124"/>
+      <c r="DA57" s="124"/>
+      <c r="DB57" s="124"/>
+      <c r="DC57" s="124"/>
+      <c r="DD57" s="124"/>
+      <c r="DE57" s="124"/>
+      <c r="DF57" s="124"/>
+      <c r="DG57" s="124"/>
+      <c r="DH57" s="124"/>
+      <c r="DI57" s="124"/>
+      <c r="DJ57" s="124"/>
+      <c r="DK57" s="124"/>
+      <c r="DL57" s="124"/>
+      <c r="DM57" s="124"/>
+      <c r="DN57" s="124"/>
+      <c r="DO57" s="124"/>
+      <c r="DP57" s="124"/>
+      <c r="DQ57" s="124"/>
+      <c r="DR57" s="124"/>
+      <c r="DS57" s="124"/>
+      <c r="DT57" s="124"/>
+      <c r="DU57" s="124"/>
+      <c r="DV57" s="124"/>
+      <c r="DW57" s="124"/>
+      <c r="DX57" s="124"/>
+      <c r="DY57" s="124"/>
     </row>
     <row r="58" spans="1:136" s="4" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="140" t="s">
+      <c r="A58" s="125" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="140"/>
+      <c r="B58" s="125"/>
       <c r="C58" s="116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58" s="116"/>
       <c r="E58" s="116"/>
@@ -16835,7 +16835,7 @@
       </c>
       <c r="G58" s="115"/>
       <c r="H58" s="116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I58" s="116"/>
       <c r="J58" s="116"/>
@@ -16857,7 +16857,7 @@
       <c r="X58" s="114"/>
       <c r="Y58" s="114"/>
       <c r="Z58" s="113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA58" s="113"/>
       <c r="AB58" s="113"/>
@@ -17133,15 +17133,15 @@
       <c r="AV62" s="116"/>
       <c r="AW62" s="116"/>
       <c r="AX62" s="116"/>
-      <c r="AY62" s="140" t="s">
+      <c r="AY62" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="AZ62" s="140"/>
-      <c r="BA62" s="140"/>
-      <c r="BB62" s="140"/>
-      <c r="BC62" s="140"/>
+      <c r="AZ62" s="125"/>
+      <c r="BA62" s="125"/>
+      <c r="BB62" s="125"/>
+      <c r="BC62" s="125"/>
       <c r="BD62" s="116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BE62" s="116"/>
       <c r="BF62" s="116"/>
@@ -17150,7 +17150,7 @@
       </c>
       <c r="BH62" s="115"/>
       <c r="BI62" s="116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BJ62" s="116"/>
       <c r="BK62" s="116"/>
@@ -17172,7 +17172,7 @@
       <c r="BY62" s="114"/>
       <c r="BZ62" s="114"/>
       <c r="CA62" s="113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="CB62" s="113"/>
       <c r="CC62" s="113"/>
@@ -17244,76 +17244,76 @@
       <c r="AG64" s="115"/>
       <c r="AH64" s="115"/>
       <c r="AI64" s="115"/>
-      <c r="AJ64" s="142" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK64" s="142"/>
-      <c r="AL64" s="142"/>
-      <c r="AM64" s="142"/>
-      <c r="AN64" s="142"/>
-      <c r="AO64" s="142"/>
-      <c r="AP64" s="142"/>
-      <c r="AQ64" s="142"/>
-      <c r="AR64" s="142"/>
-      <c r="AS64" s="142"/>
-      <c r="AT64" s="142"/>
-      <c r="AU64" s="142"/>
-      <c r="AV64" s="142"/>
-      <c r="AW64" s="142"/>
-      <c r="AX64" s="142"/>
-      <c r="AY64" s="142"/>
-      <c r="AZ64" s="142"/>
-      <c r="BA64" s="142"/>
-      <c r="BB64" s="142"/>
-      <c r="BC64" s="142"/>
-      <c r="BD64" s="142"/>
-      <c r="BE64" s="142"/>
-      <c r="BF64" s="142"/>
-      <c r="BG64" s="142"/>
-      <c r="BH64" s="142"/>
-      <c r="BI64" s="142"/>
-      <c r="BJ64" s="142"/>
-      <c r="BK64" s="142"/>
-      <c r="BL64" s="142"/>
-      <c r="BM64" s="142"/>
-      <c r="BN64" s="142"/>
-      <c r="BO64" s="142"/>
-      <c r="BP64" s="142"/>
-      <c r="BQ64" s="142"/>
-      <c r="BR64" s="142"/>
-      <c r="BS64" s="142"/>
-      <c r="BT64" s="142"/>
-      <c r="BU64" s="142"/>
-      <c r="BV64" s="142"/>
-      <c r="BW64" s="142"/>
-      <c r="BX64" s="142"/>
-      <c r="BY64" s="142"/>
-      <c r="BZ64" s="142"/>
-      <c r="CA64" s="142"/>
-      <c r="CB64" s="142"/>
-      <c r="CC64" s="142"/>
-      <c r="CD64" s="142"/>
-      <c r="CE64" s="142"/>
-      <c r="CF64" s="142"/>
-      <c r="CG64" s="142"/>
-      <c r="CH64" s="142"/>
-      <c r="CI64" s="142"/>
-      <c r="CJ64" s="142"/>
-      <c r="CK64" s="142"/>
-      <c r="CL64" s="142"/>
-      <c r="CM64" s="142"/>
-      <c r="CN64" s="142"/>
-      <c r="CO64" s="142"/>
-      <c r="CP64" s="142"/>
-      <c r="CQ64" s="142"/>
-      <c r="CR64" s="142"/>
-      <c r="CS64" s="142"/>
-      <c r="CT64" s="142"/>
-      <c r="CU64" s="142"/>
-      <c r="CV64" s="142"/>
-      <c r="CW64" s="142"/>
-      <c r="CX64" s="142"/>
-      <c r="CY64" s="142"/>
+      <c r="AJ64" s="144" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK64" s="144"/>
+      <c r="AL64" s="144"/>
+      <c r="AM64" s="144"/>
+      <c r="AN64" s="144"/>
+      <c r="AO64" s="144"/>
+      <c r="AP64" s="144"/>
+      <c r="AQ64" s="144"/>
+      <c r="AR64" s="144"/>
+      <c r="AS64" s="144"/>
+      <c r="AT64" s="144"/>
+      <c r="AU64" s="144"/>
+      <c r="AV64" s="144"/>
+      <c r="AW64" s="144"/>
+      <c r="AX64" s="144"/>
+      <c r="AY64" s="144"/>
+      <c r="AZ64" s="144"/>
+      <c r="BA64" s="144"/>
+      <c r="BB64" s="144"/>
+      <c r="BC64" s="144"/>
+      <c r="BD64" s="144"/>
+      <c r="BE64" s="144"/>
+      <c r="BF64" s="144"/>
+      <c r="BG64" s="144"/>
+      <c r="BH64" s="144"/>
+      <c r="BI64" s="144"/>
+      <c r="BJ64" s="144"/>
+      <c r="BK64" s="144"/>
+      <c r="BL64" s="144"/>
+      <c r="BM64" s="144"/>
+      <c r="BN64" s="144"/>
+      <c r="BO64" s="144"/>
+      <c r="BP64" s="144"/>
+      <c r="BQ64" s="144"/>
+      <c r="BR64" s="144"/>
+      <c r="BS64" s="144"/>
+      <c r="BT64" s="144"/>
+      <c r="BU64" s="144"/>
+      <c r="BV64" s="144"/>
+      <c r="BW64" s="144"/>
+      <c r="BX64" s="144"/>
+      <c r="BY64" s="144"/>
+      <c r="BZ64" s="144"/>
+      <c r="CA64" s="144"/>
+      <c r="CB64" s="144"/>
+      <c r="CC64" s="144"/>
+      <c r="CD64" s="144"/>
+      <c r="CE64" s="144"/>
+      <c r="CF64" s="144"/>
+      <c r="CG64" s="144"/>
+      <c r="CH64" s="144"/>
+      <c r="CI64" s="144"/>
+      <c r="CJ64" s="144"/>
+      <c r="CK64" s="144"/>
+      <c r="CL64" s="144"/>
+      <c r="CM64" s="144"/>
+      <c r="CN64" s="144"/>
+      <c r="CO64" s="144"/>
+      <c r="CP64" s="144"/>
+      <c r="CQ64" s="144"/>
+      <c r="CR64" s="144"/>
+      <c r="CS64" s="144"/>
+      <c r="CT64" s="144"/>
+      <c r="CU64" s="144"/>
+      <c r="CV64" s="144"/>
+      <c r="CW64" s="144"/>
+      <c r="CX64" s="144"/>
+      <c r="CY64" s="144"/>
       <c r="CZ64" s="57"/>
       <c r="DA64" s="57"/>
       <c r="DB64" s="57"/>
@@ -17497,7 +17497,7 @@
       <c r="F66" s="115"/>
       <c r="G66" s="115"/>
       <c r="H66" s="116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
@@ -17506,18 +17506,18 @@
       <c r="M66" s="116"/>
       <c r="N66" s="116"/>
       <c r="O66" s="116"/>
-      <c r="P66" s="141" t="s">
+      <c r="P66" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="Q66" s="141"/>
-      <c r="R66" s="141"/>
-      <c r="S66" s="141"/>
-      <c r="T66" s="141"/>
-      <c r="U66" s="141"/>
-      <c r="V66" s="141"/>
-      <c r="W66" s="141"/>
+      <c r="Q66" s="143"/>
+      <c r="R66" s="143"/>
+      <c r="S66" s="143"/>
+      <c r="T66" s="143"/>
+      <c r="U66" s="143"/>
+      <c r="V66" s="143"/>
+      <c r="W66" s="143"/>
       <c r="X66" s="116" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y66" s="116"/>
       <c r="Z66" s="116"/>
@@ -17529,19 +17529,19 @@
       <c r="AF66" s="116"/>
       <c r="AG66" s="116"/>
       <c r="AH66" s="116"/>
-      <c r="AI66" s="140" t="s">
+      <c r="AI66" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="AJ66" s="140"/>
-      <c r="AK66" s="140"/>
-      <c r="AL66" s="140"/>
-      <c r="AM66" s="140"/>
-      <c r="AN66" s="140"/>
-      <c r="AO66" s="140"/>
-      <c r="AP66" s="140"/>
-      <c r="AQ66" s="140"/>
+      <c r="AJ66" s="125"/>
+      <c r="AK66" s="125"/>
+      <c r="AL66" s="125"/>
+      <c r="AM66" s="125"/>
+      <c r="AN66" s="125"/>
+      <c r="AO66" s="125"/>
+      <c r="AP66" s="125"/>
+      <c r="AQ66" s="125"/>
       <c r="AR66" s="116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS66" s="116"/>
       <c r="AT66" s="116"/>
@@ -17550,7 +17550,7 @@
       </c>
       <c r="AV66" s="115"/>
       <c r="AW66" s="116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AX66" s="116"/>
       <c r="AY66" s="116"/>
@@ -17582,100 +17582,100 @@
       <c r="A67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L67" s="142" t="s">
-        <v>130</v>
-      </c>
-      <c r="M67" s="142"/>
-      <c r="N67" s="142"/>
-      <c r="O67" s="142"/>
-      <c r="P67" s="142"/>
-      <c r="Q67" s="142"/>
-      <c r="R67" s="142"/>
-      <c r="S67" s="142"/>
-      <c r="T67" s="142"/>
-      <c r="U67" s="142"/>
-      <c r="V67" s="142"/>
-      <c r="W67" s="142"/>
-      <c r="X67" s="142"/>
-      <c r="Y67" s="142"/>
-      <c r="Z67" s="142"/>
-      <c r="AA67" s="142"/>
-      <c r="AB67" s="142"/>
-      <c r="AC67" s="142"/>
-      <c r="AD67" s="142"/>
-      <c r="AE67" s="142"/>
-      <c r="AF67" s="142"/>
-      <c r="AG67" s="142"/>
-      <c r="AH67" s="142"/>
-      <c r="AI67" s="142"/>
-      <c r="AJ67" s="142"/>
-      <c r="AK67" s="142"/>
-      <c r="AL67" s="142"/>
-      <c r="AM67" s="142"/>
-      <c r="AN67" s="142"/>
-      <c r="AO67" s="142"/>
-      <c r="AP67" s="142"/>
-      <c r="AQ67" s="142"/>
-      <c r="AR67" s="142"/>
-      <c r="AS67" s="142"/>
-      <c r="AT67" s="142"/>
-      <c r="AU67" s="142"/>
-      <c r="AV67" s="142"/>
-      <c r="AW67" s="142"/>
-      <c r="AX67" s="142"/>
-      <c r="AY67" s="142"/>
-      <c r="AZ67" s="142"/>
-      <c r="BA67" s="142"/>
-      <c r="BB67" s="142"/>
-      <c r="BC67" s="142"/>
-      <c r="BD67" s="142"/>
-      <c r="BE67" s="142"/>
-      <c r="BF67" s="142"/>
-      <c r="BG67" s="142"/>
-      <c r="BH67" s="142"/>
-      <c r="BI67" s="142"/>
-      <c r="BJ67" s="142"/>
-      <c r="BK67" s="142"/>
-      <c r="BL67" s="142"/>
-      <c r="BM67" s="142"/>
-      <c r="BN67" s="142"/>
-      <c r="BO67" s="142"/>
-      <c r="BP67" s="142"/>
-      <c r="BQ67" s="142"/>
-      <c r="BR67" s="142"/>
-      <c r="BS67" s="142"/>
-      <c r="BT67" s="142"/>
-      <c r="BU67" s="142"/>
-      <c r="BV67" s="142"/>
-      <c r="BW67" s="142"/>
-      <c r="BX67" s="142"/>
-      <c r="BY67" s="142"/>
-      <c r="BZ67" s="142"/>
-      <c r="CA67" s="142"/>
-      <c r="CB67" s="142"/>
-      <c r="CC67" s="142"/>
-      <c r="CD67" s="142"/>
-      <c r="CE67" s="142"/>
-      <c r="CF67" s="142"/>
-      <c r="CG67" s="142"/>
-      <c r="CH67" s="142"/>
-      <c r="CI67" s="142"/>
-      <c r="CJ67" s="142"/>
-      <c r="CK67" s="142"/>
-      <c r="CL67" s="142"/>
-      <c r="CM67" s="142"/>
-      <c r="CN67" s="142"/>
-      <c r="CO67" s="142"/>
-      <c r="CP67" s="142"/>
-      <c r="CQ67" s="142"/>
-      <c r="CR67" s="142"/>
-      <c r="CS67" s="142"/>
-      <c r="CT67" s="142"/>
-      <c r="CU67" s="142"/>
-      <c r="CV67" s="142"/>
-      <c r="CW67" s="142"/>
-      <c r="CX67" s="142"/>
-      <c r="CY67" s="142"/>
+      <c r="L67" s="144" t="s">
+        <v>129</v>
+      </c>
+      <c r="M67" s="144"/>
+      <c r="N67" s="144"/>
+      <c r="O67" s="144"/>
+      <c r="P67" s="144"/>
+      <c r="Q67" s="144"/>
+      <c r="R67" s="144"/>
+      <c r="S67" s="144"/>
+      <c r="T67" s="144"/>
+      <c r="U67" s="144"/>
+      <c r="V67" s="144"/>
+      <c r="W67" s="144"/>
+      <c r="X67" s="144"/>
+      <c r="Y67" s="144"/>
+      <c r="Z67" s="144"/>
+      <c r="AA67" s="144"/>
+      <c r="AB67" s="144"/>
+      <c r="AC67" s="144"/>
+      <c r="AD67" s="144"/>
+      <c r="AE67" s="144"/>
+      <c r="AF67" s="144"/>
+      <c r="AG67" s="144"/>
+      <c r="AH67" s="144"/>
+      <c r="AI67" s="144"/>
+      <c r="AJ67" s="144"/>
+      <c r="AK67" s="144"/>
+      <c r="AL67" s="144"/>
+      <c r="AM67" s="144"/>
+      <c r="AN67" s="144"/>
+      <c r="AO67" s="144"/>
+      <c r="AP67" s="144"/>
+      <c r="AQ67" s="144"/>
+      <c r="AR67" s="144"/>
+      <c r="AS67" s="144"/>
+      <c r="AT67" s="144"/>
+      <c r="AU67" s="144"/>
+      <c r="AV67" s="144"/>
+      <c r="AW67" s="144"/>
+      <c r="AX67" s="144"/>
+      <c r="AY67" s="144"/>
+      <c r="AZ67" s="144"/>
+      <c r="BA67" s="144"/>
+      <c r="BB67" s="144"/>
+      <c r="BC67" s="144"/>
+      <c r="BD67" s="144"/>
+      <c r="BE67" s="144"/>
+      <c r="BF67" s="144"/>
+      <c r="BG67" s="144"/>
+      <c r="BH67" s="144"/>
+      <c r="BI67" s="144"/>
+      <c r="BJ67" s="144"/>
+      <c r="BK67" s="144"/>
+      <c r="BL67" s="144"/>
+      <c r="BM67" s="144"/>
+      <c r="BN67" s="144"/>
+      <c r="BO67" s="144"/>
+      <c r="BP67" s="144"/>
+      <c r="BQ67" s="144"/>
+      <c r="BR67" s="144"/>
+      <c r="BS67" s="144"/>
+      <c r="BT67" s="144"/>
+      <c r="BU67" s="144"/>
+      <c r="BV67" s="144"/>
+      <c r="BW67" s="144"/>
+      <c r="BX67" s="144"/>
+      <c r="BY67" s="144"/>
+      <c r="BZ67" s="144"/>
+      <c r="CA67" s="144"/>
+      <c r="CB67" s="144"/>
+      <c r="CC67" s="144"/>
+      <c r="CD67" s="144"/>
+      <c r="CE67" s="144"/>
+      <c r="CF67" s="144"/>
+      <c r="CG67" s="144"/>
+      <c r="CH67" s="144"/>
+      <c r="CI67" s="144"/>
+      <c r="CJ67" s="144"/>
+      <c r="CK67" s="144"/>
+      <c r="CL67" s="144"/>
+      <c r="CM67" s="144"/>
+      <c r="CN67" s="144"/>
+      <c r="CO67" s="144"/>
+      <c r="CP67" s="144"/>
+      <c r="CQ67" s="144"/>
+      <c r="CR67" s="144"/>
+      <c r="CS67" s="144"/>
+      <c r="CT67" s="144"/>
+      <c r="CU67" s="144"/>
+      <c r="CV67" s="144"/>
+      <c r="CW67" s="144"/>
+      <c r="CX67" s="144"/>
+      <c r="CY67" s="144"/>
       <c r="CZ67" s="57"/>
       <c r="DA67" s="57"/>
       <c r="DB67" s="57"/>
@@ -17711,31 +17711,31 @@
       <c r="EF67" s="57"/>
     </row>
     <row r="68" spans="1:136" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V68" s="141"/>
-      <c r="W68" s="141"/>
-      <c r="X68" s="141"/>
-      <c r="Y68" s="141"/>
-      <c r="Z68" s="141"/>
-      <c r="AA68" s="141"/>
-      <c r="AB68" s="141"/>
-      <c r="AC68" s="141"/>
-      <c r="AD68" s="141"/>
-      <c r="AE68" s="141"/>
-      <c r="AF68" s="141"/>
-      <c r="AG68" s="141"/>
-      <c r="AH68" s="141"/>
-      <c r="AI68" s="141"/>
-      <c r="AJ68" s="141"/>
-      <c r="AK68" s="141"/>
-      <c r="AL68" s="141"/>
-      <c r="AM68" s="141"/>
-      <c r="AN68" s="141"/>
-      <c r="AO68" s="141"/>
-      <c r="AP68" s="141"/>
-      <c r="AQ68" s="141"/>
-      <c r="AR68" s="141"/>
-      <c r="AS68" s="141"/>
-      <c r="AT68" s="141"/>
+      <c r="V68" s="143"/>
+      <c r="W68" s="143"/>
+      <c r="X68" s="143"/>
+      <c r="Y68" s="143"/>
+      <c r="Z68" s="143"/>
+      <c r="AA68" s="143"/>
+      <c r="AB68" s="143"/>
+      <c r="AC68" s="143"/>
+      <c r="AD68" s="143"/>
+      <c r="AE68" s="143"/>
+      <c r="AF68" s="143"/>
+      <c r="AG68" s="143"/>
+      <c r="AH68" s="143"/>
+      <c r="AI68" s="143"/>
+      <c r="AJ68" s="143"/>
+      <c r="AK68" s="143"/>
+      <c r="AL68" s="143"/>
+      <c r="AM68" s="143"/>
+      <c r="AN68" s="143"/>
+      <c r="AO68" s="143"/>
+      <c r="AP68" s="143"/>
+      <c r="AQ68" s="143"/>
+      <c r="AR68" s="143"/>
+      <c r="AS68" s="143"/>
+      <c r="AT68" s="143"/>
       <c r="AV68" s="29"/>
       <c r="CO68" s="148" t="s">
         <v>36</v>
@@ -17773,7 +17773,7 @@
     </row>
     <row r="69" spans="1:136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="531">
     <mergeCell ref="AD45:AG45"/>
     <mergeCell ref="CO47:CR47"/>
     <mergeCell ref="CS47:CV47"/>
@@ -17796,7 +17796,6 @@
     <mergeCell ref="A54:EF54"/>
     <mergeCell ref="A55:EF55"/>
     <mergeCell ref="DL58:EF62"/>
-    <mergeCell ref="BR56:CK56"/>
     <mergeCell ref="CM56:DY56"/>
     <mergeCell ref="DT28:DV28"/>
     <mergeCell ref="DW28:DY28"/>
@@ -17822,7 +17821,6 @@
     <mergeCell ref="CK41:CN41"/>
     <mergeCell ref="CO41:CR41"/>
     <mergeCell ref="CS41:CV41"/>
-    <mergeCell ref="DY16:EB16"/>
     <mergeCell ref="DY14:EB14"/>
     <mergeCell ref="DU16:DX16"/>
     <mergeCell ref="DI14:DL14"/>
@@ -17869,7 +17867,6 @@
     <mergeCell ref="CG2:CJ2"/>
     <mergeCell ref="CK2:CN2"/>
     <mergeCell ref="CO2:CR2"/>
-    <mergeCell ref="AS39:AV39"/>
     <mergeCell ref="AC41:AF41"/>
     <mergeCell ref="AG41:AJ41"/>
     <mergeCell ref="BQ39:BT39"/>
@@ -17884,8 +17881,6 @@
     <mergeCell ref="AS41:AV41"/>
     <mergeCell ref="AW41:AZ41"/>
     <mergeCell ref="BQ41:BT41"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="Q39:T39"/>
     <mergeCell ref="U39:X39"/>
     <mergeCell ref="Y39:AB39"/>
     <mergeCell ref="I4:L4"/>
@@ -17908,6 +17903,8 @@
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="CK14:CN14"/>
     <mergeCell ref="CO14:CR14"/>
+    <mergeCell ref="AS39:AV39"/>
+    <mergeCell ref="DY16:EB16"/>
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="AF6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
@@ -18061,8 +18058,6 @@
     <mergeCell ref="CZ22:DA22"/>
     <mergeCell ref="BU16:BX16"/>
     <mergeCell ref="BY16:CB16"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="AS33:AV33"/>
     <mergeCell ref="CF28:CI28"/>
     <mergeCell ref="V68:AT68"/>
     <mergeCell ref="A64:AI64"/>
@@ -18085,6 +18080,8 @@
     <mergeCell ref="CG33:CJ33"/>
     <mergeCell ref="CS43:CX43"/>
     <mergeCell ref="BX43:CN43"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="Q39:T39"/>
     <mergeCell ref="CH24:CK24"/>
     <mergeCell ref="Y35:AB35"/>
     <mergeCell ref="AY62:BC62"/>
@@ -18109,7 +18106,6 @@
     <mergeCell ref="AK39:AN39"/>
     <mergeCell ref="AO39:AR39"/>
     <mergeCell ref="BE35:BH35"/>
-    <mergeCell ref="CP43:CR43"/>
     <mergeCell ref="CY43:DA43"/>
     <mergeCell ref="DQ33:DT33"/>
     <mergeCell ref="DU33:DX33"/>
@@ -18129,6 +18125,11 @@
     <mergeCell ref="DU41:DX41"/>
     <mergeCell ref="DA41:DD41"/>
     <mergeCell ref="DY39:EB39"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="DM47:DP47"/>
     <mergeCell ref="DQ47:DT47"/>
     <mergeCell ref="DU47:DX47"/>
@@ -18152,6 +18153,7 @@
     <mergeCell ref="DI39:DL39"/>
     <mergeCell ref="DM39:DP39"/>
     <mergeCell ref="DQ39:DT39"/>
+    <mergeCell ref="CP43:CR43"/>
     <mergeCell ref="CV28:CY28"/>
     <mergeCell ref="CJ28:CM28"/>
     <mergeCell ref="CN28:CQ28"/>
@@ -18191,6 +18193,7 @@
     <mergeCell ref="AC33:AF33"/>
     <mergeCell ref="AG33:AJ33"/>
     <mergeCell ref="AK33:AN33"/>
+    <mergeCell ref="AS33:AV33"/>
     <mergeCell ref="DT2:DV2"/>
     <mergeCell ref="DW2:DY2"/>
     <mergeCell ref="AK3:DY3"/>
@@ -18239,10 +18242,6 @@
     <mergeCell ref="M33:P33"/>
     <mergeCell ref="Q33:T33"/>
     <mergeCell ref="U33:X33"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="AC37:AF37"/>
     <mergeCell ref="BM37:BP37"/>
     <mergeCell ref="CW37:CZ37"/>
     <mergeCell ref="DQ37:DT37"/>
@@ -18287,7 +18286,6 @@
     <mergeCell ref="CG37:CJ37"/>
     <mergeCell ref="CK37:CN37"/>
     <mergeCell ref="CO37:CR37"/>
-    <mergeCell ref="A56:BP56"/>
     <mergeCell ref="Z58:AB58"/>
     <mergeCell ref="BX62:BZ62"/>
     <mergeCell ref="CA62:CC62"/>
@@ -18306,6 +18304,7 @@
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="H58:V58"/>
     <mergeCell ref="W58:Y58"/>
+    <mergeCell ref="A56:CK56"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/templates/staff/notif_out.xlsx
+++ b/templates/staff/notif_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\staff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF2A5B-0C68-4F71-B5F3-DE77D6443C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19E1FCB-0F99-4B37-BD5C-4EB91356AB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="122">
   <si>
     <t xml:space="preserve">к приказу МВД России </t>
   </si>
@@ -372,18 +372,9 @@
     <t>1 Пункт 8 статьи 13 Федерального закона от 25 июля 2002 г. № 115-ФЗ «О правовом положении иностранных граждан в Российской Федерации» (Собрание законодательства Российской Федерации, 2002, № 30, ст. 3032; 2018, № 53, ст. 8454).</t>
   </si>
   <si>
-    <t xml:space="preserve"> на выполнение работ (оказание услуг) с иностранным гражданином (лицом без гражданства), привлекаемым к трудовой деятельности в качестве высококвалифицированного специалиста в соответствии со статьей 13.2 Федерального закона от 25 июля 2002 г. № 115-ФЗ «О правовом положении иностранных граждан в Российской Федерации»):</t>
-  </si>
-  <si>
-    <t>3. Сведения о разрешении на работу или патенте, на основании которых иностранный гражданин (лицо без гражданства) осуществляет трудовую деятельность (не заполняется в случае осуществления трудовой деятельности без разрешения на работу или патента, а также в случае заключения трудового договора или гражданско-правового договора</t>
-  </si>
-  <si>
     <t>по</t>
   </si>
   <si>
-    <t>(индекс, субъект Российской Федерации, район, город, населенный пункт, улица, дом, квартира/офис)</t>
-  </si>
-  <si>
     <t>3.3. Трудовая деятельность осуществлялась иностранным гражданином (лицом без гражданства) на основании</t>
   </si>
   <si>
@@ -403,6 +394,9 @@
   </si>
   <si>
     <t>Приложение № 8</t>
+  </si>
+  <si>
+    <t>3. Сведения о разрешении на работу или патенте, на основании которых иностранный гражданин (лицо без гражданства) осуществляет трудовую деятельность (не заполняется в случае осуществления трудовой деятельности без разрешения на работу или патента):</t>
   </si>
 </sst>
 </file>
@@ -716,12 +710,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,35 +767,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -800,9 +821,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -812,29 +830,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -842,35 +866,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -910,12 +910,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1233,16 +1227,16 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="AE2" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
+      <c r="AE2" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1269,16 +1263,16 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="AE3" s="49" t="s">
+      <c r="AE3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="40"/>
+      <c r="AJ3" s="40"/>
+      <c r="AK3" s="40"/>
+      <c r="AL3" s="40"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1305,16 +1299,16 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="AE4" s="49" t="s">
+      <c r="AE4" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1341,254 +1335,254 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="AE5" s="50" t="s">
+      <c r="AE5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50"/>
-      <c r="AL5" s="50"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="41"/>
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41"/>
+      <c r="AL5" s="41"/>
     </row>
     <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="42"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="52"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
+      <c r="A7" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
     </row>
     <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
     </row>
     <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
     </row>
     <row r="10" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="46"/>
-      <c r="AC10" s="46"/>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AF10" s="46"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
     </row>
     <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="48"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="58"/>
     </row>
     <row r="12" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -1765,77 +1759,77 @@
       <c r="AL16" s="11"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="52"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="44"/>
+      <c r="AC17" s="44"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="44"/>
+      <c r="AF17" s="44"/>
     </row>
     <row r="18" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="55"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="47"/>
       <c r="X19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Y19" s="56" t="s">
+      <c r="Y19" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Z19" s="57"/>
+      <c r="Z19" s="49"/>
       <c r="AA19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1851,48 +1845,48 @@
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="13"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="41" t="s">
+      <c r="R21" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-      <c r="AB21" s="41"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="42"/>
     </row>
     <row r="22" spans="1:38" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
@@ -1911,75 +1905,75 @@
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
       <c r="O23" s="13"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="51" t="s">
+      <c r="R23" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="S23" s="51"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="51"/>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="51"/>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="51"/>
-      <c r="AG23" s="51"/>
-      <c r="AH23" s="51"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="51"/>
-      <c r="AL23" s="51"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
     </row>
     <row r="24" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
@@ -2025,48 +2019,48 @@
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
       <c r="O25" s="13"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="51" t="s">
+      <c r="R25" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="51"/>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="51"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="43"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="43"/>
+      <c r="AH25" s="43"/>
+      <c r="AI25" s="43"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="43"/>
     </row>
     <row r="26" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
@@ -2112,79 +2106,79 @@
       <c r="B27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
       <c r="O27" s="8"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="51" t="s">
+      <c r="R27" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="51"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="51"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="43"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="43"/>
     </row>
     <row r="28" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="41"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
       <c r="AA29" s="10">
         <v>1</v>
       </c>
@@ -2213,32 +2207,32 @@
       <c r="AL29" s="10"/>
     </row>
     <row r="30" spans="1:38" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
     </row>
     <row r="31" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
@@ -2547,46 +2541,46 @@
       <c r="AL35" s="10"/>
     </row>
     <row r="36" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="45"/>
-      <c r="AC36" s="45"/>
-      <c r="AD36" s="45"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="45"/>
-      <c r="AG36" s="45"/>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45"/>
-      <c r="AJ36" s="45"/>
-      <c r="AK36" s="45"/>
-      <c r="AL36" s="45"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+      <c r="Y36" s="55"/>
+      <c r="Z36" s="55"/>
+      <c r="AA36" s="55"/>
+      <c r="AB36" s="55"/>
+      <c r="AC36" s="55"/>
+      <c r="AD36" s="55"/>
+      <c r="AE36" s="55"/>
+      <c r="AF36" s="55"/>
+      <c r="AG36" s="55"/>
+      <c r="AH36" s="55"/>
+      <c r="AI36" s="55"/>
+      <c r="AJ36" s="55"/>
+      <c r="AK36" s="55"/>
+      <c r="AL36" s="55"/>
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
@@ -2655,46 +2649,46 @@
       <c r="AL37" s="18"/>
     </row>
     <row r="38" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="44"/>
-      <c r="Z38" s="44"/>
-      <c r="AA38" s="44"/>
-      <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
-      <c r="AE38" s="44"/>
-      <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="44"/>
-      <c r="AI38" s="44"/>
-      <c r="AJ38" s="44"/>
-      <c r="AK38" s="44"/>
-      <c r="AL38" s="44"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="54"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="54"/>
+      <c r="AF38" s="54"/>
+      <c r="AG38" s="54"/>
+      <c r="AH38" s="54"/>
+      <c r="AI38" s="54"/>
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="54"/>
+      <c r="AL38" s="54"/>
     </row>
     <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
@@ -2737,46 +2731,46 @@
       <c r="AL39" s="10"/>
     </row>
     <row r="40" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="44"/>
-      <c r="Y40" s="44"/>
-      <c r="Z40" s="44"/>
-      <c r="AA40" s="44"/>
-      <c r="AB40" s="44"/>
-      <c r="AC40" s="44"/>
-      <c r="AD40" s="44"/>
-      <c r="AE40" s="44"/>
-      <c r="AF40" s="44"/>
-      <c r="AG40" s="44"/>
-      <c r="AH40" s="44"/>
-      <c r="AI40" s="44"/>
-      <c r="AJ40" s="44"/>
-      <c r="AK40" s="44"/>
-      <c r="AL40" s="44"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="54"/>
+      <c r="U40" s="54"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="54"/>
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="54"/>
+      <c r="AG40" s="54"/>
+      <c r="AH40" s="54"/>
+      <c r="AI40" s="54"/>
+      <c r="AJ40" s="54"/>
+      <c r="AK40" s="54"/>
+      <c r="AL40" s="54"/>
     </row>
     <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
@@ -2819,46 +2813,46 @@
       <c r="AL41" s="10"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="43"/>
-      <c r="AG42" s="43"/>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="43"/>
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="43"/>
-      <c r="AL42" s="43"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="53"/>
+      <c r="Q42" s="53"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
+      <c r="AF42" s="53"/>
+      <c r="AG42" s="53"/>
+      <c r="AH42" s="53"/>
+      <c r="AI42" s="53"/>
+      <c r="AJ42" s="53"/>
+      <c r="AK42" s="53"/>
+      <c r="AL42" s="53"/>
     </row>
     <row r="46" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
@@ -2872,89 +2866,101 @@
       <c r="I46" s="26"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40"/>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40"/>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
-      <c r="AC47" s="40"/>
-      <c r="AD47" s="40"/>
-      <c r="AE47" s="40"/>
-      <c r="AF47" s="40"/>
-      <c r="AG47" s="40"/>
-      <c r="AH47" s="40"/>
-      <c r="AI47" s="40"/>
-      <c r="AJ47" s="40"/>
-      <c r="AK47" s="40"/>
-      <c r="AL47" s="40"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="51"/>
+      <c r="AE47" s="51"/>
+      <c r="AF47" s="51"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="51"/>
+      <c r="AK47" s="51"/>
+      <c r="AL47" s="51"/>
     </row>
     <row r="48" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="40"/>
-      <c r="Y48" s="40"/>
-      <c r="Z48" s="40"/>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="40"/>
-      <c r="AC48" s="40"/>
-      <c r="AD48" s="40"/>
-      <c r="AE48" s="40"/>
-      <c r="AF48" s="40"/>
-      <c r="AG48" s="40"/>
-      <c r="AH48" s="40"/>
-      <c r="AI48" s="40"/>
-      <c r="AJ48" s="40"/>
-      <c r="AK48" s="40"/>
-      <c r="AL48" s="40"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="51"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A47:AL48"/>
+    <mergeCell ref="R21:AL22"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A7:AL7"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="A9:AL9"/>
+    <mergeCell ref="A42:AL42"/>
+    <mergeCell ref="A40:AL40"/>
+    <mergeCell ref="A38:AL38"/>
+    <mergeCell ref="A36:AL36"/>
+    <mergeCell ref="A10:AF10"/>
+    <mergeCell ref="A11:AF11"/>
     <mergeCell ref="AE2:AL2"/>
     <mergeCell ref="AE3:AL3"/>
     <mergeCell ref="AE4:AL4"/>
@@ -2971,18 +2977,6 @@
     <mergeCell ref="P19:W19"/>
     <mergeCell ref="Y19:Z19"/>
     <mergeCell ref="C21:N21"/>
-    <mergeCell ref="A47:AL48"/>
-    <mergeCell ref="R21:AL22"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="A7:AL7"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="A9:AL9"/>
-    <mergeCell ref="A42:AL42"/>
-    <mergeCell ref="A40:AL40"/>
-    <mergeCell ref="A38:AL38"/>
-    <mergeCell ref="A36:AL36"/>
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="A11:AF11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2994,7 +2988,7 @@
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AL1"/>
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,86 +2998,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="75"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
     </row>
     <row r="2" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="76"/>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
     </row>
     <row r="3" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -3126,46 +3120,46 @@
       <c r="AL3" s="10"/>
     </row>
     <row r="4" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
     </row>
     <row r="5" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -3208,46 +3202,46 @@
       <c r="AL5" s="10"/>
     </row>
     <row r="6" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="77"/>
-      <c r="AK6" s="77"/>
-      <c r="AL6" s="77"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="60"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="60"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AG6" s="60"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
     </row>
     <row r="7" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -3316,46 +3310,46 @@
       <c r="AL7" s="10"/>
     </row>
     <row r="8" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
     </row>
     <row r="9" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -3424,46 +3418,46 @@
       <c r="AL9" s="10"/>
     </row>
     <row r="10" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="77"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
     </row>
     <row r="11" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
@@ -3564,46 +3558,46 @@
       <c r="AL11" s="10"/>
     </row>
     <row r="12" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="77"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="77"/>
-      <c r="AK12" s="77"/>
-      <c r="AL12" s="77"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="60"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="60"/>
+      <c r="AK12" s="60"/>
+      <c r="AL12" s="60"/>
     </row>
     <row r="13" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -3676,58 +3670,58 @@
       <c r="AL13" s="10"/>
     </row>
     <row r="14" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="79"/>
-      <c r="W14" s="79"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="79"/>
-      <c r="AA14" s="79"/>
-      <c r="AB14" s="79"/>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="79"/>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="79"/>
-      <c r="AK14" s="79"/>
-      <c r="AL14" s="79"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="61"/>
+      <c r="AJ14" s="61"/>
+      <c r="AK14" s="61"/>
+      <c r="AL14" s="61"/>
     </row>
     <row r="15" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="10">
         <v>8</v>
       </c>
@@ -3782,59 +3776,59 @@
       <c r="AL15" s="10"/>
     </row>
     <row r="17" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="59"/>
+      <c r="AJ17" s="59"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
     </row>
     <row r="18" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -3907,16 +3901,16 @@
       <c r="AL20" s="12"/>
     </row>
     <row r="21" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -3989,16 +3983,16 @@
       <c r="AL22" s="12"/>
     </row>
     <row r="23" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -4031,14 +4025,14 @@
       <c r="AL23" s="10"/>
     </row>
     <row r="24" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -4071,16 +4065,16 @@
       <c r="AL24" s="12"/>
     </row>
     <row r="25" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -4129,22 +4123,22 @@
       <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
@@ -4171,48 +4165,48 @@
       <c r="AL27" s="10"/>
     </row>
     <row r="28" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="60" t="s">
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
-      <c r="U28" s="60"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="60"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="60"/>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="60"/>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="60"/>
-      <c r="AK28" s="60"/>
-      <c r="AL28" s="60"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="69"/>
+      <c r="AC28" s="69"/>
+      <c r="AD28" s="69"/>
+      <c r="AE28" s="69"/>
+      <c r="AF28" s="69"/>
+      <c r="AG28" s="69"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="69"/>
+      <c r="AL28" s="69"/>
     </row>
     <row r="29" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -4295,16 +4289,16 @@
       <c r="AL30" s="12"/>
     </row>
     <row r="31" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="12"/>
@@ -4331,41 +4325,41 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="62" t="s">
+      <c r="H32" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62" t="s">
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="71"/>
       <c r="P32" s="21"/>
-      <c r="Q32" s="60" t="s">
+      <c r="Q32" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
       <c r="M33" s="20"/>
       <c r="N33" s="10" t="s">
         <v>16</v>
@@ -4408,55 +4402,55 @@
       <c r="AL33" s="10"/>
     </row>
     <row r="34" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="62" t="s">
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="63"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="63"/>
-      <c r="AC34" s="63"/>
-      <c r="AD34" s="63"/>
-      <c r="AE34" s="63"/>
-      <c r="AF34" s="63"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="63"/>
-      <c r="AI34" s="63"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="63"/>
-      <c r="AL34" s="63"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="72"/>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="72"/>
+      <c r="AF34" s="72"/>
+      <c r="AG34" s="72"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="72"/>
     </row>
     <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="69"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="77"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -4479,13 +4473,13 @@
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
-      <c r="X35" s="65" t="s">
+      <c r="X35" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="75"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
       <c r="AE35" s="12"/>
@@ -4498,35 +4492,35 @@
       <c r="AL35" s="10"/>
     </row>
     <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="67" t="s">
+      <c r="X36" s="75"/>
+      <c r="Y36" s="75"/>
+      <c r="Z36" s="75"/>
+      <c r="AA36" s="75"/>
+      <c r="AB36" s="75"/>
+      <c r="AC36" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67" t="s">
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="63" t="s">
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="AJ36" s="63"/>
-      <c r="AK36" s="63"/>
-      <c r="AL36" s="63"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="72"/>
+      <c r="AL36" s="72"/>
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="70"/>
-      <c r="D37" s="71"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -4637,66 +4631,49 @@
       <c r="AL41" s="10"/>
     </row>
     <row r="44" spans="1:38" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="59"/>
-      <c r="Z44" s="59"/>
-      <c r="AA44" s="59"/>
-      <c r="AB44" s="59"/>
-      <c r="AC44" s="59"/>
-      <c r="AD44" s="59"/>
-      <c r="AE44" s="59"/>
-      <c r="AF44" s="59"/>
-      <c r="AG44" s="59"/>
-      <c r="AH44" s="59"/>
-      <c r="AI44" s="59"/>
-      <c r="AJ44" s="59"/>
-      <c r="AK44" s="59"/>
-      <c r="AL44" s="59"/>
+      <c r="A44" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="68"/>
+      <c r="AE44" s="68"/>
+      <c r="AF44" s="68"/>
+      <c r="AG44" s="68"/>
+      <c r="AH44" s="68"/>
+      <c r="AI44" s="68"/>
+      <c r="AJ44" s="68"/>
+      <c r="AK44" s="68"/>
+      <c r="AL44" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A17:AL17"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="A10:AL10"/>
-    <mergeCell ref="A12:AL12"/>
-    <mergeCell ref="A14:AL14"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A2:AL2"/>
-    <mergeCell ref="A4:AL4"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="A23:H24"/>
     <mergeCell ref="A44:AL44"/>
     <mergeCell ref="O28:AL28"/>
     <mergeCell ref="A33:L33"/>
@@ -4711,6 +4688,23 @@
     <mergeCell ref="AF36:AH36"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="A23:H24"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A2:AL2"/>
+    <mergeCell ref="A4:AL4"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A17:AL17"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="A10:AL10"/>
+    <mergeCell ref="A12:AL12"/>
+    <mergeCell ref="A14:AL14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4722,7 +4716,7 @@
   <dimension ref="A1:AL47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AL1"/>
+      <selection activeCell="AO9" sqref="AO9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4731,63 +4725,61 @@
     <col min="39" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="91"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="91"/>
-      <c r="AG1" s="91"/>
-      <c r="AH1" s="91"/>
-      <c r="AI1" s="91"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="91"/>
-      <c r="AL1" s="91"/>
+    <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+      <c r="AI1" s="83"/>
+      <c r="AJ1" s="83"/>
+      <c r="AK1" s="83"/>
+      <c r="AL1" s="83"/>
     </row>
     <row r="2" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="87"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="84"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -4818,11 +4810,11 @@
     </row>
     <row r="4" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -4845,13 +4837,13 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
-      <c r="X5" s="65" t="s">
+      <c r="X5" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="75"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="12"/>
@@ -4864,37 +4856,37 @@
       <c r="AL5" s="10"/>
     </row>
     <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="67" t="s">
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="75"/>
+      <c r="AC6" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67" t="s">
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="63" t="s">
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="63"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
     </row>
     <row r="7" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="87"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="84"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4972,17 +4964,17 @@
     </row>
     <row r="11" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="12"/>
@@ -4995,11 +4987,11 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="W12" s="90"/>
-      <c r="X12" s="84"/>
+      <c r="V12" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="W12" s="81"/>
+      <c r="X12" s="82"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="12"/>
@@ -5020,87 +5012,87 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="63"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="63" t="s">
+      <c r="N13" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="63"/>
+      <c r="O13" s="72"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
-      <c r="R13" s="63" t="s">
+      <c r="R13" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
-      <c r="Y13" s="63" t="s">
+      <c r="Y13" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="Z13" s="63"/>
+      <c r="Z13" s="72"/>
       <c r="AA13" s="38"/>
       <c r="AB13" s="38"/>
-      <c r="AC13" s="63" t="s">
+      <c r="AC13" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="AD13" s="63"/>
+      <c r="AD13" s="72"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
-      <c r="AG13" s="63" t="s">
+      <c r="AG13" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="63"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
     </row>
     <row r="15" spans="1:38" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="59"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="59"/>
-      <c r="AL15" s="59"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
     </row>
     <row r="16" spans="1:38" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
@@ -5110,96 +5102,96 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="87"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="24"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="49"/>
-      <c r="I17" s="87"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="84"/>
       <c r="J17" s="24"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="49" t="s">
+      <c r="L17" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="49"/>
-      <c r="N17" s="87"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="84"/>
       <c r="O17" s="25">
         <v>13</v>
       </c>
       <c r="P17" s="23"/>
-      <c r="Q17" s="49" t="s">
+      <c r="Q17" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="49"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+      <c r="AC17" s="40"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="40"/>
+      <c r="AH17" s="40"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
+      <c r="AK17" s="40"/>
+      <c r="AL17" s="40"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="49"/>
-      <c r="AI18" s="49"/>
-      <c r="AJ18" s="49"/>
-      <c r="AK18" s="49"/>
-      <c r="AL18" s="49"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="40"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="40"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="40"/>
+      <c r="AK18" s="40"/>
+      <c r="AL18" s="40"/>
     </row>
     <row r="19" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5325,89 +5317,89 @@
       <c r="AL24" s="11"/>
     </row>
     <row r="25" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="89"/>
-      <c r="AF25" s="89"/>
-      <c r="AG25" s="89"/>
-      <c r="AH25" s="89"/>
-      <c r="AI25" s="89"/>
-      <c r="AJ25" s="89"/>
-      <c r="AK25" s="89"/>
-      <c r="AL25" s="89"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="86"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="86"/>
+      <c r="AJ25" s="86"/>
+      <c r="AK25" s="86"/>
+      <c r="AL25" s="86"/>
     </row>
     <row r="26" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="72"/>
-      <c r="Y27" s="72"/>
-      <c r="Z27" s="72"/>
-      <c r="AA27" s="72"/>
-      <c r="AB27" s="72"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="72"/>
-      <c r="AI27" s="72"/>
-      <c r="AJ27" s="72"/>
-      <c r="AK27" s="72"/>
-      <c r="AL27" s="72"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="65"/>
+      <c r="AL27" s="65"/>
     </row>
     <row r="28" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5533,48 +5525,48 @@
       <c r="AL33" s="11"/>
     </row>
     <row r="35" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="Y35" s="83" t="s">
+      <c r="A35" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="Y35" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="83"/>
-      <c r="AB35" s="83"/>
-      <c r="AC35" s="83"/>
-      <c r="AD35" s="83"/>
-      <c r="AE35" s="83"/>
-      <c r="AF35" s="84"/>
+      <c r="Z35" s="88"/>
+      <c r="AA35" s="88"/>
+      <c r="AB35" s="88"/>
+      <c r="AC35" s="88"/>
+      <c r="AD35" s="88"/>
+      <c r="AE35" s="88"/>
+      <c r="AF35" s="82"/>
       <c r="AG35" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AH35" s="85" t="s">
+      <c r="AH35" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="AI35" s="84"/>
+      <c r="AI35" s="82"/>
       <c r="AJ35" s="10" t="s">
         <v>24</v>
       </c>
@@ -5583,29 +5575,29 @@
       </c>
     </row>
     <row r="36" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
     </row>
     <row r="37" spans="1:38" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5615,72 +5607,72 @@
       <c r="B38" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
       <c r="O38" s="11"/>
       <c r="P38" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q38" s="51" t="s">
+      <c r="Q38" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="51"/>
-      <c r="AC38" s="51"/>
-      <c r="AD38" s="51"/>
-      <c r="AE38" s="51"/>
-      <c r="AF38" s="51"/>
-      <c r="AG38" s="51"/>
-      <c r="AH38" s="51"/>
-      <c r="AI38" s="51"/>
-      <c r="AJ38" s="51"/>
-      <c r="AK38" s="51"/>
-      <c r="AL38" s="51"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="43"/>
     </row>
     <row r="39" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="49"/>
-      <c r="T40" s="49"/>
-      <c r="U40" s="49"/>
-      <c r="V40" s="49"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="49"/>
+      <c r="A40" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="40"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="40"/>
+      <c r="U40" s="40"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="40"/>
+      <c r="X40" s="40"/>
+      <c r="Y40" s="40"/>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
       <c r="AC40" s="12"/>
@@ -5693,93 +5685,93 @@
       <c r="AJ40" s="10"/>
     </row>
     <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49"/>
-      <c r="T41" s="49"/>
-      <c r="U41" s="49"/>
-      <c r="V41" s="49"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="49"/>
-      <c r="Y41" s="49"/>
-      <c r="AA41" s="81" t="s">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="40"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="40"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="40"/>
+      <c r="U41" s="40"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="40"/>
+      <c r="X41" s="40"/>
+      <c r="Y41" s="40"/>
+      <c r="AA41" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="AB41" s="81"/>
-      <c r="AC41" s="81"/>
-      <c r="AD41" s="81" t="s">
+      <c r="AB41" s="91"/>
+      <c r="AC41" s="91"/>
+      <c r="AD41" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="AE41" s="81"/>
-      <c r="AF41" s="81"/>
-      <c r="AG41" s="82" t="s">
+      <c r="AE41" s="91"/>
+      <c r="AF41" s="91"/>
+      <c r="AG41" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="AH41" s="82"/>
-      <c r="AI41" s="82"/>
-      <c r="AJ41" s="82"/>
+      <c r="AH41" s="87"/>
+      <c r="AI41" s="87"/>
+      <c r="AJ41" s="87"/>
     </row>
     <row r="42" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="86"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="86"/>
-      <c r="X43" s="86"/>
-      <c r="Y43" s="83" t="s">
+      <c r="A43" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="89"/>
+      <c r="V43" s="89"/>
+      <c r="W43" s="89"/>
+      <c r="X43" s="89"/>
+      <c r="Y43" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="Z43" s="83"/>
-      <c r="AA43" s="83"/>
-      <c r="AB43" s="83"/>
-      <c r="AC43" s="83"/>
-      <c r="AD43" s="83"/>
-      <c r="AE43" s="83"/>
-      <c r="AF43" s="84"/>
+      <c r="Z43" s="88"/>
+      <c r="AA43" s="88"/>
+      <c r="AB43" s="88"/>
+      <c r="AC43" s="88"/>
+      <c r="AD43" s="88"/>
+      <c r="AE43" s="88"/>
+      <c r="AF43" s="82"/>
       <c r="AG43" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AH43" s="85" t="s">
+      <c r="AH43" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="AI43" s="84"/>
+      <c r="AI43" s="82"/>
       <c r="AJ43" s="10" t="s">
         <v>24</v>
       </c>
@@ -5788,60 +5780,64 @@
       </c>
     </row>
     <row r="44" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="86"/>
-      <c r="S44" s="86"/>
-      <c r="T44" s="86"/>
-      <c r="U44" s="86"/>
-      <c r="V44" s="86"/>
-      <c r="W44" s="86"/>
-      <c r="X44" s="86"/>
+      <c r="A44" s="89"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="89"/>
+      <c r="S44" s="89"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="89"/>
+      <c r="V44" s="89"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="89"/>
     </row>
     <row r="45" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
+      <c r="A45" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="90"/>
+      <c r="C45" s="90"/>
       <c r="E45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
+      <c r="H45" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
       <c r="L45" s="11"/>
     </row>
     <row r="47" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="X5:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A40:Y41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="Y43:AF43"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="A43:X44"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="A35:W36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="Q38:AL38"/>
     <mergeCell ref="A27:AL27"/>
     <mergeCell ref="AG13:AJ13"/>
     <mergeCell ref="A15:AL15"/>
@@ -5856,20 +5852,16 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="A18:AL18"/>
     <mergeCell ref="A25:AL25"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="Y43:AF43"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="A43:X44"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="A35:W36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="Q38:AL38"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A40:Y41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="X5:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5881,7 +5873,7 @@
   <dimension ref="A1:AW27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:AL7"/>
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5891,256 +5883,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
-      <c r="AL1" s="75"/>
-    </row>
-    <row r="2" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-    </row>
-    <row r="3" spans="1:49" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-    </row>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+    </row>
+    <row r="2" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+    </row>
+    <row r="3" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+    </row>
+    <row r="4" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:49" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="59"/>
-      <c r="AE5" s="59"/>
-      <c r="AF5" s="59"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
     </row>
     <row r="7" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="S7" s="105"/>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="92"/>
+      <c r="AL7" s="92"/>
     </row>
     <row r="8" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
-      <c r="S8" s="89"/>
-      <c r="T8" s="89"/>
-      <c r="U8" s="89"/>
-      <c r="V8" s="89"/>
-      <c r="W8" s="89"/>
-      <c r="X8" s="89"/>
-      <c r="Y8" s="89"/>
-      <c r="Z8" s="89"/>
-      <c r="AA8" s="89"/>
-      <c r="AB8" s="89"/>
-      <c r="AC8" s="89"/>
-      <c r="AD8" s="89"/>
-      <c r="AE8" s="89"/>
-      <c r="AF8" s="89"/>
-      <c r="AG8" s="89"/>
-      <c r="AH8" s="89"/>
-      <c r="AI8" s="89"/>
-      <c r="AJ8" s="89"/>
-      <c r="AK8" s="89"/>
-      <c r="AL8" s="89"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="86"/>
+      <c r="Y8" s="86"/>
+      <c r="Z8" s="86"/>
+      <c r="AA8" s="86"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AP9"/>
@@ -6176,16 +6167,16 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="AE10" s="94" t="s">
+      <c r="AE10" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="95"/>
-      <c r="AJ10" s="95"/>
-      <c r="AK10" s="95"/>
-      <c r="AL10" s="96"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="97"/>
+      <c r="AH10" s="97"/>
+      <c r="AI10" s="97"/>
+      <c r="AJ10" s="97"/>
+      <c r="AK10" s="97"/>
+      <c r="AL10" s="98"/>
       <c r="AP10"/>
       <c r="AQ10"/>
       <c r="AR10"/>
@@ -6199,36 +6190,36 @@
       <c r="A11" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
       <c r="K11" s="22">
         <v>2</v>
       </c>
       <c r="L11" s="22">
         <v>0</v>
       </c>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
       <c r="O11" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="AE11" s="97"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="98"/>
-      <c r="AH11" s="98"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="98"/>
-      <c r="AK11" s="98"/>
-      <c r="AL11" s="99"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="100"/>
+      <c r="AG11" s="100"/>
+      <c r="AH11" s="100"/>
+      <c r="AI11" s="100"/>
+      <c r="AJ11" s="100"/>
+      <c r="AK11" s="100"/>
+      <c r="AL11" s="101"/>
       <c r="AP11"/>
       <c r="AQ11"/>
       <c r="AR11"/>
@@ -6254,48 +6245,48 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="29"/>
-      <c r="AE12" s="100"/>
-      <c r="AF12" s="101"/>
-      <c r="AG12" s="101"/>
-      <c r="AH12" s="101"/>
-      <c r="AI12" s="101"/>
-      <c r="AJ12" s="101"/>
-      <c r="AK12" s="101"/>
-      <c r="AL12" s="102"/>
+      <c r="AE12" s="102"/>
+      <c r="AF12" s="103"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="103"/>
+      <c r="AK12" s="103"/>
+      <c r="AL12" s="104"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AF13" s="22"/>
     </row>
     <row r="14" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="76">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="63">
         <v>1</v>
       </c>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
       <c r="U14" s="17"/>
-      <c r="V14" s="83" t="s">
+      <c r="V14" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="W14" s="83"/>
+      <c r="W14" s="88"/>
       <c r="X14" s="30" t="s">
         <v>97</v>
       </c>
@@ -6308,14 +6299,14 @@
       <c r="AA14" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="AB14" s="104" t="s">
+      <c r="AB14" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="104"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="104"/>
+      <c r="AC14" s="106"/>
+      <c r="AD14" s="106"/>
+      <c r="AE14" s="106"/>
+      <c r="AF14" s="106"/>
+      <c r="AG14" s="106"/>
       <c r="AH14" s="12">
         <v>2</v>
       </c>
@@ -6373,85 +6364,85 @@
       <c r="AL15" s="1"/>
     </row>
     <row r="16" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
     </row>
     <row r="17" spans="1:43" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="76" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="76"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
       <c r="AM18"/>
       <c r="AN18"/>
       <c r="AO18"/>
@@ -6460,36 +6451,36 @@
     </row>
     <row r="19" spans="1:43" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="76" t="s">
+      <c r="B20" s="64"/>
+      <c r="C20" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="90" t="s">
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="76">
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="63">
         <v>787525</v>
       </c>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="103" t="s">
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="105" t="s">
         <v>107</v>
       </c>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
+      <c r="R20" s="105"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
       <c r="U20" s="30" t="s">
         <v>97</v>
       </c>
@@ -6502,12 +6493,12 @@
       <c r="X20" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="Y20" s="104" t="s">
+      <c r="Y20" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
+      <c r="Z20" s="106"/>
+      <c r="AA20" s="106"/>
+      <c r="AB20" s="106"/>
       <c r="AC20" s="12">
         <v>2</v>
       </c>
@@ -6543,68 +6534,68 @@
       <c r="AO21"/>
     </row>
     <row r="22" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="76" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
       <c r="X22"/>
       <c r="Y22"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="92"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="92"/>
-      <c r="AJ22" s="92"/>
-      <c r="AK22" s="92"/>
-      <c r="AL22" s="92"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="94"/>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="94"/>
+      <c r="AH22" s="94"/>
+      <c r="AI22" s="94"/>
+      <c r="AJ22" s="94"/>
+      <c r="AK22" s="94"/>
+      <c r="AL22" s="94"/>
       <c r="AM22"/>
       <c r="AN22"/>
       <c r="AO22"/>
     </row>
     <row r="23" spans="1:43" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z23" s="93" t="s">
+      <c r="Z23" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="93"/>
-      <c r="AK23" s="93"/>
-      <c r="AL23" s="93"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="95"/>
+      <c r="AJ23" s="95"/>
+      <c r="AK23" s="95"/>
+      <c r="AL23" s="95"/>
       <c r="AM23"/>
       <c r="AN23"/>
       <c r="AO23"/>
@@ -6650,18 +6641,7 @@
       <c r="AO27"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A3:AL3"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="P18:AL18"/>
-    <mergeCell ref="A5:AL5"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="R7:AL7"/>
+  <mergeCells count="26">
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="G22:W22"/>
     <mergeCell ref="Z22:AL22"/>
@@ -6678,6 +6658,16 @@
     <mergeCell ref="A16:AF16"/>
     <mergeCell ref="A18:O18"/>
     <mergeCell ref="AB14:AG14"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="P18:AL18"/>
+    <mergeCell ref="A5:AL5"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="R7:AL7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/templates/staff/notif_out.xlsx
+++ b/templates/staff/notif_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meller\Desktop\Проекты\CRM-Avi\templates\staff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19E1FCB-0F99-4B37-BD5C-4EB91356AB97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098A49CD-0BDF-4B1C-BC09-5839C8FE61AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="126">
   <si>
     <t xml:space="preserve">к приказу МВД России </t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>от 30.07.2020 № 536</t>
-  </si>
-  <si>
-    <t>З</t>
   </si>
   <si>
     <t>(Оборотная сторона)</t>
@@ -336,36 +333,21 @@
     <t>от</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>Паспортные данные лица, подавшего уведомление по доверенности:</t>
   </si>
   <si>
     <t>Фамилия, имя, отчество (при наличии)</t>
   </si>
   <si>
-    <t>Радько Елена</t>
-  </si>
-  <si>
-    <t>FU</t>
-  </si>
-  <si>
     <t>Номер</t>
   </si>
   <si>
     <t>Выдан</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
     <t xml:space="preserve">Кем выдан: </t>
   </si>
   <si>
-    <t>орган 5112 Украина г. Одесса</t>
-  </si>
-  <si>
     <t>(подпись лица, представляющего уведомление)</t>
   </si>
   <si>
@@ -397,6 +379,36 @@
   </si>
   <si>
     <t>3. Сведения о разрешении на работу или патенте, на основании которых иностранный гражданин (лицо без гражданства) осуществляет трудовую деятельность (не заполняется в случае осуществления трудовой деятельности без разрешения на работу или патента):</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Радько Елена Евгеньевна</t>
+  </si>
+  <si>
+    <t>ГУ МВД России по г. Москва</t>
+  </si>
+  <si>
+    <t>Ц</t>
+  </si>
+  <si>
+    <t>Ы</t>
+  </si>
+  <si>
+    <t>Я</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Э</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -603,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -710,6 +722,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -717,9 +759,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -743,173 +782,149 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,16 +1242,16 @@
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="AE2" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
+      <c r="AE2" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1263,16 +1278,16 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="AE3" s="40" t="s">
+      <c r="AE3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -1299,16 +1314,16 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="AE4" s="40" t="s">
+      <c r="AE4" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -1335,254 +1350,254 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="AE5" s="41" t="s">
+      <c r="AE5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="51"/>
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="51"/>
+      <c r="AK5" s="51"/>
+      <c r="AL5" s="51"/>
     </row>
     <row r="6" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="52"/>
-      <c r="AC6" s="52"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
     </row>
     <row r="7" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="52"/>
-      <c r="AC7" s="52"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="52"/>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="52"/>
+      <c r="A7" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
     </row>
     <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="43"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="43"/>
+      <c r="AJ8" s="43"/>
+      <c r="AK8" s="43"/>
+      <c r="AL8" s="43"/>
     </row>
     <row r="9" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
     </row>
     <row r="10" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="56"/>
-      <c r="AF10" s="56"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
     </row>
     <row r="11" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="58"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="49"/>
     </row>
     <row r="12" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -1759,77 +1774,77 @@
       <c r="AL16" s="11"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="44"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
     </row>
     <row r="18" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="46" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="47"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="56"/>
       <c r="X19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Y19" s="48" t="s">
+      <c r="Y19" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="Z19" s="49"/>
+      <c r="Z19" s="58"/>
       <c r="AA19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1845,20 +1860,20 @@
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
       <c r="O21" s="13"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="15" t="s">
@@ -1951,29 +1966,29 @@
       <c r="Q23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="43" t="s">
+      <c r="R23" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="43"/>
-      <c r="AI23" s="43"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="43"/>
-      <c r="AL23" s="43"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
+      <c r="AD23" s="52"/>
+      <c r="AE23" s="52"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="52"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="52"/>
+      <c r="AJ23" s="52"/>
+      <c r="AK23" s="52"/>
+      <c r="AL23" s="52"/>
     </row>
     <row r="24" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
@@ -2038,29 +2053,29 @@
       <c r="Q25" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="43" t="s">
+      <c r="R25" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="43"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="43"/>
-      <c r="AH25" s="43"/>
-      <c r="AI25" s="43"/>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="43"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="52"/>
+      <c r="AB25" s="52"/>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="52"/>
+      <c r="AE25" s="52"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="52"/>
+      <c r="AH25" s="52"/>
+      <c r="AI25" s="52"/>
+      <c r="AJ25" s="52"/>
+      <c r="AK25" s="52"/>
+      <c r="AL25" s="52"/>
     </row>
     <row r="26" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
@@ -2125,29 +2140,29 @@
       <c r="Q27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="43" t="s">
+      <c r="R27" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="43"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="43"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="43"/>
-      <c r="AG27" s="43"/>
-      <c r="AH27" s="43"/>
-      <c r="AI27" s="43"/>
-      <c r="AJ27" s="43"/>
-      <c r="AK27" s="43"/>
-      <c r="AL27" s="43"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="52"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="52"/>
+      <c r="AC27" s="52"/>
+      <c r="AD27" s="52"/>
+      <c r="AE27" s="52"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="52"/>
+      <c r="AH27" s="52"/>
+      <c r="AI27" s="52"/>
+      <c r="AJ27" s="52"/>
+      <c r="AK27" s="52"/>
+      <c r="AL27" s="52"/>
     </row>
     <row r="28" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2541,46 +2556,46 @@
       <c r="AL35" s="10"/>
     </row>
     <row r="36" spans="1:38" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="55"/>
-      <c r="AA36" s="55"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="55"/>
-      <c r="AE36" s="55"/>
-      <c r="AF36" s="55"/>
-      <c r="AG36" s="55"/>
-      <c r="AH36" s="55"/>
-      <c r="AI36" s="55"/>
-      <c r="AJ36" s="55"/>
-      <c r="AK36" s="55"/>
-      <c r="AL36" s="55"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="46"/>
+      <c r="AH36" s="46"/>
+      <c r="AI36" s="46"/>
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="46"/>
+      <c r="AL36" s="46"/>
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
@@ -2649,46 +2664,46 @@
       <c r="AL37" s="18"/>
     </row>
     <row r="38" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="54"/>
-      <c r="W38" s="54"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="54"/>
-      <c r="Z38" s="54"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="54"/>
-      <c r="AC38" s="54"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="54"/>
-      <c r="AG38" s="54"/>
-      <c r="AH38" s="54"/>
-      <c r="AI38" s="54"/>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="54"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="45"/>
+      <c r="AE38" s="45"/>
+      <c r="AF38" s="45"/>
+      <c r="AG38" s="45"/>
+      <c r="AH38" s="45"/>
+      <c r="AI38" s="45"/>
+      <c r="AJ38" s="45"/>
+      <c r="AK38" s="45"/>
+      <c r="AL38" s="45"/>
     </row>
     <row r="39" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
@@ -2731,46 +2746,46 @@
       <c r="AL39" s="10"/>
     </row>
     <row r="40" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="54"/>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="54"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="54"/>
-      <c r="X40" s="54"/>
-      <c r="Y40" s="54"/>
-      <c r="Z40" s="54"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="54"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="54"/>
-      <c r="AF40" s="54"/>
-      <c r="AG40" s="54"/>
-      <c r="AH40" s="54"/>
-      <c r="AI40" s="54"/>
-      <c r="AJ40" s="54"/>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="54"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="45"/>
+      <c r="AE40" s="45"/>
+      <c r="AF40" s="45"/>
+      <c r="AG40" s="45"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="45"/>
+      <c r="AJ40" s="45"/>
+      <c r="AK40" s="45"/>
+      <c r="AL40" s="45"/>
     </row>
     <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
@@ -2813,46 +2828,46 @@
       <c r="AL41" s="10"/>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
-      <c r="L42" s="53"/>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
-      <c r="O42" s="53"/>
-      <c r="P42" s="53"/>
-      <c r="Q42" s="53"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="53"/>
-      <c r="AL42" s="53"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="44"/>
+      <c r="AB42" s="44"/>
+      <c r="AC42" s="44"/>
+      <c r="AD42" s="44"/>
+      <c r="AE42" s="44"/>
+      <c r="AF42" s="44"/>
+      <c r="AG42" s="44"/>
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44"/>
+      <c r="AL42" s="44"/>
     </row>
     <row r="46" spans="1:38" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
@@ -2866,101 +2881,89 @@
       <c r="I46" s="26"/>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="51"/>
-      <c r="U47" s="51"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="51"/>
-      <c r="X47" s="51"/>
-      <c r="Y47" s="51"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="51"/>
-      <c r="AC47" s="51"/>
-      <c r="AD47" s="51"/>
-      <c r="AE47" s="51"/>
-      <c r="AF47" s="51"/>
-      <c r="AG47" s="51"/>
-      <c r="AH47" s="51"/>
-      <c r="AI47" s="51"/>
-      <c r="AJ47" s="51"/>
-      <c r="AK47" s="51"/>
-      <c r="AL47" s="51"/>
+      <c r="A47" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="41"/>
+      <c r="AH47" s="41"/>
+      <c r="AI47" s="41"/>
+      <c r="AJ47" s="41"/>
+      <c r="AK47" s="41"/>
+      <c r="AL47" s="41"/>
     </row>
     <row r="48" spans="1:38" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="51"/>
-      <c r="X48" s="51"/>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AE48" s="51"/>
-      <c r="AF48" s="51"/>
-      <c r="AG48" s="51"/>
-      <c r="AH48" s="51"/>
-      <c r="AI48" s="51"/>
-      <c r="AJ48" s="51"/>
-      <c r="AK48" s="51"/>
-      <c r="AL48" s="51"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="41"/>
+      <c r="AF48" s="41"/>
+      <c r="AG48" s="41"/>
+      <c r="AH48" s="41"/>
+      <c r="AI48" s="41"/>
+      <c r="AJ48" s="41"/>
+      <c r="AK48" s="41"/>
+      <c r="AL48" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A47:AL48"/>
-    <mergeCell ref="R21:AL22"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="A7:AL7"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="A9:AL9"/>
-    <mergeCell ref="A42:AL42"/>
-    <mergeCell ref="A40:AL40"/>
-    <mergeCell ref="A38:AL38"/>
-    <mergeCell ref="A36:AL36"/>
-    <mergeCell ref="A10:AF10"/>
-    <mergeCell ref="A11:AF11"/>
     <mergeCell ref="AE2:AL2"/>
     <mergeCell ref="AE3:AL3"/>
     <mergeCell ref="AE4:AL4"/>
@@ -2977,6 +2980,18 @@
     <mergeCell ref="P19:W19"/>
     <mergeCell ref="Y19:Z19"/>
     <mergeCell ref="C21:N21"/>
+    <mergeCell ref="A47:AL48"/>
+    <mergeCell ref="R21:AL22"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A7:AL7"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="A9:AL9"/>
+    <mergeCell ref="A42:AL42"/>
+    <mergeCell ref="A40:AL40"/>
+    <mergeCell ref="A38:AL38"/>
+    <mergeCell ref="A36:AL36"/>
+    <mergeCell ref="A10:AF10"/>
+    <mergeCell ref="A11:AF11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2988,7 +3003,7 @@
   <dimension ref="A1:AL44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+      <selection activeCell="AN11" sqref="AN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2998,86 +3013,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
+      <c r="A1" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
     </row>
     <row r="2" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
     </row>
     <row r="3" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
@@ -3120,46 +3135,46 @@
       <c r="AL3" s="10"/>
     </row>
     <row r="4" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
+      <c r="A4" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
     </row>
     <row r="5" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
@@ -3202,46 +3217,46 @@
       <c r="AL5" s="10"/>
     </row>
     <row r="6" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AG6" s="60"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
+      <c r="A6" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
     </row>
     <row r="7" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -3285,19 +3300,45 @@
         <v>0</v>
       </c>
       <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
+      <c r="P7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="10">
+        <v>7</v>
+      </c>
+      <c r="U7" s="10">
+        <v>7</v>
+      </c>
+      <c r="V7" s="10">
+        <v>3</v>
+      </c>
+      <c r="W7" s="10">
+        <v>1</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>1</v>
+      </c>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
       <c r="AE7" s="10"/>
@@ -3310,357 +3351,433 @@
       <c r="AL7" s="10"/>
     </row>
     <row r="8" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
+      <c r="A8" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
     </row>
     <row r="9" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="L9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>7</v>
-      </c>
-      <c r="F9" s="10">
-        <v>7</v>
-      </c>
-      <c r="G9" s="10">
-        <v>3</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>1</v>
-      </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
+      <c r="AE9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="AK9" s="10"/>
       <c r="AL9" s="10"/>
     </row>
     <row r="10" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="60"/>
+      <c r="A10" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="78"/>
+      <c r="AE10" s="78"/>
+      <c r="AF10" s="78"/>
+      <c r="AG10" s="78"/>
+      <c r="AH10" s="78"/>
+      <c r="AI10" s="78"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="78"/>
+      <c r="AL10" s="78"/>
     </row>
     <row r="11" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>1</v>
-      </c>
-      <c r="B11" s="10">
-        <v>2</v>
-      </c>
-      <c r="C11" s="10">
-        <v>3</v>
-      </c>
-      <c r="D11" s="10">
-        <v>9</v>
-      </c>
-      <c r="E11" s="10">
-        <v>9</v>
-      </c>
-      <c r="F11" s="10">
-        <v>5</v>
-      </c>
-      <c r="G11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="H11" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>7</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="R11" s="10"/>
       <c r="S11" s="10" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="T11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="U11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="X11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z11" s="10"/>
       <c r="AA11" s="10" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AB11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AF11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="AG11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI11" s="10" t="s">
+        <v>121</v>
+      </c>
       <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
+      <c r="AK11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="60"/>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="60"/>
-      <c r="AK12" s="60"/>
-      <c r="AL12" s="60"/>
+      <c r="A12" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="78"/>
+      <c r="AK12" s="78"/>
+      <c r="AL12" s="78"/>
     </row>
     <row r="13" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10">
+        <v>1</v>
+      </c>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="W13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <v>6</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10">
-        <v>1</v>
-      </c>
-      <c r="R13" s="10">
-        <v>5</v>
-      </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
+      <c r="AD13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>2</v>
+      </c>
       <c r="AF13" s="10"/>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10"/>
@@ -3670,92 +3787,94 @@
       <c r="AL13" s="10"/>
     </row>
     <row r="14" spans="1:38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="80"/>
+      <c r="AK14" s="80"/>
+      <c r="AL14" s="80"/>
+    </row>
+    <row r="15" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61"/>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="61"/>
-      <c r="AK14" s="61"/>
-      <c r="AL14" s="61"/>
-    </row>
-    <row r="15" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="10">
-        <v>8</v>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="J15" s="10">
+        <v>7</v>
+      </c>
+      <c r="K15" s="10">
         <v>4</v>
-      </c>
-      <c r="K15" s="10">
-        <v>9</v>
       </c>
       <c r="L15" s="10">
         <v>9</v>
       </c>
       <c r="M15" s="10">
+        <v>5</v>
+      </c>
+      <c r="N15" s="10">
         <v>1</v>
-      </c>
-      <c r="N15" s="10">
-        <v>4</v>
       </c>
       <c r="O15" s="10">
         <v>5</v>
       </c>
       <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
         <v>4</v>
       </c>
-      <c r="Q15" s="10">
-        <v>3</v>
-      </c>
       <c r="R15" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S15" s="10">
         <v>3</v>
       </c>
-      <c r="T15" s="10"/>
+      <c r="T15" s="10">
+        <v>5</v>
+      </c>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
@@ -3776,59 +3895,59 @@
       <c r="AL15" s="10"/>
     </row>
     <row r="17" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="59"/>
+      <c r="A17" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="79"/>
+      <c r="AK17" s="79"/>
+      <c r="AL17" s="79"/>
     </row>
     <row r="18" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
+      <c r="A19" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
@@ -3901,16 +4020,16 @@
       <c r="AL20" s="12"/>
     </row>
     <row r="21" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
+      <c r="A21" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -3983,16 +4102,16 @@
       <c r="AL22" s="12"/>
     </row>
     <row r="23" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="A23" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -4025,14 +4144,14 @@
       <c r="AL23" s="10"/>
     </row>
     <row r="24" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
@@ -4065,16 +4184,16 @@
       <c r="AL24" s="12"/>
     </row>
     <row r="25" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
+      <c r="A25" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
@@ -4123,22 +4242,22 @@
       <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
+      <c r="A27" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
@@ -4165,48 +4284,48 @@
       <c r="AL27" s="10"/>
     </row>
     <row r="28" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="69"/>
-      <c r="AD28" s="69"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="69"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-      <c r="AL28" s="69"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="61"/>
+      <c r="AB28" s="61"/>
+      <c r="AC28" s="61"/>
+      <c r="AD28" s="61"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="61"/>
+      <c r="AG28" s="61"/>
+      <c r="AH28" s="61"/>
+      <c r="AI28" s="61"/>
+      <c r="AJ28" s="61"/>
+      <c r="AK28" s="61"/>
+      <c r="AL28" s="61"/>
     </row>
     <row r="29" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -4289,16 +4408,16 @@
       <c r="AL30" s="12"/>
     </row>
     <row r="31" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
+      <c r="A31" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="12"/>
@@ -4325,41 +4444,41 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="71" t="s">
+      <c r="H32" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71" t="s">
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
+      <c r="T32" s="61"/>
     </row>
     <row r="33" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
+      <c r="A33" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
       <c r="M33" s="20"/>
       <c r="N33" s="10" t="s">
         <v>16</v>
@@ -4402,55 +4521,55 @@
       <c r="AL33" s="10"/>
     </row>
     <row r="34" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="71" t="s">
+      <c r="A34" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34" s="64"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="64"/>
+      <c r="W34" s="64"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="64"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="64"/>
+      <c r="AF34" s="64"/>
+      <c r="AG34" s="64"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="64"/>
+      <c r="AJ34" s="64"/>
+      <c r="AK34" s="64"/>
+      <c r="AL34" s="64"/>
+    </row>
+    <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="72"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="72"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="72"/>
-      <c r="AC34" s="72"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="72"/>
-      <c r="AF34" s="72"/>
-      <c r="AG34" s="72"/>
-      <c r="AH34" s="72"/>
-      <c r="AI34" s="72"/>
-      <c r="AJ34" s="72"/>
-      <c r="AK34" s="72"/>
-      <c r="AL34" s="72"/>
-    </row>
-    <row r="35" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="77"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -4461,7 +4580,7 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -4473,13 +4592,13 @@
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
-      <c r="X35" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y35" s="75"/>
-      <c r="Z35" s="75"/>
-      <c r="AA35" s="75"/>
-      <c r="AB35" s="75"/>
+      <c r="X35" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
       <c r="AE35" s="12"/>
@@ -4492,35 +4611,35 @@
       <c r="AL35" s="10"/>
     </row>
     <row r="36" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X36" s="75"/>
-      <c r="Y36" s="75"/>
-      <c r="Z36" s="75"/>
-      <c r="AA36" s="75"/>
-      <c r="AB36" s="75"/>
-      <c r="AC36" s="76" t="s">
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="67"/>
+      <c r="AA36" s="67"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD36" s="68"/>
+      <c r="AE36" s="68"/>
+      <c r="AF36" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76" t="s">
+      <c r="AG36" s="68"/>
+      <c r="AH36" s="68"/>
+      <c r="AI36" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="AG36" s="76"/>
-      <c r="AH36" s="76"/>
-      <c r="AI36" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ36" s="72"/>
-      <c r="AK36" s="72"/>
-      <c r="AL36" s="72"/>
+      <c r="AJ36" s="64"/>
+      <c r="AK36" s="64"/>
+      <c r="AL36" s="64"/>
     </row>
     <row r="37" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
+      <c r="A37" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -4631,49 +4750,66 @@
       <c r="AL41" s="10"/>
     </row>
     <row r="44" spans="1:38" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="68"/>
-      <c r="V44" s="68"/>
-      <c r="W44" s="68"/>
-      <c r="X44" s="68"/>
-      <c r="Y44" s="68"/>
-      <c r="Z44" s="68"/>
-      <c r="AA44" s="68"/>
-      <c r="AB44" s="68"/>
-      <c r="AC44" s="68"/>
-      <c r="AD44" s="68"/>
-      <c r="AE44" s="68"/>
-      <c r="AF44" s="68"/>
-      <c r="AG44" s="68"/>
-      <c r="AH44" s="68"/>
-      <c r="AI44" s="68"/>
-      <c r="AJ44" s="68"/>
-      <c r="AK44" s="68"/>
-      <c r="AL44" s="68"/>
+      <c r="A44" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="60"/>
+      <c r="X44" s="60"/>
+      <c r="Y44" s="60"/>
+      <c r="Z44" s="60"/>
+      <c r="AA44" s="60"/>
+      <c r="AB44" s="60"/>
+      <c r="AC44" s="60"/>
+      <c r="AD44" s="60"/>
+      <c r="AE44" s="60"/>
+      <c r="AF44" s="60"/>
+      <c r="AG44" s="60"/>
+      <c r="AH44" s="60"/>
+      <c r="AI44" s="60"/>
+      <c r="AJ44" s="60"/>
+      <c r="AK44" s="60"/>
+      <c r="AL44" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A17:AL17"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="A10:AL10"/>
+    <mergeCell ref="A12:AL12"/>
+    <mergeCell ref="A14:AL14"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A2:AL2"/>
+    <mergeCell ref="A4:AL4"/>
+    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="A23:H24"/>
     <mergeCell ref="A44:AL44"/>
     <mergeCell ref="O28:AL28"/>
     <mergeCell ref="A33:L33"/>
@@ -4688,23 +4824,6 @@
     <mergeCell ref="AF36:AH36"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="A23:H24"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A2:AL2"/>
-    <mergeCell ref="A4:AL4"/>
-    <mergeCell ref="A6:AL6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A17:AL17"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="A10:AL10"/>
-    <mergeCell ref="A12:AL12"/>
-    <mergeCell ref="A14:AL14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4726,60 +4845,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
-      <c r="AI1" s="83"/>
-      <c r="AJ1" s="83"/>
-      <c r="AK1" s="83"/>
-      <c r="AL1" s="83"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="92"/>
+      <c r="U1" s="92"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
     </row>
     <row r="2" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="84"/>
+      <c r="A3" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="88"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -4810,11 +4929,11 @@
     </row>
     <row r="4" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="77"/>
+      <c r="A5" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -4825,7 +4944,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -4837,13 +4956,13 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
-      <c r="X5" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="75"/>
+      <c r="X5" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="12"/>
@@ -4856,37 +4975,37 @@
       <c r="AL5" s="10"/>
     </row>
     <row r="6" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
-      <c r="AB6" s="75"/>
-      <c r="AC6" s="76" t="s">
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76" t="s">
+      <c r="AG6" s="68"/>
+      <c r="AH6" s="68"/>
+      <c r="AI6" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="72"/>
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+      <c r="AL6" s="64"/>
     </row>
     <row r="7" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="84"/>
+      <c r="A8" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4964,17 +5083,17 @@
     </row>
     <row r="11" spans="1:38" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="77"/>
+      <c r="A12" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="L12" s="12"/>
@@ -4987,11 +5106,11 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="W12" s="81"/>
-      <c r="X12" s="82"/>
+      <c r="V12" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="W12" s="91"/>
+      <c r="X12" s="85"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
       <c r="AA12" s="12"/>
@@ -5012,87 +5131,87 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="I13" s="21"/>
-      <c r="J13" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="72"/>
+      <c r="J13" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="64"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="O13" s="72"/>
+      <c r="N13" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="64"/>
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
-      <c r="R13" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
+      <c r="R13" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21"/>
-      <c r="Y13" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z13" s="72"/>
+      <c r="Y13" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z13" s="64"/>
       <c r="AA13" s="38"/>
       <c r="AB13" s="38"/>
-      <c r="AC13" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD13" s="72"/>
+      <c r="AC13" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD13" s="64"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
-      <c r="AG13" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
+      <c r="AG13" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
     </row>
     <row r="15" spans="1:38" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
+      <c r="A15" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
+      <c r="AB15" s="60"/>
+      <c r="AC15" s="60"/>
+      <c r="AD15" s="60"/>
+      <c r="AE15" s="60"/>
+      <c r="AF15" s="60"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="60"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="60"/>
+      <c r="AK15" s="60"/>
+      <c r="AL15" s="60"/>
     </row>
     <row r="16" spans="1:38" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
@@ -5102,96 +5221,96 @@
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="84"/>
+      <c r="A17" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="24"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="84"/>
+      <c r="G17" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="88"/>
       <c r="J17" s="24"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="84"/>
+      <c r="L17" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="50"/>
+      <c r="N17" s="88"/>
       <c r="O17" s="25">
         <v>13</v>
       </c>
       <c r="P17" s="23"/>
-      <c r="Q17" s="40" t="s">
+      <c r="Q17" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="40"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="40"/>
-      <c r="AL18" s="40"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
     </row>
     <row r="19" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5317,89 +5436,89 @@
       <c r="AL24" s="11"/>
     </row>
     <row r="25" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="86"/>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="86"/>
-      <c r="AJ25" s="86"/>
-      <c r="AK25" s="86"/>
-      <c r="AL25" s="86"/>
+      <c r="A25" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="90"/>
+      <c r="X25" s="90"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="90"/>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AD25" s="90"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="90"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="90"/>
+      <c r="AJ25" s="90"/>
+      <c r="AK25" s="90"/>
+      <c r="AL25" s="90"/>
     </row>
     <row r="26" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:38" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="65"/>
-      <c r="AA27" s="65"/>
-      <c r="AB27" s="65"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="65"/>
-      <c r="AE27" s="65"/>
-      <c r="AF27" s="65"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="65"/>
-      <c r="AI27" s="65"/>
-      <c r="AJ27" s="65"/>
-      <c r="AK27" s="65"/>
-      <c r="AL27" s="65"/>
+      <c r="A27" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="73"/>
+      <c r="AJ27" s="73"/>
+      <c r="AK27" s="73"/>
+      <c r="AL27" s="73"/>
     </row>
     <row r="28" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5525,48 +5644,48 @@
       <c r="AL33" s="11"/>
     </row>
     <row r="35" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="Y35" s="88" t="s">
+      <c r="A35" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="73"/>
+      <c r="Y35" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Z35" s="88"/>
-      <c r="AA35" s="88"/>
-      <c r="AB35" s="88"/>
-      <c r="AC35" s="88"/>
-      <c r="AD35" s="88"/>
-      <c r="AE35" s="88"/>
-      <c r="AF35" s="82"/>
+      <c r="Z35" s="84"/>
+      <c r="AA35" s="84"/>
+      <c r="AB35" s="84"/>
+      <c r="AC35" s="84"/>
+      <c r="AD35" s="84"/>
+      <c r="AE35" s="84"/>
+      <c r="AF35" s="85"/>
       <c r="AG35" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AH35" s="80" t="s">
+      <c r="AH35" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AI35" s="82"/>
+      <c r="AI35" s="85"/>
       <c r="AJ35" s="10" t="s">
         <v>24</v>
       </c>
@@ -5575,29 +5694,29 @@
       </c>
     </row>
     <row r="36" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
     </row>
     <row r="37" spans="1:38" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5607,72 +5726,72 @@
       <c r="B38" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
+      <c r="C38" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
       <c r="O38" s="11"/>
       <c r="P38" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q38" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="43"/>
-      <c r="AE38" s="43"/>
-      <c r="AF38" s="43"/>
-      <c r="AG38" s="43"/>
-      <c r="AH38" s="43"/>
-      <c r="AI38" s="43"/>
-      <c r="AJ38" s="43"/>
-      <c r="AK38" s="43"/>
-      <c r="AL38" s="43"/>
+      <c r="Q38" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="R38" s="52"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="52"/>
+      <c r="V38" s="52"/>
+      <c r="W38" s="52"/>
+      <c r="X38" s="52"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="52"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="52"/>
+      <c r="AC38" s="52"/>
+      <c r="AD38" s="52"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="52"/>
+      <c r="AG38" s="52"/>
+      <c r="AH38" s="52"/>
+      <c r="AI38" s="52"/>
+      <c r="AJ38" s="52"/>
+      <c r="AK38" s="52"/>
+      <c r="AL38" s="52"/>
     </row>
     <row r="39" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="40"/>
-      <c r="T40" s="40"/>
-      <c r="U40" s="40"/>
-      <c r="V40" s="40"/>
-      <c r="W40" s="40"/>
-      <c r="X40" s="40"/>
-      <c r="Y40" s="40"/>
+      <c r="A40" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="50"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="50"/>
+      <c r="V40" s="50"/>
+      <c r="W40" s="50"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="50"/>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
       <c r="AC40" s="12"/>
@@ -5685,93 +5804,93 @@
       <c r="AJ40" s="10"/>
     </row>
     <row r="41" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="40"/>
-      <c r="T41" s="40"/>
-      <c r="U41" s="40"/>
-      <c r="V41" s="40"/>
-      <c r="W41" s="40"/>
-      <c r="X41" s="40"/>
-      <c r="Y41" s="40"/>
-      <c r="AA41" s="91" t="s">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="50"/>
+      <c r="V41" s="50"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="50"/>
+      <c r="AA41" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB41" s="82"/>
+      <c r="AC41" s="82"/>
+      <c r="AD41" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="AB41" s="91"/>
-      <c r="AC41" s="91"/>
-      <c r="AD41" s="91" t="s">
+      <c r="AE41" s="82"/>
+      <c r="AF41" s="82"/>
+      <c r="AG41" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="AE41" s="91"/>
-      <c r="AF41" s="91"/>
-      <c r="AG41" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH41" s="87"/>
-      <c r="AI41" s="87"/>
-      <c r="AJ41" s="87"/>
+      <c r="AH41" s="83"/>
+      <c r="AI41" s="83"/>
+      <c r="AJ41" s="83"/>
     </row>
     <row r="42" spans="1:38" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="89"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="89"/>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="89"/>
-      <c r="T43" s="89"/>
-      <c r="U43" s="89"/>
-      <c r="V43" s="89"/>
-      <c r="W43" s="89"/>
-      <c r="X43" s="89"/>
-      <c r="Y43" s="88" t="s">
+      <c r="A43" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="87"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="87"/>
+      <c r="U43" s="87"/>
+      <c r="V43" s="87"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="87"/>
+      <c r="Y43" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="Z43" s="88"/>
-      <c r="AA43" s="88"/>
-      <c r="AB43" s="88"/>
-      <c r="AC43" s="88"/>
-      <c r="AD43" s="88"/>
-      <c r="AE43" s="88"/>
-      <c r="AF43" s="82"/>
+      <c r="Z43" s="84"/>
+      <c r="AA43" s="84"/>
+      <c r="AB43" s="84"/>
+      <c r="AC43" s="84"/>
+      <c r="AD43" s="84"/>
+      <c r="AE43" s="84"/>
+      <c r="AF43" s="85"/>
       <c r="AG43" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AH43" s="80" t="s">
+      <c r="AH43" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AI43" s="82"/>
+      <c r="AI43" s="85"/>
       <c r="AJ43" s="10" t="s">
         <v>24</v>
       </c>
@@ -5780,64 +5899,60 @@
       </c>
     </row>
     <row r="44" spans="1:38" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="89"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="89"/>
-      <c r="Q44" s="89"/>
-      <c r="R44" s="89"/>
-      <c r="S44" s="89"/>
-      <c r="T44" s="89"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="89"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87"/>
     </row>
     <row r="45" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
+      <c r="A45" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
       <c r="E45" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
+      <c r="H45" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
       <c r="L45" s="11"/>
     </row>
     <row r="47" spans="1:38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A40:Y41"/>
-    <mergeCell ref="AA41:AC41"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="Y43:AF43"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="A43:X44"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="Y35:AF35"/>
-    <mergeCell ref="A35:W36"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="Q38:AL38"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="X5:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AL6"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A27:AL27"/>
     <mergeCell ref="AG13:AJ13"/>
     <mergeCell ref="A15:AL15"/>
@@ -5852,16 +5967,20 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="A18:AL18"/>
     <mergeCell ref="A25:AL25"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="X5:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AL6"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="Y43:AF43"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="A43:X44"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="Y35:AF35"/>
+    <mergeCell ref="A35:W36"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="Q38:AL38"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A40:Y41"/>
+    <mergeCell ref="AA41:AC41"/>
+    <mergeCell ref="AD41:AF41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5873,7 +5992,7 @@
   <dimension ref="A1:AW27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5883,46 +6002,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
+      <c r="A1" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="76"/>
+      <c r="AJ1" s="76"/>
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
     </row>
     <row r="2" spans="1:49" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
@@ -6006,132 +6125,132 @@
     </row>
     <row r="4" spans="1:49" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:49" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="60"/>
+      <c r="Y5" s="60"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="60"/>
+      <c r="AB5" s="60"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="60"/>
+      <c r="AE5" s="60"/>
+      <c r="AF5" s="60"/>
+      <c r="AG5" s="60"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+    </row>
+    <row r="7" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
-      <c r="AF5" s="68"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="68"/>
-    </row>
-    <row r="7" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="106"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92" t="s">
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="106"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="106"/>
+      <c r="AI7" s="106"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="106"/>
+    </row>
+    <row r="8" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="92"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="92"/>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="92"/>
-    </row>
-    <row r="8" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="90"/>
+      <c r="AK8" s="90"/>
+      <c r="AL8" s="90"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AP9"/>
@@ -6167,16 +6286,16 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="AE10" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="97"/>
-      <c r="AL10" s="98"/>
+      <c r="AE10" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF10" s="96"/>
+      <c r="AG10" s="96"/>
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="96"/>
+      <c r="AJ10" s="96"/>
+      <c r="AK10" s="96"/>
+      <c r="AL10" s="97"/>
       <c r="AP10"/>
       <c r="AQ10"/>
       <c r="AR10"/>
@@ -6188,38 +6307,38 @@
     </row>
     <row r="11" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
+        <v>96</v>
+      </c>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
+        <v>96</v>
+      </c>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
       <c r="K11" s="22">
         <v>2</v>
       </c>
       <c r="L11" s="22">
         <v>0</v>
       </c>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
       <c r="O11" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="100"/>
-      <c r="AG11" s="100"/>
-      <c r="AH11" s="100"/>
-      <c r="AI11" s="100"/>
-      <c r="AJ11" s="100"/>
-      <c r="AK11" s="100"/>
-      <c r="AL11" s="101"/>
+        <v>97</v>
+      </c>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="99"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="99"/>
+      <c r="AJ11" s="99"/>
+      <c r="AK11" s="99"/>
+      <c r="AL11" s="100"/>
       <c r="AP11"/>
       <c r="AQ11"/>
       <c r="AR11"/>
@@ -6245,68 +6364,68 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="29"/>
-      <c r="AE12" s="102"/>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="103"/>
-      <c r="AH12" s="103"/>
-      <c r="AI12" s="103"/>
-      <c r="AJ12" s="103"/>
-      <c r="AK12" s="103"/>
-      <c r="AL12" s="104"/>
+      <c r="AE12" s="101"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="102"/>
+      <c r="AH12" s="102"/>
+      <c r="AI12" s="102"/>
+      <c r="AJ12" s="102"/>
+      <c r="AK12" s="102"/>
+      <c r="AL12" s="103"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AF13" s="22"/>
     </row>
     <row r="14" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="77">
+        <v>1</v>
+      </c>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="63">
+      <c r="W14" s="84"/>
+      <c r="X14" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y14" s="37">
         <v>1</v>
       </c>
-      <c r="S14" s="63"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="W14" s="88"/>
-      <c r="X14" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y14" s="37">
+      <c r="Z14" s="37">
         <v>0</v>
       </c>
-      <c r="Z14" s="37">
-        <v>1</v>
-      </c>
       <c r="AA14" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB14" s="106" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC14" s="106"/>
-      <c r="AD14" s="106"/>
-      <c r="AE14" s="106"/>
-      <c r="AF14" s="106"/>
-      <c r="AG14" s="106"/>
+        <v>96</v>
+      </c>
+      <c r="AB14" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="105"/>
+      <c r="AE14" s="105"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="105"/>
       <c r="AH14" s="12">
         <v>2</v>
       </c>
@@ -6317,10 +6436,10 @@
         <v>2</v>
       </c>
       <c r="AK14" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -6364,85 +6483,85 @@
       <c r="AL15" s="1"/>
     </row>
     <row r="16" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
+      <c r="A16" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="50"/>
+      <c r="AB16" s="50"/>
+      <c r="AC16" s="50"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="50"/>
+      <c r="AF16" s="50"/>
     </row>
     <row r="17" spans="1:43" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="63"/>
-      <c r="X18" s="63"/>
-      <c r="Y18" s="63"/>
-      <c r="Z18" s="63"/>
-      <c r="AA18" s="63"/>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="63"/>
-      <c r="AG18" s="63"/>
-      <c r="AH18" s="63"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
+      <c r="A18" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="77"/>
+      <c r="AK18" s="77"/>
+      <c r="AL18" s="77"/>
       <c r="AM18"/>
       <c r="AN18"/>
       <c r="AO18"/>
@@ -6451,68 +6570,68 @@
     </row>
     <row r="19" spans="1:43" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="63">
-        <v>787525</v>
-      </c>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="105" t="s">
-        <v>107</v>
-      </c>
-      <c r="R20" s="105"/>
-      <c r="S20" s="105"/>
-      <c r="T20" s="105"/>
+      <c r="A20" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="77">
+        <v>4521</v>
+      </c>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="84" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="77">
+        <v>451768</v>
+      </c>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="104" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
       <c r="U20" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="V20" s="37">
-        <v>1</v>
-      </c>
-      <c r="W20" s="37">
-        <v>5</v>
+        <v>96</v>
+      </c>
+      <c r="V20" s="40">
+        <v>0</v>
+      </c>
+      <c r="W20" s="40">
+        <v>9</v>
       </c>
       <c r="X20" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y20" s="106" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
+        <v>96</v>
+      </c>
+      <c r="Y20" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="105"/>
       <c r="AC20" s="12">
         <v>2</v>
       </c>
       <c r="AD20" s="12">
         <v>0</v>
       </c>
-      <c r="AE20" s="37">
+      <c r="AE20" s="40">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="40">
         <v>1</v>
       </c>
-      <c r="AF20" s="37">
-        <v>9</v>
-      </c>
       <c r="AG20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AH20"/>
       <c r="AI20"/>
@@ -6534,68 +6653,68 @@
       <c r="AO21"/>
     </row>
     <row r="22" spans="1:43" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="63"/>
-      <c r="U22" s="63"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
+      <c r="A22" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
       <c r="X22"/>
       <c r="Y22"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="94"/>
-      <c r="AE22" s="94"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="94"/>
-      <c r="AH22" s="94"/>
-      <c r="AI22" s="94"/>
-      <c r="AJ22" s="94"/>
-      <c r="AK22" s="94"/>
-      <c r="AL22" s="94"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+      <c r="AI22" s="93"/>
+      <c r="AJ22" s="93"/>
+      <c r="AK22" s="93"/>
+      <c r="AL22" s="93"/>
       <c r="AM22"/>
       <c r="AN22"/>
       <c r="AO22"/>
     </row>
     <row r="23" spans="1:43" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Z23" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="95"/>
+      <c r="Z23" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="94"/>
+      <c r="AE23" s="94"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="94"/>
+      <c r="AH23" s="94"/>
+      <c r="AI23" s="94"/>
+      <c r="AJ23" s="94"/>
+      <c r="AK23" s="94"/>
+      <c r="AL23" s="94"/>
       <c r="AM23"/>
       <c r="AN23"/>
       <c r="AO23"/>
@@ -6642,6 +6761,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="P18:AL18"/>
+    <mergeCell ref="A5:AL5"/>
+    <mergeCell ref="A8:AL8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="R7:AL7"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="G22:W22"/>
     <mergeCell ref="Z22:AL22"/>
@@ -6658,16 +6787,6 @@
     <mergeCell ref="A16:AF16"/>
     <mergeCell ref="A18:O18"/>
     <mergeCell ref="AB14:AG14"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="P18:AL18"/>
-    <mergeCell ref="A5:AL5"/>
-    <mergeCell ref="A8:AL8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="R7:AL7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
